--- a/P06/Scrum_Sprint_2.xlsx
+++ b/P06/Scrum_Sprint_2.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26220"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C2AC1CD9-6407-42C8-BDFF-2DABAE16BF37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcnar\Desktop\cse1325\P06\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC1C14B7-F0BC-4EC7-A4D4-C24B21118086}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5655" yWindow="2985" windowWidth="21600" windowHeight="11385" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
-    <sheet name="Sprint 01 Backlog" sheetId="2" r:id="rId2"/>
-    <sheet name="Sprint 02 Backlog" sheetId="3" r:id="rId3"/>
+    <sheet name="Sprint 02 Backlog" sheetId="3" r:id="rId2"/>
+    <sheet name="Sprint 01 Backlog" sheetId="2" r:id="rId3"/>
     <sheet name="Sprint 03 Backlog" sheetId="4" r:id="rId4"/>
     <sheet name="Sprint 04 Backlog" sheetId="5" r:id="rId5"/>
     <sheet name="Sprint 05 Backlog" sheetId="6" r:id="rId6"/>
@@ -37,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="189">
   <si>
     <t>Product Name:</t>
   </si>
@@ -496,6 +501,114 @@
   </si>
   <si>
     <t>NOTE: This sprint is entirely OPTIONAL – no points will be lost if you ignore it</t>
+  </si>
+  <si>
+    <t>Jam915</t>
+  </si>
+  <si>
+    <t>ELSA</t>
+  </si>
+  <si>
+    <t>Jesse McNary</t>
+  </si>
+  <si>
+    <t>JAM</t>
+  </si>
+  <si>
+    <t>Write Customer Class</t>
+  </si>
+  <si>
+    <t>Completed Day 1</t>
+  </si>
+  <si>
+    <t>Copy build.xml into repo and test compiule customer</t>
+  </si>
+  <si>
+    <t>Test TestCustromer regression test</t>
+  </si>
+  <si>
+    <t>Add Customer.java and build.xml to Github</t>
+  </si>
+  <si>
+    <t>Write Option Class</t>
+  </si>
+  <si>
+    <t>Test TestOption regression test</t>
+  </si>
+  <si>
+    <t>Add Option.java to Github</t>
+  </si>
+  <si>
+    <t>Write Computer Class</t>
+  </si>
+  <si>
+    <t>Add name, model and options fields</t>
+  </si>
+  <si>
+    <t>Create constructer</t>
+  </si>
+  <si>
+    <t>add addOptions, cost, toString, and equals methods</t>
+  </si>
+  <si>
+    <t>Add Computer.java to github</t>
+  </si>
+  <si>
+    <t>Write Order class</t>
+  </si>
+  <si>
+    <t>Add nextOrderNumber, orderNumber, customer and computers fields</t>
+  </si>
+  <si>
+    <t>Write constructor</t>
+  </si>
+  <si>
+    <t>Completed Day 2</t>
+  </si>
+  <si>
+    <t>Write addComputer, toString, and equals methods</t>
+  </si>
+  <si>
+    <t>Test TestOrder regression test</t>
+  </si>
+  <si>
+    <t>Add Order to Github</t>
+  </si>
+  <si>
+    <t>Create Object Customer</t>
+  </si>
+  <si>
+    <t>Create Object Option</t>
+  </si>
+  <si>
+    <t>Create Object Computer</t>
+  </si>
+  <si>
+    <t>Create Object Order</t>
+  </si>
+  <si>
+    <t>Confirm all 4 objects are created without error</t>
+  </si>
+  <si>
+    <t>Add, commit, push Sprint 1</t>
+  </si>
+  <si>
+    <t>Finished in Sprint 1</t>
+  </si>
+  <si>
+    <t>Transfer files over from NIM</t>
+  </si>
+  <si>
+    <t>Renamefiles and begin working on MainWin</t>
+  </si>
+  <si>
+    <t>Get gui with Menubar setup</t>
+  </si>
+  <si>
+    <t>Begin working on actionListeners</t>
+  </si>
+  <si>
+    <t>Finished in Sprint 2</t>
   </si>
 </sst>
 </file>
@@ -506,7 +619,7 @@
     <numFmt numFmtId="164" formatCode="mmm\ dd"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy\ hh:mm\ AM/PM"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -569,6 +682,19 @@
     <font>
       <b/>
       <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -656,7 +782,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -786,6 +912,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1009,19 +1141,19 @@
                   <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>23</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>23</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>23</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>23</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>23</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1301,33 +1433,347 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
+              <c:f>'Sprint 02 Backlog'!$B$7:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B52F-4C7C-B6D0-DEDB27F2C9FC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:smooth val="0"/>
+        <c:axId val="45041377"/>
+        <c:axId val="58414557"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="45041377"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="900" b="0" strike="noStrike" spc="-1">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Days</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="B3B3B3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="58414557"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="58414557"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:solidFill>
+                <a:srgbClr val="B3B3B3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="900" b="0" strike="noStrike" spc="-1">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Tasks</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="B3B3B3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="45041377"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="B3B3B3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="FFFFFF"/>
+    </a:solidFill>
+    <a:ln w="0">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:style val="2"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1300" b="0" strike="noStrike" spc="-1">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1300" b="0" strike="noStrike" spc="-1">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Sprint Burn Chart</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
+            <c:separator>; </c:separator>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
               <c:f>'Sprint 01 Backlog'!$B$7:$B$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1491,320 +1937,6 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="30947722"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:solidFill>
-            <a:srgbClr val="B3B3B3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="FFFFFF"/>
-    </a:solidFill>
-    <a:ln w="0">
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:style val="2"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1300" b="0" strike="noStrike" spc="-1">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1300" b="0" strike="noStrike" spc="-1">
-                <a:latin typeface="Arial"/>
-              </a:rPr>
-              <a:t>Sprint Burn Chart</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr wrap="none"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="1"/>
-            <c:separator>; </c:separator>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>'Sprint 02 Backlog'!$B$7:$B$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B52F-4C7C-B6D0-DEDB27F2C9FC}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:hiLowLines>
-          <c:spPr>
-            <a:ln w="0">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:hiLowLines>
-        <c:smooth val="0"/>
-        <c:axId val="45041377"/>
-        <c:axId val="58414557"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="45041377"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="900" b="0" strike="noStrike" spc="-1">
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
-                  <a:t>Days</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln w="0">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="0">
-            <a:solidFill>
-              <a:srgbClr val="B3B3B3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="58414557"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="58414557"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="0">
-              <a:solidFill>
-                <a:srgbClr val="B3B3B3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="900" b="0" strike="noStrike" spc="-1">
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
-                  <a:t>Tasks</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln w="0">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="0">
-            <a:solidFill>
-              <a:srgbClr val="B3B3B3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="45041377"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3110,7 +3242,7 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
@@ -3144,17 +3276,17 @@
       <xdr:rowOff>67680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1773000</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>518400</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>134280</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3185,17 +3317,17 @@
       <xdr:rowOff>67680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>518400</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1773000</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>134280</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3233,7 +3365,7 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
@@ -3274,7 +3406,7 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="">
+        <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
@@ -3315,7 +3447,7 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="">
+        <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000005000000}"/>
@@ -3356,7 +3488,7 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="">
+        <xdr:cNvPr id="6" name="Chart 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000006000000}"/>
@@ -3682,11 +3814,11 @@
   </sheetPr>
   <dimension ref="A1:AMJ100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="K47" sqref="K47"/>
+    <sheetView topLeftCell="A28" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.7109375" style="4" customWidth="1"/>
     <col min="2" max="2" width="11" style="4" customWidth="1"/>
@@ -3702,11 +3834,13 @@
     <col min="12" max="1024" width="11.5703125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="7" customFormat="1" ht="17.45">
+    <row r="1" spans="1:10" s="7" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45"/>
+      <c r="B1" s="45" t="s">
+        <v>154</v>
+      </c>
       <c r="C1" s="45"/>
       <c r="D1" s="45"/>
       <c r="E1" s="45"/>
@@ -3718,11 +3852,13 @@
       </c>
       <c r="J1"/>
     </row>
-    <row r="2" spans="1:10" s="7" customFormat="1" ht="15">
+    <row r="2" spans="1:10" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="46"/>
+      <c r="B2" s="46" t="s">
+        <v>153</v>
+      </c>
       <c r="C2" s="46"/>
       <c r="D2" s="46"/>
       <c r="E2" s="46"/>
@@ -3732,7 +3868,7 @@
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" spans="1:10" s="7" customFormat="1">
+    <row r="3" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="5"/>
@@ -3744,7 +3880,7 @@
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
     </row>
-    <row r="4" spans="1:10" s="7" customFormat="1">
+    <row r="4" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
       <c r="B4" s="5" t="s">
         <v>3</v>
@@ -3762,21 +3898,27 @@
       </c>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" spans="1:10" s="7" customFormat="1">
+    <row r="5" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="47"/>
+      <c r="B5" s="47" t="s">
+        <v>155</v>
+      </c>
       <c r="C5" s="47"/>
       <c r="D5" s="47"/>
       <c r="E5" s="47"/>
       <c r="F5" s="47"/>
       <c r="G5" s="47"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
+      <c r="H5" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="I5" s="3">
+        <v>1001942779</v>
+      </c>
       <c r="J5" s="5"/>
     </row>
-    <row r="6" spans="1:10" s="7" customFormat="1">
+    <row r="6" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6"/>
       <c r="B6" s="43"/>
       <c r="C6" s="43"/>
@@ -3788,7 +3930,7 @@
       <c r="I6" s="2"/>
       <c r="J6" s="5"/>
     </row>
-    <row r="7" spans="1:10" s="7" customFormat="1">
+    <row r="7" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7"/>
       <c r="B7" s="43"/>
       <c r="C7" s="43"/>
@@ -3800,7 +3942,7 @@
       <c r="I7" s="2"/>
       <c r="J7" s="5"/>
     </row>
-    <row r="8" spans="1:10" s="7" customFormat="1">
+    <row r="8" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8"/>
       <c r="B8" s="43"/>
       <c r="C8" s="43"/>
@@ -3812,7 +3954,7 @@
       <c r="I8" s="2"/>
       <c r="J8" s="5"/>
     </row>
-    <row r="9" spans="1:10" s="7" customFormat="1">
+    <row r="9" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9"/>
       <c r="B9" s="43"/>
       <c r="C9" s="43"/>
@@ -3824,7 +3966,7 @@
       <c r="I9" s="2"/>
       <c r="J9" s="5"/>
     </row>
-    <row r="10" spans="1:10" s="7" customFormat="1">
+    <row r="10" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10"/>
       <c r="B10"/>
       <c r="C10"/>
@@ -3836,7 +3978,7 @@
       <c r="I10"/>
       <c r="J10" s="5"/>
     </row>
-    <row r="11" spans="1:10" s="7" customFormat="1">
+    <row r="11" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -3856,7 +3998,7 @@
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
     </row>
-    <row r="12" spans="1:10" s="7" customFormat="1">
+    <row r="12" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="10">
         <v>0</v>
       </c>
@@ -3877,17 +4019,17 @@
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
     </row>
-    <row r="13" spans="1:10" s="7" customFormat="1">
+    <row r="13" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="10">
         <v>1</v>
       </c>
       <c r="B13" s="5">
         <f>B12-C13</f>
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C13" s="9">
         <f>COUNTIF(G$24:G$106,"Finished in Sprint 1")</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="5"/>
@@ -3901,17 +4043,17 @@
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="14" spans="1:10" s="7" customFormat="1">
+    <row r="14" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="10">
         <v>2</v>
       </c>
       <c r="B14" s="5">
         <f>B13-C14</f>
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C14" s="9">
         <f>COUNTIF(G$24:G$106,"Finished in Sprint 2")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="5"/>
@@ -3925,13 +4067,13 @@
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
     </row>
-    <row r="15" spans="1:10" s="7" customFormat="1">
+    <row r="15" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="10">
         <v>3</v>
       </c>
       <c r="B15" s="5">
         <f>B14-C15</f>
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C15" s="9">
         <f>COUNTIF(G$24:G$106,"Finished in Sprint 3")</f>
@@ -3949,13 +4091,13 @@
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
     </row>
-    <row r="16" spans="1:10" s="7" customFormat="1">
+    <row r="16" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="10">
         <v>4</v>
       </c>
       <c r="B16" s="5">
         <f>B15-C16</f>
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C16" s="9">
         <f>COUNTIF(G$24:G$106,"Finished in Sprint 4")</f>
@@ -3969,13 +4111,13 @@
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
     </row>
-    <row r="17" spans="1:11" s="7" customFormat="1">
+    <row r="17" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="10">
         <v>5</v>
       </c>
       <c r="B17" s="5">
         <f>B16-C17</f>
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C17" s="9">
         <f>COUNTIF(G$24:G$106,"Finished in Sprint 4")</f>
@@ -3989,7 +4131,7 @@
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
     </row>
-    <row r="18" spans="1:11" s="7" customFormat="1">
+    <row r="18" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="10"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -4001,7 +4143,7 @@
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
     </row>
-    <row r="19" spans="1:11" s="7" customFormat="1">
+    <row r="19" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -4013,7 +4155,7 @@
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
     </row>
-    <row r="20" spans="1:11" s="7" customFormat="1">
+    <row r="20" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -4027,7 +4169,7 @@
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
     </row>
-    <row r="21" spans="1:11" s="7" customFormat="1">
+    <row r="21" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -4041,7 +4183,7 @@
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
     </row>
-    <row r="22" spans="1:11" s="4" customFormat="1">
+    <row r="22" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="13"/>
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
@@ -4057,7 +4199,7 @@
       </c>
       <c r="J22" s="13"/>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="14" t="s">
         <v>20</v>
       </c>
@@ -4092,7 +4234,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="15" t="s">
         <v>30</v>
       </c>
@@ -4106,8 +4248,12 @@
       <c r="E24" s="16">
         <v>3</v>
       </c>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
+      <c r="F24" s="17">
+        <v>1</v>
+      </c>
+      <c r="G24" s="17" t="s">
+        <v>183</v>
+      </c>
       <c r="H24" s="18" t="s">
         <v>31</v>
       </c>
@@ -4121,7 +4267,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="24.2">
+    <row r="25" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A25" s="15" t="s">
         <v>35</v>
       </c>
@@ -4135,8 +4281,12 @@
       <c r="E25" s="16">
         <v>3</v>
       </c>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
+      <c r="F25" s="17">
+        <v>1</v>
+      </c>
+      <c r="G25" s="17" t="s">
+        <v>183</v>
+      </c>
       <c r="H25" s="18" t="s">
         <v>36</v>
       </c>
@@ -4150,7 +4300,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="24.2">
+    <row r="26" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A26" s="15" t="s">
         <v>40</v>
       </c>
@@ -4164,8 +4314,12 @@
       <c r="E26" s="16">
         <v>8</v>
       </c>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
+      <c r="F26" s="17">
+        <v>1</v>
+      </c>
+      <c r="G26" s="17" t="s">
+        <v>183</v>
+      </c>
       <c r="H26" s="18" t="s">
         <v>31</v>
       </c>
@@ -4177,7 +4331,7 @@
       </c>
       <c r="K26" s="19"/>
     </row>
-    <row r="27" spans="1:11" ht="24.2">
+    <row r="27" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A27" s="15" t="s">
         <v>43</v>
       </c>
@@ -4191,8 +4345,12 @@
       <c r="E27" s="16">
         <v>8</v>
       </c>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
+      <c r="F27" s="17">
+        <v>1</v>
+      </c>
+      <c r="G27" s="17" t="s">
+        <v>183</v>
+      </c>
       <c r="H27" s="18" t="s">
         <v>31</v>
       </c>
@@ -4204,7 +4362,7 @@
       </c>
       <c r="K27" s="19"/>
     </row>
-    <row r="28" spans="1:11" ht="24.2">
+    <row r="28" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A28" s="15" t="s">
         <v>46</v>
       </c>
@@ -4218,8 +4376,12 @@
       <c r="E28" s="16">
         <v>13</v>
       </c>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
+      <c r="F28" s="17">
+        <v>1</v>
+      </c>
+      <c r="G28" s="17" t="s">
+        <v>183</v>
+      </c>
       <c r="H28" s="18" t="s">
         <v>31</v>
       </c>
@@ -4231,7 +4393,7 @@
       </c>
       <c r="K28" s="19"/>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="20" t="s">
         <v>49</v>
       </c>
@@ -4245,8 +4407,12 @@
       <c r="E29" s="21">
         <v>13</v>
       </c>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
+      <c r="F29" s="17">
+        <v>2</v>
+      </c>
+      <c r="G29" s="17" t="s">
+        <v>188</v>
+      </c>
       <c r="H29" s="18" t="s">
         <v>31</v>
       </c>
@@ -4260,7 +4426,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="20" t="s">
         <v>53</v>
       </c>
@@ -4274,7 +4440,9 @@
       <c r="E30" s="21">
         <v>5</v>
       </c>
-      <c r="F30" s="17"/>
+      <c r="F30" s="17">
+        <v>2</v>
+      </c>
       <c r="G30" s="17"/>
       <c r="H30" s="18" t="s">
         <v>31</v>
@@ -4289,7 +4457,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="20" t="s">
         <v>57</v>
       </c>
@@ -4303,7 +4471,9 @@
       <c r="E31" s="21">
         <v>3</v>
       </c>
-      <c r="F31" s="17"/>
+      <c r="F31" s="17">
+        <v>2</v>
+      </c>
       <c r="G31" s="17"/>
       <c r="H31" s="18" t="s">
         <v>31</v>
@@ -4316,7 +4486,7 @@
       </c>
       <c r="K31" s="19"/>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="20" t="s">
         <v>59</v>
       </c>
@@ -4330,7 +4500,9 @@
       <c r="E32" s="21">
         <v>5</v>
       </c>
-      <c r="F32" s="17"/>
+      <c r="F32" s="17">
+        <v>2</v>
+      </c>
       <c r="G32" s="17"/>
       <c r="H32" s="18" t="s">
         <v>31</v>
@@ -4343,7 +4515,7 @@
       </c>
       <c r="K32" s="19"/>
     </row>
-    <row r="33" spans="1:11" ht="24">
+    <row r="33" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A33" s="20" t="s">
         <v>61</v>
       </c>
@@ -4357,7 +4529,9 @@
       <c r="E33" s="21">
         <v>5</v>
       </c>
-      <c r="F33" s="17"/>
+      <c r="F33" s="17">
+        <v>2</v>
+      </c>
       <c r="G33" s="17"/>
       <c r="H33" s="18" t="s">
         <v>31</v>
@@ -4372,7 +4546,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="20" t="s">
         <v>65</v>
       </c>
@@ -4386,7 +4560,9 @@
       <c r="E34" s="21">
         <v>8</v>
       </c>
-      <c r="F34" s="17"/>
+      <c r="F34" s="17">
+        <v>2</v>
+      </c>
       <c r="G34" s="17"/>
       <c r="H34" s="18" t="s">
         <v>31</v>
@@ -4401,7 +4577,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="24">
+    <row r="35" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A35" s="41" t="s">
         <v>69</v>
       </c>
@@ -4430,7 +4606,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="36" spans="1:11" s="22" customFormat="1" ht="24">
+    <row r="36" spans="1:11" s="22" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A36" s="15" t="s">
         <v>74</v>
       </c>
@@ -4459,7 +4635,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="37" spans="1:11" s="22" customFormat="1" ht="24.2">
+    <row r="37" spans="1:11" s="22" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A37" s="15" t="s">
         <v>78</v>
       </c>
@@ -4488,7 +4664,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="38" spans="1:11" s="22" customFormat="1">
+    <row r="38" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="15" t="s">
         <v>83</v>
       </c>
@@ -4517,7 +4693,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="39" spans="1:11" s="22" customFormat="1">
+    <row r="39" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="15" t="s">
         <v>87</v>
       </c>
@@ -4546,7 +4722,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="40" spans="1:11" s="22" customFormat="1">
+    <row r="40" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="15" t="s">
         <v>90</v>
       </c>
@@ -4575,7 +4751,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="20" t="s">
         <v>92</v>
       </c>
@@ -4604,7 +4780,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="20" t="s">
         <v>97</v>
       </c>
@@ -4631,7 +4807,7 @@
       </c>
       <c r="K42" s="19"/>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="20" t="s">
         <v>98</v>
       </c>
@@ -4660,7 +4836,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="44" spans="1:11" s="22" customFormat="1">
+    <row r="44" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="20" t="s">
         <v>102</v>
       </c>
@@ -4689,7 +4865,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="45" spans="1:11" s="22" customFormat="1">
+    <row r="45" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="20" t="s">
         <v>106</v>
       </c>
@@ -4712,7 +4888,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="46" spans="1:11" s="22" customFormat="1">
+    <row r="46" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="15" t="s">
         <v>108</v>
       </c>
@@ -4741,7 +4917,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="47" spans="1:11" s="22" customFormat="1">
+    <row r="47" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="15"/>
       <c r="B47" s="16"/>
       <c r="C47" s="16"/>
@@ -4754,7 +4930,7 @@
       <c r="J47" s="19"/>
       <c r="K47" s="19"/>
     </row>
-    <row r="48" spans="1:11" s="22" customFormat="1" ht="15">
+    <row r="48" spans="1:11" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A48" s="15"/>
       <c r="B48" s="16"/>
       <c r="C48" s="16"/>
@@ -4769,7 +4945,7 @@
       <c r="J48" s="19"/>
       <c r="K48" s="19"/>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="15"/>
       <c r="B49" s="16"/>
       <c r="C49" s="16"/>
@@ -4782,7 +4958,7 @@
       <c r="J49" s="19"/>
       <c r="K49" s="19"/>
     </row>
-    <row r="50" spans="1:11" ht="24.2">
+    <row r="50" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A50" s="15" t="s">
         <v>113</v>
       </c>
@@ -4807,7 +4983,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="35.450000000000003">
+    <row r="51" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A51" s="15" t="s">
         <v>117</v>
       </c>
@@ -4832,7 +5008,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="52" spans="1:11">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="15" t="s">
         <v>121</v>
       </c>
@@ -4857,7 +5033,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="24.2">
+    <row r="53" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A53" s="15" t="s">
         <v>125</v>
       </c>
@@ -4880,7 +5056,7 @@
       </c>
       <c r="K53" s="19"/>
     </row>
-    <row r="54" spans="1:11" ht="24.2">
+    <row r="54" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A54" s="15" t="s">
         <v>128</v>
       </c>
@@ -4905,7 +5081,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="55" spans="1:11">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="15"/>
       <c r="B55" s="16"/>
       <c r="C55" s="16"/>
@@ -4918,7 +5094,7 @@
       <c r="J55" s="19"/>
       <c r="K55" s="19"/>
     </row>
-    <row r="56" spans="1:11">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" s="15"/>
       <c r="B56" s="16"/>
       <c r="C56" s="16"/>
@@ -4931,7 +5107,7 @@
       <c r="J56" s="19"/>
       <c r="K56" s="19"/>
     </row>
-    <row r="57" spans="1:11">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" s="15"/>
       <c r="B57" s="16"/>
       <c r="C57" s="16"/>
@@ -4944,7 +5120,7 @@
       <c r="J57" s="19"/>
       <c r="K57" s="19"/>
     </row>
-    <row r="58" spans="1:11">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" s="15"/>
       <c r="B58" s="16"/>
       <c r="C58" s="16"/>
@@ -4957,7 +5133,7 @@
       <c r="J58" s="19"/>
       <c r="K58" s="19"/>
     </row>
-    <row r="59" spans="1:11">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" s="15"/>
       <c r="B59" s="16"/>
       <c r="C59" s="16"/>
@@ -4970,7 +5146,7 @@
       <c r="J59" s="19"/>
       <c r="K59" s="19"/>
     </row>
-    <row r="60" spans="1:11">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" s="15"/>
       <c r="B60" s="16"/>
       <c r="C60" s="16"/>
@@ -4983,7 +5159,7 @@
       <c r="J60" s="19"/>
       <c r="K60" s="19"/>
     </row>
-    <row r="61" spans="1:11">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" s="15"/>
       <c r="B61" s="16"/>
       <c r="C61" s="16"/>
@@ -4996,7 +5172,7 @@
       <c r="J61" s="19"/>
       <c r="K61" s="19"/>
     </row>
-    <row r="62" spans="1:11">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" s="15"/>
       <c r="B62" s="16"/>
       <c r="C62" s="16"/>
@@ -5009,7 +5185,7 @@
       <c r="J62" s="19"/>
       <c r="K62" s="19"/>
     </row>
-    <row r="63" spans="1:11">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" s="15"/>
       <c r="B63" s="16"/>
       <c r="C63" s="16"/>
@@ -5022,7 +5198,7 @@
       <c r="J63" s="19"/>
       <c r="K63" s="19"/>
     </row>
-    <row r="64" spans="1:11">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" s="15"/>
       <c r="B64" s="16"/>
       <c r="C64" s="16"/>
@@ -5035,7 +5211,7 @@
       <c r="J64" s="19"/>
       <c r="K64" s="19"/>
     </row>
-    <row r="65" spans="1:11">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" s="15"/>
       <c r="B65" s="16"/>
       <c r="C65" s="16"/>
@@ -5048,7 +5224,7 @@
       <c r="J65" s="19"/>
       <c r="K65" s="19"/>
     </row>
-    <row r="66" spans="1:11">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" s="15"/>
       <c r="B66" s="16"/>
       <c r="C66" s="16"/>
@@ -5061,7 +5237,7 @@
       <c r="J66" s="19"/>
       <c r="K66" s="19"/>
     </row>
-    <row r="67" spans="1:11">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" s="15"/>
       <c r="B67" s="16"/>
       <c r="C67" s="16"/>
@@ -5074,7 +5250,7 @@
       <c r="J67" s="19"/>
       <c r="K67" s="19"/>
     </row>
-    <row r="68" spans="1:11">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" s="15"/>
       <c r="B68" s="16"/>
       <c r="C68" s="16"/>
@@ -5087,7 +5263,7 @@
       <c r="J68" s="19"/>
       <c r="K68" s="19"/>
     </row>
-    <row r="69" spans="1:11">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" s="15"/>
       <c r="B69" s="16"/>
       <c r="C69" s="16"/>
@@ -5100,7 +5276,7 @@
       <c r="J69" s="19"/>
       <c r="K69" s="19"/>
     </row>
-    <row r="70" spans="1:11">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" s="15"/>
       <c r="B70" s="16"/>
       <c r="C70" s="16"/>
@@ -5113,7 +5289,7 @@
       <c r="J70" s="19"/>
       <c r="K70" s="19"/>
     </row>
-    <row r="71" spans="1:11">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" s="15"/>
       <c r="B71" s="16"/>
       <c r="C71" s="16"/>
@@ -5126,7 +5302,7 @@
       <c r="J71" s="19"/>
       <c r="K71" s="19"/>
     </row>
-    <row r="72" spans="1:11">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" s="15"/>
       <c r="B72" s="16"/>
       <c r="C72" s="16"/>
@@ -5139,7 +5315,7 @@
       <c r="J72" s="19"/>
       <c r="K72" s="19"/>
     </row>
-    <row r="73" spans="1:11">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" s="15"/>
       <c r="B73" s="16"/>
       <c r="C73" s="16"/>
@@ -5152,7 +5328,7 @@
       <c r="J73" s="19"/>
       <c r="K73" s="19"/>
     </row>
-    <row r="74" spans="1:11">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" s="15"/>
       <c r="B74" s="16"/>
       <c r="C74" s="16"/>
@@ -5165,7 +5341,7 @@
       <c r="J74" s="19"/>
       <c r="K74" s="19"/>
     </row>
-    <row r="75" spans="1:11">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" s="15"/>
       <c r="B75" s="16"/>
       <c r="C75" s="16"/>
@@ -5178,7 +5354,7 @@
       <c r="J75" s="19"/>
       <c r="K75" s="19"/>
     </row>
-    <row r="76" spans="1:11">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" s="15"/>
       <c r="B76" s="16"/>
       <c r="C76" s="16"/>
@@ -5191,7 +5367,7 @@
       <c r="J76" s="19"/>
       <c r="K76" s="19"/>
     </row>
-    <row r="77" spans="1:11">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" s="15"/>
       <c r="B77" s="16"/>
       <c r="C77" s="16"/>
@@ -5204,7 +5380,7 @@
       <c r="J77" s="19"/>
       <c r="K77" s="19"/>
     </row>
-    <row r="78" spans="1:11">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" s="15"/>
       <c r="B78" s="16"/>
       <c r="C78" s="16"/>
@@ -5217,7 +5393,7 @@
       <c r="J78" s="19"/>
       <c r="K78" s="19"/>
     </row>
-    <row r="79" spans="1:11">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79" s="15"/>
       <c r="B79" s="16"/>
       <c r="C79" s="16"/>
@@ -5230,7 +5406,7 @@
       <c r="J79" s="19"/>
       <c r="K79" s="19"/>
     </row>
-    <row r="80" spans="1:11">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" s="15"/>
       <c r="B80" s="16"/>
       <c r="C80" s="16"/>
@@ -5243,7 +5419,7 @@
       <c r="J80" s="19"/>
       <c r="K80" s="19"/>
     </row>
-    <row r="81" spans="1:11">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81" s="15"/>
       <c r="B81" s="16"/>
       <c r="C81" s="16"/>
@@ -5256,7 +5432,7 @@
       <c r="J81" s="19"/>
       <c r="K81" s="19"/>
     </row>
-    <row r="82" spans="1:11">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" s="15"/>
       <c r="B82" s="16"/>
       <c r="C82" s="16"/>
@@ -5269,7 +5445,7 @@
       <c r="J82" s="19"/>
       <c r="K82" s="19"/>
     </row>
-    <row r="83" spans="1:11">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" s="15"/>
       <c r="B83" s="16"/>
       <c r="C83" s="16"/>
@@ -5282,7 +5458,7 @@
       <c r="J83" s="19"/>
       <c r="K83" s="19"/>
     </row>
-    <row r="84" spans="1:11">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" s="15"/>
       <c r="B84" s="16"/>
       <c r="C84" s="16"/>
@@ -5295,7 +5471,7 @@
       <c r="J84" s="19"/>
       <c r="K84" s="19"/>
     </row>
-    <row r="85" spans="1:11">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" s="15"/>
       <c r="B85" s="16"/>
       <c r="C85" s="16"/>
@@ -5308,7 +5484,7 @@
       <c r="J85" s="19"/>
       <c r="K85" s="19"/>
     </row>
-    <row r="86" spans="1:11">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86" s="15"/>
       <c r="B86" s="16"/>
       <c r="C86" s="16"/>
@@ -5321,7 +5497,7 @@
       <c r="J86" s="19"/>
       <c r="K86" s="19"/>
     </row>
-    <row r="87" spans="1:11">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87" s="15"/>
       <c r="B87" s="16"/>
       <c r="C87" s="16"/>
@@ -5334,7 +5510,7 @@
       <c r="J87" s="19"/>
       <c r="K87" s="19"/>
     </row>
-    <row r="88" spans="1:11">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88" s="15"/>
       <c r="B88" s="16"/>
       <c r="C88" s="16"/>
@@ -5347,7 +5523,7 @@
       <c r="J88" s="19"/>
       <c r="K88" s="19"/>
     </row>
-    <row r="89" spans="1:11">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89" s="15"/>
       <c r="B89" s="16"/>
       <c r="C89" s="16"/>
@@ -5360,7 +5536,7 @@
       <c r="J89" s="19"/>
       <c r="K89" s="19"/>
     </row>
-    <row r="90" spans="1:11">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90" s="15"/>
       <c r="B90" s="16"/>
       <c r="C90" s="16"/>
@@ -5373,7 +5549,7 @@
       <c r="J90" s="19"/>
       <c r="K90" s="19"/>
     </row>
-    <row r="91" spans="1:11">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91" s="15"/>
       <c r="B91" s="16"/>
       <c r="C91" s="16"/>
@@ -5386,7 +5562,7 @@
       <c r="J91" s="19"/>
       <c r="K91" s="19"/>
     </row>
-    <row r="92" spans="1:11">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92" s="15"/>
       <c r="B92" s="16"/>
       <c r="C92" s="16"/>
@@ -5399,7 +5575,7 @@
       <c r="J92" s="19"/>
       <c r="K92" s="19"/>
     </row>
-    <row r="93" spans="1:11">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93" s="15"/>
       <c r="B93" s="16"/>
       <c r="C93" s="16"/>
@@ -5412,7 +5588,7 @@
       <c r="J93" s="19"/>
       <c r="K93" s="19"/>
     </row>
-    <row r="94" spans="1:11">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A94" s="15"/>
       <c r="B94" s="16"/>
       <c r="C94" s="16"/>
@@ -5425,7 +5601,7 @@
       <c r="J94" s="19"/>
       <c r="K94" s="19"/>
     </row>
-    <row r="95" spans="1:11">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95" s="15"/>
       <c r="B95" s="16"/>
       <c r="C95" s="16"/>
@@ -5438,7 +5614,7 @@
       <c r="J95" s="19"/>
       <c r="K95" s="19"/>
     </row>
-    <row r="96" spans="1:11">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96" s="15"/>
       <c r="B96" s="16"/>
       <c r="C96" s="16"/>
@@ -5451,7 +5627,7 @@
       <c r="J96" s="19"/>
       <c r="K96" s="19"/>
     </row>
-    <row r="97" spans="1:11">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97" s="15"/>
       <c r="B97" s="16"/>
       <c r="C97" s="16"/>
@@ -5464,7 +5640,7 @@
       <c r="J97" s="19"/>
       <c r="K97" s="19"/>
     </row>
-    <row r="98" spans="1:11">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A98" s="15"/>
       <c r="B98" s="16"/>
       <c r="C98" s="16"/>
@@ -5477,7 +5653,7 @@
       <c r="J98" s="19"/>
       <c r="K98" s="19"/>
     </row>
-    <row r="99" spans="1:11">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A99" s="15"/>
       <c r="B99" s="16"/>
       <c r="C99" s="16"/>
@@ -5490,7 +5666,7 @@
       <c r="J99" s="19"/>
       <c r="K99" s="19"/>
     </row>
-    <row r="100" spans="1:11">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A100" s="15"/>
       <c r="B100" s="16"/>
       <c r="C100" s="16"/>
@@ -5579,14 +5755,1214 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:AMJ100"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.28515625" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="4" max="4" width="51.85546875" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" customWidth="1"/>
+    <col min="6" max="6" width="51.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1024" s="28" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="25">
+        <f>'Sprint 01 Backlog'!B1+1</f>
+        <v>2</v>
+      </c>
+      <c r="C1" s="25"/>
+      <c r="D1" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1"/>
+      <c r="F1" s="25"/>
+      <c r="AMI1"/>
+      <c r="AMJ1"/>
+    </row>
+    <row r="2" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="B2" s="29">
+        <f>'Sprint 01 Backlog'!B3</f>
+        <v>44985</v>
+      </c>
+      <c r="C2" s="25"/>
+      <c r="D2" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="AMI2"/>
+      <c r="AMJ2"/>
+    </row>
+    <row r="3" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="B3" s="29">
+        <f>B2+7</f>
+        <v>44992</v>
+      </c>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="AMI3"/>
+      <c r="AMJ3"/>
+    </row>
+    <row r="4" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="B4" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="AMI4"/>
+      <c r="AMJ4"/>
+    </row>
+    <row r="5" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="25"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="AMI5"/>
+      <c r="AMJ5"/>
+    </row>
+    <row r="6" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="25"/>
+      <c r="B6" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="AMI6"/>
+      <c r="AMJ6"/>
+    </row>
+    <row r="7" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="B7" s="25">
+        <f>COUNTA(D17:D995)</f>
+        <v>4</v>
+      </c>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="AMI7"/>
+      <c r="AMJ7"/>
+    </row>
+    <row r="8" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="B8" s="25">
+        <f t="shared" ref="B8:B14" si="0">B7-C8</f>
+        <v>4</v>
+      </c>
+      <c r="C8" s="25">
+        <f>COUNTIF(E$17:E$995, "Completed Day 1")</f>
+        <v>0</v>
+      </c>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="AMI8"/>
+      <c r="AMJ8"/>
+    </row>
+    <row r="9" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="B9" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C9" s="25">
+        <f>COUNTIF(E$17:E$995, "Completed Day 2")</f>
+        <v>4</v>
+      </c>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="AMI9"/>
+      <c r="AMJ9"/>
+    </row>
+    <row r="10" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="B10" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C10" s="25">
+        <f>COUNTIF(E$17:E$995, "Completed Day 3")</f>
+        <v>0</v>
+      </c>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="AMI10"/>
+      <c r="AMJ10"/>
+    </row>
+    <row r="11" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="B11" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C11" s="25">
+        <f>COUNTIF(E$17:E$995, "Completed Day 4")</f>
+        <v>0</v>
+      </c>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="AMI11"/>
+      <c r="AMJ11"/>
+    </row>
+    <row r="12" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="B12" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C12" s="25">
+        <f>COUNTIF(E$17:E$995, "Completed Day 5")</f>
+        <v>0</v>
+      </c>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="AMI12"/>
+      <c r="AMJ12"/>
+    </row>
+    <row r="13" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="B13" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C13" s="25">
+        <f>COUNTIF(E$17:E$995, "Completed Day 6")</f>
+        <v>0</v>
+      </c>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="AMI13"/>
+      <c r="AMJ13"/>
+    </row>
+    <row r="14" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="B14" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C14" s="25">
+        <f>COUNTIF(E$17:E$995, "Completed Day 7")</f>
+        <v>0</v>
+      </c>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="AMI14"/>
+      <c r="AMJ14"/>
+    </row>
+    <row r="15" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="25"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="AMI15"/>
+      <c r="AMJ15"/>
+    </row>
+    <row r="16" spans="1:1024" x14ac:dyDescent="0.2">
+      <c r="A16" s="33" t="s">
+        <v>146</v>
+      </c>
+      <c r="B16" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="33" t="s">
+        <v>147</v>
+      </c>
+      <c r="D16" s="33" t="s">
+        <v>150</v>
+      </c>
+      <c r="E16" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" s="33" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="4">
+        <v>1</v>
+      </c>
+      <c r="B17" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D17" s="49" t="s">
+        <v>184</v>
+      </c>
+      <c r="E17" s="37" t="s">
+        <v>173</v>
+      </c>
+      <c r="F17" s="38"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="4">
+        <v>2</v>
+      </c>
+      <c r="B18" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D18" s="39" t="s">
+        <v>185</v>
+      </c>
+      <c r="E18" s="37" t="s">
+        <v>173</v>
+      </c>
+      <c r="F18" s="38"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="4">
+        <v>3</v>
+      </c>
+      <c r="B19" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D19" s="39" t="s">
+        <v>186</v>
+      </c>
+      <c r="E19" s="37" t="s">
+        <v>173</v>
+      </c>
+      <c r="F19" s="38"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="4">
+        <v>4</v>
+      </c>
+      <c r="B20" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D20" s="39" t="s">
+        <v>187</v>
+      </c>
+      <c r="E20" s="37" t="s">
+        <v>173</v>
+      </c>
+      <c r="F20" s="38"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="4">
+        <v>5</v>
+      </c>
+      <c r="B21" s="35"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="38"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="4">
+        <v>6</v>
+      </c>
+      <c r="B22" s="35"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="38"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="4">
+        <v>7</v>
+      </c>
+      <c r="B23" s="35"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="38"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="4">
+        <v>8</v>
+      </c>
+      <c r="B24" s="35"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="38"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="4">
+        <v>9</v>
+      </c>
+      <c r="B25" s="35"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="38"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="4">
+        <v>10</v>
+      </c>
+      <c r="B26" s="35"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="37"/>
+      <c r="F26" s="38"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="4">
+        <v>11</v>
+      </c>
+      <c r="B27" s="35"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="38"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="4">
+        <v>12</v>
+      </c>
+      <c r="B28" s="35"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="37"/>
+      <c r="F28" s="38"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="4">
+        <v>13</v>
+      </c>
+      <c r="B29" s="35"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="38"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="4">
+        <v>14</v>
+      </c>
+      <c r="B30" s="35"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="39"/>
+      <c r="E30" s="37"/>
+      <c r="F30" s="38"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="4">
+        <v>15</v>
+      </c>
+      <c r="B31" s="35"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="39"/>
+      <c r="E31" s="37"/>
+      <c r="F31" s="38"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="4">
+        <v>16</v>
+      </c>
+      <c r="B32" s="35"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="37"/>
+      <c r="F32" s="38"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="4">
+        <v>17</v>
+      </c>
+      <c r="B33" s="35"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="37"/>
+      <c r="F33" s="38"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="4">
+        <v>18</v>
+      </c>
+      <c r="B34" s="35"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="39"/>
+      <c r="E34" s="37"/>
+      <c r="F34" s="38"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="4">
+        <v>19</v>
+      </c>
+      <c r="B35" s="35"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="39"/>
+      <c r="E35" s="37"/>
+      <c r="F35" s="38"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="4">
+        <v>20</v>
+      </c>
+      <c r="B36" s="35"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="39"/>
+      <c r="E36" s="37"/>
+      <c r="F36" s="38"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="4">
+        <v>21</v>
+      </c>
+      <c r="B37" s="35"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="39"/>
+      <c r="E37" s="37"/>
+      <c r="F37" s="38"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="4">
+        <v>22</v>
+      </c>
+      <c r="B38" s="35"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="39"/>
+      <c r="E38" s="37"/>
+      <c r="F38" s="38"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="4">
+        <v>23</v>
+      </c>
+      <c r="B39" s="35"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="39"/>
+      <c r="E39" s="37"/>
+      <c r="F39" s="38"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" s="4">
+        <v>24</v>
+      </c>
+      <c r="B40" s="35"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="39"/>
+      <c r="E40" s="37"/>
+      <c r="F40" s="38"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" s="4">
+        <v>25</v>
+      </c>
+      <c r="B41" s="35"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="39"/>
+      <c r="E41" s="37"/>
+      <c r="F41" s="38"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" s="4">
+        <v>26</v>
+      </c>
+      <c r="B42" s="35"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="39"/>
+      <c r="E42" s="37"/>
+      <c r="F42" s="38"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" s="4">
+        <v>27</v>
+      </c>
+      <c r="B43" s="35"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="39"/>
+      <c r="E43" s="37"/>
+      <c r="F43" s="38"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" s="4">
+        <v>28</v>
+      </c>
+      <c r="B44" s="35"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="39"/>
+      <c r="E44" s="37"/>
+      <c r="F44" s="38"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" s="4">
+        <v>29</v>
+      </c>
+      <c r="B45" s="35"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="39"/>
+      <c r="E45" s="37"/>
+      <c r="F45" s="38"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" s="4">
+        <v>30</v>
+      </c>
+      <c r="B46" s="35"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="39"/>
+      <c r="E46" s="37"/>
+      <c r="F46" s="38"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" s="4">
+        <v>31</v>
+      </c>
+      <c r="B47" s="35"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="39"/>
+      <c r="E47" s="37"/>
+      <c r="F47" s="38"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" s="4">
+        <v>32</v>
+      </c>
+      <c r="B48" s="35"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="39"/>
+      <c r="E48" s="37"/>
+      <c r="F48" s="38"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" s="4">
+        <v>33</v>
+      </c>
+      <c r="B49" s="35"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="39"/>
+      <c r="E49" s="37"/>
+      <c r="F49" s="38"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" s="4">
+        <v>34</v>
+      </c>
+      <c r="B50" s="35"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="39"/>
+      <c r="E50" s="37"/>
+      <c r="F50" s="38"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" s="4">
+        <v>35</v>
+      </c>
+      <c r="B51" s="35"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="39"/>
+      <c r="E51" s="37"/>
+      <c r="F51" s="38"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" s="4">
+        <v>36</v>
+      </c>
+      <c r="B52" s="35"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="39"/>
+      <c r="E52" s="37"/>
+      <c r="F52" s="38"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" s="4">
+        <v>37</v>
+      </c>
+      <c r="B53" s="35"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="39"/>
+      <c r="E53" s="37"/>
+      <c r="F53" s="38"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" s="4">
+        <v>38</v>
+      </c>
+      <c r="B54" s="35"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="39"/>
+      <c r="E54" s="37"/>
+      <c r="F54" s="38"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" s="4">
+        <v>39</v>
+      </c>
+      <c r="B55" s="35"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="39"/>
+      <c r="E55" s="37"/>
+      <c r="F55" s="38"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" s="4">
+        <v>40</v>
+      </c>
+      <c r="B56" s="35"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="39"/>
+      <c r="E56" s="37"/>
+      <c r="F56" s="38"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" s="4">
+        <v>41</v>
+      </c>
+      <c r="B57" s="35"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="39"/>
+      <c r="E57" s="37"/>
+      <c r="F57" s="38"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" s="4">
+        <v>42</v>
+      </c>
+      <c r="B58" s="35"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="39"/>
+      <c r="E58" s="37"/>
+      <c r="F58" s="38"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" s="4">
+        <v>43</v>
+      </c>
+      <c r="B59" s="35"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="39"/>
+      <c r="E59" s="37"/>
+      <c r="F59" s="38"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" s="4">
+        <v>44</v>
+      </c>
+      <c r="B60" s="35"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="39"/>
+      <c r="E60" s="37"/>
+      <c r="F60" s="38"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" s="4">
+        <v>45</v>
+      </c>
+      <c r="B61" s="35"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="39"/>
+      <c r="E61" s="37"/>
+      <c r="F61" s="38"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62" s="4">
+        <v>46</v>
+      </c>
+      <c r="B62" s="35"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="39"/>
+      <c r="E62" s="37"/>
+      <c r="F62" s="38"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63" s="4">
+        <v>47</v>
+      </c>
+      <c r="B63" s="35"/>
+      <c r="C63" s="4"/>
+      <c r="D63" s="39"/>
+      <c r="E63" s="37"/>
+      <c r="F63" s="38"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64" s="4">
+        <v>48</v>
+      </c>
+      <c r="B64" s="35"/>
+      <c r="C64" s="4"/>
+      <c r="D64" s="39"/>
+      <c r="E64" s="37"/>
+      <c r="F64" s="38"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65" s="4">
+        <v>49</v>
+      </c>
+      <c r="B65" s="35"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="39"/>
+      <c r="E65" s="37"/>
+      <c r="F65" s="38"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66" s="4">
+        <v>50</v>
+      </c>
+      <c r="B66" s="35"/>
+      <c r="C66" s="4"/>
+      <c r="D66" s="39"/>
+      <c r="E66" s="37"/>
+      <c r="F66" s="38"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A67" s="4">
+        <v>51</v>
+      </c>
+      <c r="B67" s="35"/>
+      <c r="C67" s="4"/>
+      <c r="D67" s="39"/>
+      <c r="E67" s="37"/>
+      <c r="F67" s="38"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A68" s="4">
+        <v>52</v>
+      </c>
+      <c r="B68" s="35"/>
+      <c r="C68" s="4"/>
+      <c r="D68" s="39"/>
+      <c r="E68" s="37"/>
+      <c r="F68" s="38"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A69" s="4">
+        <v>53</v>
+      </c>
+      <c r="B69" s="35"/>
+      <c r="C69" s="4"/>
+      <c r="D69" s="39"/>
+      <c r="E69" s="37"/>
+      <c r="F69" s="38"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A70" s="4">
+        <v>54</v>
+      </c>
+      <c r="B70" s="35"/>
+      <c r="C70" s="4"/>
+      <c r="D70" s="39"/>
+      <c r="E70" s="37"/>
+      <c r="F70" s="38"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A71" s="4">
+        <v>55</v>
+      </c>
+      <c r="B71" s="35"/>
+      <c r="C71" s="4"/>
+      <c r="D71" s="39"/>
+      <c r="E71" s="37"/>
+      <c r="F71" s="38"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A72" s="4">
+        <v>56</v>
+      </c>
+      <c r="B72" s="35"/>
+      <c r="C72" s="4"/>
+      <c r="D72" s="39"/>
+      <c r="E72" s="37"/>
+      <c r="F72" s="38"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A73" s="4">
+        <v>57</v>
+      </c>
+      <c r="B73" s="35"/>
+      <c r="C73" s="4"/>
+      <c r="D73" s="39"/>
+      <c r="E73" s="37"/>
+      <c r="F73" s="38"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A74" s="4">
+        <v>58</v>
+      </c>
+      <c r="B74" s="35"/>
+      <c r="C74" s="4"/>
+      <c r="D74" s="39"/>
+      <c r="E74" s="37"/>
+      <c r="F74" s="38"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A75" s="4">
+        <v>59</v>
+      </c>
+      <c r="B75" s="35"/>
+      <c r="C75" s="4"/>
+      <c r="D75" s="39"/>
+      <c r="E75" s="37"/>
+      <c r="F75" s="38"/>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A76" s="4">
+        <v>60</v>
+      </c>
+      <c r="B76" s="35"/>
+      <c r="C76" s="4"/>
+      <c r="D76" s="39"/>
+      <c r="E76" s="37"/>
+      <c r="F76" s="38"/>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A77" s="4">
+        <v>61</v>
+      </c>
+      <c r="B77" s="35"/>
+      <c r="C77" s="4"/>
+      <c r="D77" s="39"/>
+      <c r="E77" s="37"/>
+      <c r="F77" s="38"/>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A78" s="4">
+        <v>62</v>
+      </c>
+      <c r="B78" s="35"/>
+      <c r="C78" s="4"/>
+      <c r="D78" s="39"/>
+      <c r="E78" s="37"/>
+      <c r="F78" s="38"/>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A79" s="4">
+        <v>63</v>
+      </c>
+      <c r="B79" s="35"/>
+      <c r="C79" s="4"/>
+      <c r="D79" s="39"/>
+      <c r="E79" s="37"/>
+      <c r="F79" s="38"/>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A80" s="4">
+        <v>64</v>
+      </c>
+      <c r="B80" s="35"/>
+      <c r="C80" s="4"/>
+      <c r="D80" s="39"/>
+      <c r="E80" s="37"/>
+      <c r="F80" s="38"/>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A81" s="4">
+        <v>65</v>
+      </c>
+      <c r="B81" s="35"/>
+      <c r="C81" s="4"/>
+      <c r="D81" s="39"/>
+      <c r="E81" s="37"/>
+      <c r="F81" s="38"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A82" s="4">
+        <v>66</v>
+      </c>
+      <c r="B82" s="35"/>
+      <c r="C82" s="4"/>
+      <c r="D82" s="39"/>
+      <c r="E82" s="37"/>
+      <c r="F82" s="38"/>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A83" s="4">
+        <v>67</v>
+      </c>
+      <c r="B83" s="35"/>
+      <c r="C83" s="4"/>
+      <c r="D83" s="39"/>
+      <c r="E83" s="37"/>
+      <c r="F83" s="38"/>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A84" s="4">
+        <v>68</v>
+      </c>
+      <c r="B84" s="35"/>
+      <c r="C84" s="4"/>
+      <c r="D84" s="39"/>
+      <c r="E84" s="37"/>
+      <c r="F84" s="38"/>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A85" s="4">
+        <v>69</v>
+      </c>
+      <c r="B85" s="35"/>
+      <c r="C85" s="4"/>
+      <c r="D85" s="39"/>
+      <c r="E85" s="37"/>
+      <c r="F85" s="38"/>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A86" s="4">
+        <v>70</v>
+      </c>
+      <c r="B86" s="35"/>
+      <c r="C86" s="4"/>
+      <c r="D86" s="39"/>
+      <c r="E86" s="37"/>
+      <c r="F86" s="38"/>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A87" s="4">
+        <v>71</v>
+      </c>
+      <c r="B87" s="35"/>
+      <c r="C87" s="4"/>
+      <c r="D87" s="39"/>
+      <c r="E87" s="37"/>
+      <c r="F87" s="38"/>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A88" s="4">
+        <v>72</v>
+      </c>
+      <c r="B88" s="35"/>
+      <c r="C88" s="4"/>
+      <c r="D88" s="39"/>
+      <c r="E88" s="37"/>
+      <c r="F88" s="38"/>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A89" s="4">
+        <v>73</v>
+      </c>
+      <c r="B89" s="35"/>
+      <c r="C89" s="4"/>
+      <c r="D89" s="39"/>
+      <c r="E89" s="37"/>
+      <c r="F89" s="38"/>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A90" s="4">
+        <v>74</v>
+      </c>
+      <c r="B90" s="35"/>
+      <c r="C90" s="4"/>
+      <c r="D90" s="39"/>
+      <c r="E90" s="37"/>
+      <c r="F90" s="38"/>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A91" s="4">
+        <v>75</v>
+      </c>
+      <c r="B91" s="35"/>
+      <c r="C91" s="4"/>
+      <c r="D91" s="39"/>
+      <c r="E91" s="37"/>
+      <c r="F91" s="38"/>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A92" s="4">
+        <v>76</v>
+      </c>
+      <c r="B92" s="35"/>
+      <c r="C92" s="4"/>
+      <c r="D92" s="39"/>
+      <c r="E92" s="37"/>
+      <c r="F92" s="38"/>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A93" s="4">
+        <v>77</v>
+      </c>
+      <c r="B93" s="35"/>
+      <c r="C93" s="4"/>
+      <c r="D93" s="39"/>
+      <c r="E93" s="37"/>
+      <c r="F93" s="38"/>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A94" s="4">
+        <v>78</v>
+      </c>
+      <c r="B94" s="35"/>
+      <c r="C94" s="4"/>
+      <c r="D94" s="39"/>
+      <c r="E94" s="37"/>
+      <c r="F94" s="38"/>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A95" s="4">
+        <v>79</v>
+      </c>
+      <c r="B95" s="35"/>
+      <c r="C95" s="4"/>
+      <c r="D95" s="39"/>
+      <c r="E95" s="37"/>
+      <c r="F95" s="38"/>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A96" s="4">
+        <v>80</v>
+      </c>
+      <c r="B96" s="35"/>
+      <c r="C96" s="4"/>
+      <c r="D96" s="39"/>
+      <c r="E96" s="37"/>
+      <c r="F96" s="38"/>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A97" s="4">
+        <v>81</v>
+      </c>
+      <c r="B97" s="35"/>
+      <c r="C97" s="4"/>
+      <c r="D97" s="39"/>
+      <c r="E97" s="37"/>
+      <c r="F97" s="38"/>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A98" s="4">
+        <v>82</v>
+      </c>
+      <c r="B98" s="35"/>
+      <c r="C98" s="4"/>
+      <c r="D98" s="39"/>
+      <c r="E98" s="37"/>
+      <c r="F98" s="38"/>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A99" s="4">
+        <v>83</v>
+      </c>
+      <c r="B99" s="35"/>
+      <c r="C99" s="4"/>
+      <c r="D99" s="39"/>
+      <c r="E99" s="37"/>
+      <c r="F99" s="38"/>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A100" s="4">
+        <v>84</v>
+      </c>
+      <c r="B100" s="35"/>
+      <c r="C100" s="4"/>
+      <c r="D100" s="39"/>
+      <c r="E100" s="37"/>
+      <c r="F100" s="38"/>
+    </row>
+  </sheetData>
+  <dataValidations xWindow="1104" yWindow="466" count="4">
+    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Task ID" prompt="This is just an arbitrary unique (per sprint) integer assigned to a task, used by the team to refer to that task. " sqref="A17:A100" xr:uid="{00000000-0002-0000-0200-000000000000}">
+      <formula1>0</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Task Description" prompt="Select a Feature ID to the left. Then, in this column, list each discrete task needed to implement that feature._x000a__x000a_Example tasks might be &quot;create the Foo class&quot;, &quot;add the Bar method to the (existing) Qux class&quot;, &quot;Find icons for the task bar&quot;, &quot;Update the m" sqref="D18:D100" xr:uid="{00000000-0002-0000-0200-000002000000}">
+      <formula1>0</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="OPTIONAL" prompt="You may add any notes here that help understand the requirements and scope for this task" sqref="F17:F100" xr:uid="{00000000-0002-0000-0200-000003000000}">
+      <formula1>0</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Wrong Value" error="This cell may only contain a valid status value (hint: use the drop-down selection list) or be left blank (hint: use the Delete key)" promptTitle="Implementation Status" prompt="Leave blank until task is begun._x000a_Select &quot;In Work&quot; when started (for long tasks only)._x000a_Select Completed ONLY when this task is done._x000a_    Select &quot;Completed Day 1&quot; if finished on the first day, and_x000a_    similarly for &quot;Completed on Day 2&quot; et. al." sqref="E17:E100" xr:uid="{00000000-0002-0000-0200-000005000000}">
+      <formula1>"In Work,Completed Day 1,Completed Day 2,Completed Day 3,Completed Day 4,Completed Day 5,Completed Day 6,Completed Day 7"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xWindow="1104" yWindow="466" count="2">
+        <x14:dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Select Feature ID from Product Backlog" prompt="Exactly ONE team member may be responsible for any task, and they will receive grade credit for their work._x000a__x000a_If you have more than one person on your team, each member MUST select their initials for each task the agree to perform. Use this to ensure that " xr:uid="{00000000-0002-0000-0200-000001000000}">
+          <x14:formula1>
+            <xm:f>'Product Backlog'!$H$5:$H$9</xm:f>
+          </x14:formula1>
+          <x14:formula2>
+            <xm:f>0</xm:f>
+          </x14:formula2>
+          <xm:sqref>C17:C100</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Select Feature ID from Product Backlog" prompt="The list contains the Feature IDs from the same column on the Product Backlog tab._x000a__x000a_For each (ahem) Feature ID, create one or more rows in this table representing the tasks you need to complete to implement that feature._x000a__x000a_For example, for a &quot;Provide Help " xr:uid="{00000000-0002-0000-0200-000004000000}">
+          <x14:formula1>
+            <xm:f>'Product Backlog'!$A$24:$A$100</xm:f>
+          </x14:formula1>
+          <x14:formula2>
+            <xm:f>0</xm:f>
+          </x14:formula2>
+          <xm:sqref>B17:B100</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AMJ100"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView topLeftCell="B35" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.28515625" customWidth="1"/>
     <col min="3" max="3" width="12.28515625" customWidth="1"/>
@@ -5595,7 +6971,7 @@
     <col min="6" max="6" width="51.85546875" style="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1024" s="28" customFormat="1" ht="17.45">
+    <row r="1" spans="1:1024" s="28" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>7</v>
       </c>
@@ -5611,7 +6987,7 @@
       <c r="AMI1"/>
       <c r="AMJ1"/>
     </row>
-    <row r="2" spans="1:1024" s="28" customFormat="1">
+    <row r="2" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="25" t="s">
         <v>132</v>
       </c>
@@ -5627,7 +7003,7 @@
       <c r="AMI2"/>
       <c r="AMJ2"/>
     </row>
-    <row r="3" spans="1:1024" s="28" customFormat="1">
+    <row r="3" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="25" t="s">
         <v>134</v>
       </c>
@@ -5642,7 +7018,7 @@
       <c r="AMI3"/>
       <c r="AMJ3"/>
     </row>
-    <row r="4" spans="1:1024" s="28" customFormat="1">
+    <row r="4" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="25" t="s">
         <v>135</v>
       </c>
@@ -5656,7 +7032,7 @@
       <c r="AMI4"/>
       <c r="AMJ4"/>
     </row>
-    <row r="5" spans="1:1024" s="28" customFormat="1">
+    <row r="5" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="25"/>
       <c r="B5" s="31"/>
       <c r="C5" s="25"/>
@@ -5666,7 +7042,7 @@
       <c r="AMI5"/>
       <c r="AMJ5"/>
     </row>
-    <row r="6" spans="1:1024" s="28" customFormat="1">
+    <row r="6" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="25"/>
       <c r="B6" s="32" t="s">
         <v>8</v>
@@ -5680,13 +7056,13 @@
       <c r="AMI6"/>
       <c r="AMJ6"/>
     </row>
-    <row r="7" spans="1:1024" s="28" customFormat="1">
+    <row r="7" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="25" t="s">
         <v>138</v>
       </c>
       <c r="B7" s="25">
         <f>COUNTA(D17:D995)</f>
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="C7" s="25"/>
       <c r="D7" s="25"/>
@@ -5695,17 +7071,17 @@
       <c r="AMI7"/>
       <c r="AMJ7"/>
     </row>
-    <row r="8" spans="1:1024" s="28" customFormat="1">
+    <row r="8" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="25" t="s">
         <v>139</v>
       </c>
       <c r="B8" s="25">
-        <f>B7-C8</f>
-        <v>1</v>
+        <f t="shared" ref="B8:B14" si="0">B7-C8</f>
+        <v>10</v>
       </c>
       <c r="C8" s="25">
         <f>COUNTIF(E$17:E$995, "Completed Day 1")</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D8" s="25"/>
       <c r="E8" s="25"/>
@@ -5713,17 +7089,17 @@
       <c r="AMI8"/>
       <c r="AMJ8"/>
     </row>
-    <row r="9" spans="1:1024" s="28" customFormat="1">
+    <row r="9" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="25" t="s">
         <v>140</v>
       </c>
       <c r="B9" s="25">
-        <f>B8-C9</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="C9" s="25">
         <f>COUNTIF(E$17:E$995, "Completed Day 2")</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D9" s="25"/>
       <c r="E9" s="25"/>
@@ -5731,13 +7107,13 @@
       <c r="AMI9"/>
       <c r="AMJ9"/>
     </row>
-    <row r="10" spans="1:1024" s="28" customFormat="1">
+    <row r="10" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="25" t="s">
         <v>141</v>
       </c>
       <c r="B10" s="25">
-        <f>B9-C10</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="C10" s="25">
         <f>COUNTIF(E$17:E$995, "Completed Day 3")</f>
@@ -5749,13 +7125,13 @@
       <c r="AMI10"/>
       <c r="AMJ10"/>
     </row>
-    <row r="11" spans="1:1024" s="28" customFormat="1">
+    <row r="11" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="25" t="s">
         <v>142</v>
       </c>
       <c r="B11" s="25">
-        <f>B10-C11</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="C11" s="25">
         <f>COUNTIF(E$17:E$995, "Completed Day 4")</f>
@@ -5767,13 +7143,13 @@
       <c r="AMI11"/>
       <c r="AMJ11"/>
     </row>
-    <row r="12" spans="1:1024" s="28" customFormat="1">
+    <row r="12" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="25" t="s">
         <v>143</v>
       </c>
       <c r="B12" s="25">
-        <f>B11-C12</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="C12" s="25">
         <f>COUNTIF(E$17:E$995, "Completed Day 5")</f>
@@ -5785,13 +7161,13 @@
       <c r="AMI12"/>
       <c r="AMJ12"/>
     </row>
-    <row r="13" spans="1:1024" s="28" customFormat="1">
+    <row r="13" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="25" t="s">
         <v>144</v>
       </c>
       <c r="B13" s="25">
-        <f>B12-C13</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="C13" s="25">
         <f>COUNTIF(E$17:E$995, "Completed Day 6")</f>
@@ -5803,13 +7179,13 @@
       <c r="AMI13"/>
       <c r="AMJ13"/>
     </row>
-    <row r="14" spans="1:1024" s="28" customFormat="1">
+    <row r="14" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="25" t="s">
         <v>145</v>
       </c>
       <c r="B14" s="25">
-        <f>B13-C14</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="C14" s="25">
         <f>COUNTIF(E$17:E$995, "Completed Day 7")</f>
@@ -5821,7 +7197,7 @@
       <c r="AMI14"/>
       <c r="AMJ14"/>
     </row>
-    <row r="15" spans="1:1024" s="28" customFormat="1">
+    <row r="15" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="25"/>
       <c r="B15" s="25"/>
       <c r="C15" s="25"/>
@@ -5831,7 +7207,7 @@
       <c r="AMI15"/>
       <c r="AMJ15"/>
     </row>
-    <row r="16" spans="1:1024">
+    <row r="16" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A16" s="33" t="s">
         <v>146</v>
       </c>
@@ -5851,49 +7227,79 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>1</v>
       </c>
-      <c r="B17" s="35"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="36" t="s">
-        <v>149</v>
-      </c>
-      <c r="E17" s="37"/>
+      <c r="B17" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D17" s="48" t="s">
+        <v>157</v>
+      </c>
+      <c r="E17" s="37" t="s">
+        <v>158</v>
+      </c>
       <c r="F17" s="38"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>2</v>
       </c>
-      <c r="B18" s="35"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="37"/>
+      <c r="B18" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D18" s="39" t="s">
+        <v>159</v>
+      </c>
+      <c r="E18" s="37" t="s">
+        <v>158</v>
+      </c>
       <c r="F18" s="38"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>3</v>
       </c>
-      <c r="B19" s="35"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="37"/>
+      <c r="B19" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D19" s="39" t="s">
+        <v>160</v>
+      </c>
+      <c r="E19" s="37" t="s">
+        <v>158</v>
+      </c>
       <c r="F19" s="38"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>4</v>
       </c>
-      <c r="B20" s="35"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="37"/>
+      <c r="B20" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D20" s="39" t="s">
+        <v>161</v>
+      </c>
+      <c r="E20" s="37" t="s">
+        <v>158</v>
+      </c>
       <c r="F20" s="38"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>5</v>
       </c>
@@ -5903,37 +7309,61 @@
       <c r="E21" s="37"/>
       <c r="F21" s="38"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>6</v>
       </c>
-      <c r="B22" s="35"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="37"/>
+      <c r="B22" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D22" s="39" t="s">
+        <v>162</v>
+      </c>
+      <c r="E22" s="37" t="s">
+        <v>158</v>
+      </c>
       <c r="F22" s="38"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>7</v>
       </c>
-      <c r="B23" s="35"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="37"/>
+      <c r="B23" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D23" s="39" t="s">
+        <v>163</v>
+      </c>
+      <c r="E23" s="37" t="s">
+        <v>158</v>
+      </c>
       <c r="F23" s="38"/>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>8</v>
       </c>
-      <c r="B24" s="35"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="37"/>
+      <c r="B24" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D24" s="39" t="s">
+        <v>164</v>
+      </c>
+      <c r="E24" s="37" t="s">
+        <v>158</v>
+      </c>
       <c r="F24" s="38"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>9</v>
       </c>
@@ -5943,57 +7373,97 @@
       <c r="E25" s="37"/>
       <c r="F25" s="38"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>10</v>
       </c>
-      <c r="B26" s="35"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="39"/>
-      <c r="E26" s="37"/>
+      <c r="B26" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D26" s="39" t="s">
+        <v>165</v>
+      </c>
+      <c r="E26" s="37" t="s">
+        <v>158</v>
+      </c>
       <c r="F26" s="38"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>11</v>
       </c>
-      <c r="B27" s="35"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="37"/>
+      <c r="B27" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D27" s="39" t="s">
+        <v>166</v>
+      </c>
+      <c r="E27" s="37" t="s">
+        <v>158</v>
+      </c>
       <c r="F27" s="38"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>12</v>
       </c>
-      <c r="B28" s="35"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="39"/>
-      <c r="E28" s="37"/>
+      <c r="B28" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D28" s="39" t="s">
+        <v>167</v>
+      </c>
+      <c r="E28" s="37" t="s">
+        <v>158</v>
+      </c>
       <c r="F28" s="38"/>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>13</v>
       </c>
-      <c r="B29" s="35"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="39"/>
-      <c r="E29" s="37"/>
+      <c r="B29" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D29" s="39" t="s">
+        <v>168</v>
+      </c>
+      <c r="E29" s="37" t="s">
+        <v>158</v>
+      </c>
       <c r="F29" s="38"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>14</v>
       </c>
-      <c r="B30" s="35"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="39"/>
-      <c r="E30" s="37"/>
+      <c r="B30" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D30" s="39" t="s">
+        <v>169</v>
+      </c>
+      <c r="E30" s="37" t="s">
+        <v>158</v>
+      </c>
       <c r="F30" s="38"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>15</v>
       </c>
@@ -6003,67 +7473,115 @@
       <c r="E31" s="37"/>
       <c r="F31" s="38"/>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>16</v>
       </c>
-      <c r="B32" s="35"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="39"/>
-      <c r="E32" s="37"/>
+      <c r="B32" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D32" s="39" t="s">
+        <v>170</v>
+      </c>
+      <c r="E32" s="37" t="s">
+        <v>158</v>
+      </c>
       <c r="F32" s="38"/>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>17</v>
       </c>
-      <c r="B33" s="35"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="39"/>
-      <c r="E33" s="37"/>
+      <c r="B33" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D33" s="39" t="s">
+        <v>171</v>
+      </c>
+      <c r="E33" s="37" t="s">
+        <v>158</v>
+      </c>
       <c r="F33" s="38"/>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>18</v>
       </c>
-      <c r="B34" s="35"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="39"/>
-      <c r="E34" s="37"/>
+      <c r="B34" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D34" s="39" t="s">
+        <v>172</v>
+      </c>
+      <c r="E34" s="37" t="s">
+        <v>173</v>
+      </c>
       <c r="F34" s="38"/>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>19</v>
       </c>
-      <c r="B35" s="35"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="39"/>
-      <c r="E35" s="37"/>
+      <c r="B35" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D35" s="39" t="s">
+        <v>174</v>
+      </c>
+      <c r="E35" s="37" t="s">
+        <v>173</v>
+      </c>
       <c r="F35" s="38"/>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>20</v>
       </c>
-      <c r="B36" s="35"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="39"/>
-      <c r="E36" s="37"/>
+      <c r="B36" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D36" s="39" t="s">
+        <v>175</v>
+      </c>
+      <c r="E36" s="37" t="s">
+        <v>173</v>
+      </c>
       <c r="F36" s="38"/>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>21</v>
       </c>
-      <c r="B37" s="35"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="39"/>
-      <c r="E37" s="37"/>
+      <c r="B37" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D37" s="39" t="s">
+        <v>176</v>
+      </c>
+      <c r="E37" s="37" t="s">
+        <v>173</v>
+      </c>
       <c r="F37" s="38"/>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>22</v>
       </c>
@@ -6073,67 +7591,115 @@
       <c r="E38" s="37"/>
       <c r="F38" s="38"/>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
         <v>23</v>
       </c>
-      <c r="B39" s="35"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="39"/>
-      <c r="E39" s="37"/>
+      <c r="B39" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D39" s="39" t="s">
+        <v>177</v>
+      </c>
+      <c r="E39" s="37" t="s">
+        <v>173</v>
+      </c>
       <c r="F39" s="38"/>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <v>24</v>
       </c>
-      <c r="B40" s="35"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="39"/>
-      <c r="E40" s="37"/>
+      <c r="B40" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D40" s="39" t="s">
+        <v>178</v>
+      </c>
+      <c r="E40" s="37" t="s">
+        <v>173</v>
+      </c>
       <c r="F40" s="38"/>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
         <v>25</v>
       </c>
-      <c r="B41" s="35"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="39"/>
-      <c r="E41" s="37"/>
+      <c r="B41" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D41" s="39" t="s">
+        <v>179</v>
+      </c>
+      <c r="E41" s="37" t="s">
+        <v>173</v>
+      </c>
       <c r="F41" s="38"/>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
         <v>26</v>
       </c>
-      <c r="B42" s="35"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="39"/>
-      <c r="E42" s="37"/>
+      <c r="B42" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D42" s="39" t="s">
+        <v>180</v>
+      </c>
+      <c r="E42" s="37" t="s">
+        <v>173</v>
+      </c>
       <c r="F42" s="38"/>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
         <v>27</v>
       </c>
-      <c r="B43" s="35"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="39"/>
-      <c r="E43" s="37"/>
+      <c r="B43" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D43" s="39" t="s">
+        <v>181</v>
+      </c>
+      <c r="E43" s="37" t="s">
+        <v>173</v>
+      </c>
       <c r="F43" s="38"/>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
         <v>28</v>
       </c>
-      <c r="B44" s="35"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="39"/>
-      <c r="E44" s="37"/>
+      <c r="B44" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D44" s="39" t="s">
+        <v>182</v>
+      </c>
+      <c r="E44" s="37" t="s">
+        <v>173</v>
+      </c>
       <c r="F44" s="38"/>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
         <v>29</v>
       </c>
@@ -6143,7 +7709,7 @@
       <c r="E45" s="37"/>
       <c r="F45" s="38"/>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
         <v>30</v>
       </c>
@@ -6153,7 +7719,7 @@
       <c r="E46" s="37"/>
       <c r="F46" s="38"/>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
         <v>31</v>
       </c>
@@ -6163,7 +7729,7 @@
       <c r="E47" s="37"/>
       <c r="F47" s="38"/>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
         <v>32</v>
       </c>
@@ -6173,7 +7739,7 @@
       <c r="E48" s="37"/>
       <c r="F48" s="38"/>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
         <v>33</v>
       </c>
@@ -6183,7 +7749,7 @@
       <c r="E49" s="37"/>
       <c r="F49" s="38"/>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="4">
         <v>34</v>
       </c>
@@ -6193,7 +7759,7 @@
       <c r="E50" s="37"/>
       <c r="F50" s="38"/>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="4">
         <v>35</v>
       </c>
@@ -6203,7 +7769,7 @@
       <c r="E51" s="37"/>
       <c r="F51" s="38"/>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="4">
         <v>36</v>
       </c>
@@ -6213,7 +7779,7 @@
       <c r="E52" s="37"/>
       <c r="F52" s="38"/>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="4">
         <v>37</v>
       </c>
@@ -6223,7 +7789,7 @@
       <c r="E53" s="37"/>
       <c r="F53" s="38"/>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="4">
         <v>38</v>
       </c>
@@ -6233,7 +7799,7 @@
       <c r="E54" s="37"/>
       <c r="F54" s="38"/>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="4">
         <v>39</v>
       </c>
@@ -6243,7 +7809,7 @@
       <c r="E55" s="37"/>
       <c r="F55" s="38"/>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="4">
         <v>40</v>
       </c>
@@ -6253,7 +7819,7 @@
       <c r="E56" s="37"/>
       <c r="F56" s="38"/>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="4">
         <v>41</v>
       </c>
@@ -6263,7 +7829,7 @@
       <c r="E57" s="37"/>
       <c r="F57" s="38"/>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="4">
         <v>42</v>
       </c>
@@ -6273,7 +7839,7 @@
       <c r="E58" s="37"/>
       <c r="F58" s="38"/>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="4">
         <v>43</v>
       </c>
@@ -6283,7 +7849,7 @@
       <c r="E59" s="37"/>
       <c r="F59" s="38"/>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="4">
         <v>44</v>
       </c>
@@ -6293,7 +7859,7 @@
       <c r="E60" s="37"/>
       <c r="F60" s="38"/>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="4">
         <v>45</v>
       </c>
@@ -6303,7 +7869,7 @@
       <c r="E61" s="37"/>
       <c r="F61" s="38"/>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="4">
         <v>46</v>
       </c>
@@ -6313,7 +7879,7 @@
       <c r="E62" s="37"/>
       <c r="F62" s="38"/>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="4">
         <v>47</v>
       </c>
@@ -6323,7 +7889,7 @@
       <c r="E63" s="37"/>
       <c r="F63" s="38"/>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="4">
         <v>48</v>
       </c>
@@ -6333,7 +7899,7 @@
       <c r="E64" s="37"/>
       <c r="F64" s="38"/>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="4">
         <v>49</v>
       </c>
@@ -6343,7 +7909,7 @@
       <c r="E65" s="37"/>
       <c r="F65" s="38"/>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="4">
         <v>50</v>
       </c>
@@ -6353,7 +7919,7 @@
       <c r="E66" s="37"/>
       <c r="F66" s="38"/>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="4">
         <v>51</v>
       </c>
@@ -6363,7 +7929,7 @@
       <c r="E67" s="37"/>
       <c r="F67" s="38"/>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="4">
         <v>52</v>
       </c>
@@ -6373,7 +7939,7 @@
       <c r="E68" s="37"/>
       <c r="F68" s="38"/>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="4">
         <v>53</v>
       </c>
@@ -6383,7 +7949,7 @@
       <c r="E69" s="37"/>
       <c r="F69" s="38"/>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="4">
         <v>54</v>
       </c>
@@ -6393,7 +7959,7 @@
       <c r="E70" s="37"/>
       <c r="F70" s="38"/>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="4">
         <v>55</v>
       </c>
@@ -6403,7 +7969,7 @@
       <c r="E71" s="37"/>
       <c r="F71" s="38"/>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="4">
         <v>56</v>
       </c>
@@ -6413,7 +7979,7 @@
       <c r="E72" s="37"/>
       <c r="F72" s="38"/>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="4">
         <v>57</v>
       </c>
@@ -6423,7 +7989,7 @@
       <c r="E73" s="37"/>
       <c r="F73" s="38"/>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="4">
         <v>58</v>
       </c>
@@ -6433,7 +7999,7 @@
       <c r="E74" s="37"/>
       <c r="F74" s="38"/>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="4">
         <v>59</v>
       </c>
@@ -6443,7 +8009,7 @@
       <c r="E75" s="37"/>
       <c r="F75" s="38"/>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="4">
         <v>60</v>
       </c>
@@ -6453,7 +8019,7 @@
       <c r="E76" s="37"/>
       <c r="F76" s="38"/>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="4">
         <v>61</v>
       </c>
@@ -6463,7 +8029,7 @@
       <c r="E77" s="37"/>
       <c r="F77" s="38"/>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="4">
         <v>62</v>
       </c>
@@ -6473,7 +8039,7 @@
       <c r="E78" s="37"/>
       <c r="F78" s="38"/>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="4">
         <v>63</v>
       </c>
@@ -6483,7 +8049,7 @@
       <c r="E79" s="37"/>
       <c r="F79" s="38"/>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="4">
         <v>64</v>
       </c>
@@ -6493,7 +8059,7 @@
       <c r="E80" s="37"/>
       <c r="F80" s="38"/>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" s="4">
         <v>65</v>
       </c>
@@ -6503,7 +8069,7 @@
       <c r="E81" s="37"/>
       <c r="F81" s="38"/>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="4">
         <v>66</v>
       </c>
@@ -6513,7 +8079,7 @@
       <c r="E82" s="37"/>
       <c r="F82" s="38"/>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="4">
         <v>67</v>
       </c>
@@ -6523,7 +8089,7 @@
       <c r="E83" s="37"/>
       <c r="F83" s="38"/>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="4">
         <v>68</v>
       </c>
@@ -6533,7 +8099,7 @@
       <c r="E84" s="37"/>
       <c r="F84" s="38"/>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="4">
         <v>69</v>
       </c>
@@ -6543,7 +8109,7 @@
       <c r="E85" s="37"/>
       <c r="F85" s="38"/>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="4">
         <v>70</v>
       </c>
@@ -6553,7 +8119,7 @@
       <c r="E86" s="37"/>
       <c r="F86" s="38"/>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="4">
         <v>71</v>
       </c>
@@ -6563,7 +8129,7 @@
       <c r="E87" s="37"/>
       <c r="F87" s="38"/>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="4">
         <v>72</v>
       </c>
@@ -6573,7 +8139,7 @@
       <c r="E88" s="37"/>
       <c r="F88" s="38"/>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" s="4">
         <v>73</v>
       </c>
@@ -6583,7 +8149,7 @@
       <c r="E89" s="37"/>
       <c r="F89" s="38"/>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" s="4">
         <v>74</v>
       </c>
@@ -6593,7 +8159,7 @@
       <c r="E90" s="37"/>
       <c r="F90" s="38"/>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" s="4">
         <v>75</v>
       </c>
@@ -6603,7 +8169,7 @@
       <c r="E91" s="37"/>
       <c r="F91" s="38"/>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" s="4">
         <v>76</v>
       </c>
@@ -6613,7 +8179,7 @@
       <c r="E92" s="37"/>
       <c r="F92" s="38"/>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" s="4">
         <v>77</v>
       </c>
@@ -6623,7 +8189,7 @@
       <c r="E93" s="37"/>
       <c r="F93" s="38"/>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" s="4">
         <v>78</v>
       </c>
@@ -6633,7 +8199,7 @@
       <c r="E94" s="37"/>
       <c r="F94" s="38"/>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" s="4">
         <v>79</v>
       </c>
@@ -6643,7 +8209,7 @@
       <c r="E95" s="37"/>
       <c r="F95" s="38"/>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" s="4">
         <v>80</v>
       </c>
@@ -6653,7 +8219,7 @@
       <c r="E96" s="37"/>
       <c r="F96" s="38"/>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" s="4">
         <v>81</v>
       </c>
@@ -6663,7 +8229,7 @@
       <c r="E97" s="37"/>
       <c r="F97" s="38"/>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" s="4">
         <v>82</v>
       </c>
@@ -6673,7 +8239,7 @@
       <c r="E98" s="37"/>
       <c r="F98" s="38"/>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" s="4">
         <v>83</v>
       </c>
@@ -6683,7 +8249,7 @@
       <c r="E99" s="37"/>
       <c r="F99" s="38"/>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" s="4">
         <v>84</v>
       </c>
@@ -6729,7 +8295,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>C17:C100</xm:sqref>
+          <xm:sqref>C45:C100</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Select Feature ID from Product Backlog" prompt="The list contains the Feature IDs from the same column on the Product Backlog tab._x000a__x000a_For each (ahem) Feature ID, create one or more rows in this table representing the tasks you need to complete to implement that feature._x000a__x000a_For example, for a &quot;Provide Help " xr:uid="{00000000-0002-0000-0100-000001000000}">
           <x14:formula1>
@@ -6738,1177 +8304,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>B17:B100</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AMJ100"/>
-  <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
-  <cols>
-    <col min="1" max="1" width="10.28515625" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" customWidth="1"/>
-    <col min="4" max="4" width="51.85546875" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" customWidth="1"/>
-    <col min="6" max="6" width="51.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1024" s="28" customFormat="1" ht="17.45">
-      <c r="A1" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="25">
-        <f>'Sprint 01 Backlog'!B1+1</f>
-        <v>2</v>
-      </c>
-      <c r="C1" s="25"/>
-      <c r="D1" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1"/>
-      <c r="F1" s="25"/>
-      <c r="AMI1"/>
-      <c r="AMJ1"/>
-    </row>
-    <row r="2" spans="1:1024" s="28" customFormat="1">
-      <c r="A2" s="25" t="s">
-        <v>132</v>
-      </c>
-      <c r="B2" s="29">
-        <f>'Sprint 01 Backlog'!B3</f>
-        <v>44985</v>
-      </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="30" t="s">
-        <v>133</v>
-      </c>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="AMI2"/>
-      <c r="AMJ2"/>
-    </row>
-    <row r="3" spans="1:1024" s="28" customFormat="1">
-      <c r="A3" s="25" t="s">
-        <v>134</v>
-      </c>
-      <c r="B3" s="29">
-        <f>B2+7</f>
-        <v>44992</v>
-      </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="AMI3"/>
-      <c r="AMJ3"/>
-    </row>
-    <row r="4" spans="1:1024" s="28" customFormat="1">
-      <c r="A4" s="25" t="s">
-        <v>135</v>
-      </c>
-      <c r="B4" s="31" t="s">
-        <v>136</v>
-      </c>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="AMI4"/>
-      <c r="AMJ4"/>
-    </row>
-    <row r="5" spans="1:1024" s="28" customFormat="1">
-      <c r="A5" s="25"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="AMI5"/>
-      <c r="AMJ5"/>
-    </row>
-    <row r="6" spans="1:1024" s="28" customFormat="1">
-      <c r="A6" s="25"/>
-      <c r="B6" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="AMI6"/>
-      <c r="AMJ6"/>
-    </row>
-    <row r="7" spans="1:1024" s="28" customFormat="1">
-      <c r="A7" s="25" t="s">
-        <v>138</v>
-      </c>
-      <c r="B7" s="25">
-        <f>COUNTA(D17:D995)</f>
-        <v>1</v>
-      </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="AMI7"/>
-      <c r="AMJ7"/>
-    </row>
-    <row r="8" spans="1:1024" s="28" customFormat="1">
-      <c r="A8" s="25" t="s">
-        <v>139</v>
-      </c>
-      <c r="B8" s="25">
-        <f>B7-C8</f>
-        <v>1</v>
-      </c>
-      <c r="C8" s="25">
-        <f>COUNTIF(E$17:E$995, "Completed Day 1")</f>
-        <v>0</v>
-      </c>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="AMI8"/>
-      <c r="AMJ8"/>
-    </row>
-    <row r="9" spans="1:1024" s="28" customFormat="1">
-      <c r="A9" s="25" t="s">
-        <v>140</v>
-      </c>
-      <c r="B9" s="25">
-        <f>B8-C9</f>
-        <v>1</v>
-      </c>
-      <c r="C9" s="25">
-        <f>COUNTIF(E$17:E$995, "Completed Day 2")</f>
-        <v>0</v>
-      </c>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="AMI9"/>
-      <c r="AMJ9"/>
-    </row>
-    <row r="10" spans="1:1024" s="28" customFormat="1">
-      <c r="A10" s="25" t="s">
-        <v>141</v>
-      </c>
-      <c r="B10" s="25">
-        <f>B9-C10</f>
-        <v>1</v>
-      </c>
-      <c r="C10" s="25">
-        <f>COUNTIF(E$17:E$995, "Completed Day 3")</f>
-        <v>0</v>
-      </c>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="AMI10"/>
-      <c r="AMJ10"/>
-    </row>
-    <row r="11" spans="1:1024" s="28" customFormat="1">
-      <c r="A11" s="25" t="s">
-        <v>142</v>
-      </c>
-      <c r="B11" s="25">
-        <f>B10-C11</f>
-        <v>1</v>
-      </c>
-      <c r="C11" s="25">
-        <f>COUNTIF(E$17:E$995, "Completed Day 4")</f>
-        <v>0</v>
-      </c>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="AMI11"/>
-      <c r="AMJ11"/>
-    </row>
-    <row r="12" spans="1:1024" s="28" customFormat="1">
-      <c r="A12" s="25" t="s">
-        <v>143</v>
-      </c>
-      <c r="B12" s="25">
-        <f>B11-C12</f>
-        <v>1</v>
-      </c>
-      <c r="C12" s="25">
-        <f>COUNTIF(E$17:E$995, "Completed Day 5")</f>
-        <v>0</v>
-      </c>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="AMI12"/>
-      <c r="AMJ12"/>
-    </row>
-    <row r="13" spans="1:1024" s="28" customFormat="1">
-      <c r="A13" s="25" t="s">
-        <v>144</v>
-      </c>
-      <c r="B13" s="25">
-        <f>B12-C13</f>
-        <v>1</v>
-      </c>
-      <c r="C13" s="25">
-        <f>COUNTIF(E$17:E$995, "Completed Day 6")</f>
-        <v>0</v>
-      </c>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="AMI13"/>
-      <c r="AMJ13"/>
-    </row>
-    <row r="14" spans="1:1024" s="28" customFormat="1">
-      <c r="A14" s="25" t="s">
-        <v>145</v>
-      </c>
-      <c r="B14" s="25">
-        <f>B13-C14</f>
-        <v>1</v>
-      </c>
-      <c r="C14" s="25">
-        <f>COUNTIF(E$17:E$995, "Completed Day 7")</f>
-        <v>0</v>
-      </c>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="AMI14"/>
-      <c r="AMJ14"/>
-    </row>
-    <row r="15" spans="1:1024" s="28" customFormat="1">
-      <c r="A15" s="25"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="AMI15"/>
-      <c r="AMJ15"/>
-    </row>
-    <row r="16" spans="1:1024">
-      <c r="A16" s="33" t="s">
-        <v>146</v>
-      </c>
-      <c r="B16" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="33" t="s">
-        <v>147</v>
-      </c>
-      <c r="D16" s="33" t="s">
-        <v>150</v>
-      </c>
-      <c r="E16" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="F16" s="33" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="4">
-        <v>1</v>
-      </c>
-      <c r="B17" s="35"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="36" t="s">
-        <v>149</v>
-      </c>
-      <c r="E17" s="37"/>
-      <c r="F17" s="38"/>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="4">
-        <v>2</v>
-      </c>
-      <c r="B18" s="35"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="38"/>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="4">
-        <v>3</v>
-      </c>
-      <c r="B19" s="35"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="38"/>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="4">
-        <v>4</v>
-      </c>
-      <c r="B20" s="35"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="38"/>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="4">
-        <v>5</v>
-      </c>
-      <c r="B21" s="35"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="38"/>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="4">
-        <v>6</v>
-      </c>
-      <c r="B22" s="35"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="38"/>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="4">
-        <v>7</v>
-      </c>
-      <c r="B23" s="35"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="37"/>
-      <c r="F23" s="38"/>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="4">
-        <v>8</v>
-      </c>
-      <c r="B24" s="35"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="37"/>
-      <c r="F24" s="38"/>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="4">
-        <v>9</v>
-      </c>
-      <c r="B25" s="35"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="37"/>
-      <c r="F25" s="38"/>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="4">
-        <v>10</v>
-      </c>
-      <c r="B26" s="35"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="39"/>
-      <c r="E26" s="37"/>
-      <c r="F26" s="38"/>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="4">
-        <v>11</v>
-      </c>
-      <c r="B27" s="35"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="37"/>
-      <c r="F27" s="38"/>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="4">
-        <v>12</v>
-      </c>
-      <c r="B28" s="35"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="39"/>
-      <c r="E28" s="37"/>
-      <c r="F28" s="38"/>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="4">
-        <v>13</v>
-      </c>
-      <c r="B29" s="35"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="39"/>
-      <c r="E29" s="37"/>
-      <c r="F29" s="38"/>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="4">
-        <v>14</v>
-      </c>
-      <c r="B30" s="35"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="39"/>
-      <c r="E30" s="37"/>
-      <c r="F30" s="38"/>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="4">
-        <v>15</v>
-      </c>
-      <c r="B31" s="35"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="39"/>
-      <c r="E31" s="37"/>
-      <c r="F31" s="38"/>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="4">
-        <v>16</v>
-      </c>
-      <c r="B32" s="35"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="39"/>
-      <c r="E32" s="37"/>
-      <c r="F32" s="38"/>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="4">
-        <v>17</v>
-      </c>
-      <c r="B33" s="35"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="39"/>
-      <c r="E33" s="37"/>
-      <c r="F33" s="38"/>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="4">
-        <v>18</v>
-      </c>
-      <c r="B34" s="35"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="39"/>
-      <c r="E34" s="37"/>
-      <c r="F34" s="38"/>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="4">
-        <v>19</v>
-      </c>
-      <c r="B35" s="35"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="39"/>
-      <c r="E35" s="37"/>
-      <c r="F35" s="38"/>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="4">
-        <v>20</v>
-      </c>
-      <c r="B36" s="35"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="39"/>
-      <c r="E36" s="37"/>
-      <c r="F36" s="38"/>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="4">
-        <v>21</v>
-      </c>
-      <c r="B37" s="35"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="39"/>
-      <c r="E37" s="37"/>
-      <c r="F37" s="38"/>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="4">
-        <v>22</v>
-      </c>
-      <c r="B38" s="35"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="39"/>
-      <c r="E38" s="37"/>
-      <c r="F38" s="38"/>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="4">
-        <v>23</v>
-      </c>
-      <c r="B39" s="35"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="39"/>
-      <c r="E39" s="37"/>
-      <c r="F39" s="38"/>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="4">
-        <v>24</v>
-      </c>
-      <c r="B40" s="35"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="39"/>
-      <c r="E40" s="37"/>
-      <c r="F40" s="38"/>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="4">
-        <v>25</v>
-      </c>
-      <c r="B41" s="35"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="39"/>
-      <c r="E41" s="37"/>
-      <c r="F41" s="38"/>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="4">
-        <v>26</v>
-      </c>
-      <c r="B42" s="35"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="39"/>
-      <c r="E42" s="37"/>
-      <c r="F42" s="38"/>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43" s="4">
-        <v>27</v>
-      </c>
-      <c r="B43" s="35"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="39"/>
-      <c r="E43" s="37"/>
-      <c r="F43" s="38"/>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44" s="4">
-        <v>28</v>
-      </c>
-      <c r="B44" s="35"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="39"/>
-      <c r="E44" s="37"/>
-      <c r="F44" s="38"/>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45" s="4">
-        <v>29</v>
-      </c>
-      <c r="B45" s="35"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="39"/>
-      <c r="E45" s="37"/>
-      <c r="F45" s="38"/>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="A46" s="4">
-        <v>30</v>
-      </c>
-      <c r="B46" s="35"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="39"/>
-      <c r="E46" s="37"/>
-      <c r="F46" s="38"/>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="A47" s="4">
-        <v>31</v>
-      </c>
-      <c r="B47" s="35"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="39"/>
-      <c r="E47" s="37"/>
-      <c r="F47" s="38"/>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="A48" s="4">
-        <v>32</v>
-      </c>
-      <c r="B48" s="35"/>
-      <c r="C48" s="4"/>
-      <c r="D48" s="39"/>
-      <c r="E48" s="37"/>
-      <c r="F48" s="38"/>
-    </row>
-    <row r="49" spans="1:6">
-      <c r="A49" s="4">
-        <v>33</v>
-      </c>
-      <c r="B49" s="35"/>
-      <c r="C49" s="4"/>
-      <c r="D49" s="39"/>
-      <c r="E49" s="37"/>
-      <c r="F49" s="38"/>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="A50" s="4">
-        <v>34</v>
-      </c>
-      <c r="B50" s="35"/>
-      <c r="C50" s="4"/>
-      <c r="D50" s="39"/>
-      <c r="E50" s="37"/>
-      <c r="F50" s="38"/>
-    </row>
-    <row r="51" spans="1:6">
-      <c r="A51" s="4">
-        <v>35</v>
-      </c>
-      <c r="B51" s="35"/>
-      <c r="C51" s="4"/>
-      <c r="D51" s="39"/>
-      <c r="E51" s="37"/>
-      <c r="F51" s="38"/>
-    </row>
-    <row r="52" spans="1:6">
-      <c r="A52" s="4">
-        <v>36</v>
-      </c>
-      <c r="B52" s="35"/>
-      <c r="C52" s="4"/>
-      <c r="D52" s="39"/>
-      <c r="E52" s="37"/>
-      <c r="F52" s="38"/>
-    </row>
-    <row r="53" spans="1:6">
-      <c r="A53" s="4">
-        <v>37</v>
-      </c>
-      <c r="B53" s="35"/>
-      <c r="C53" s="4"/>
-      <c r="D53" s="39"/>
-      <c r="E53" s="37"/>
-      <c r="F53" s="38"/>
-    </row>
-    <row r="54" spans="1:6">
-      <c r="A54" s="4">
-        <v>38</v>
-      </c>
-      <c r="B54" s="35"/>
-      <c r="C54" s="4"/>
-      <c r="D54" s="39"/>
-      <c r="E54" s="37"/>
-      <c r="F54" s="38"/>
-    </row>
-    <row r="55" spans="1:6">
-      <c r="A55" s="4">
-        <v>39</v>
-      </c>
-      <c r="B55" s="35"/>
-      <c r="C55" s="4"/>
-      <c r="D55" s="39"/>
-      <c r="E55" s="37"/>
-      <c r="F55" s="38"/>
-    </row>
-    <row r="56" spans="1:6">
-      <c r="A56" s="4">
-        <v>40</v>
-      </c>
-      <c r="B56" s="35"/>
-      <c r="C56" s="4"/>
-      <c r="D56" s="39"/>
-      <c r="E56" s="37"/>
-      <c r="F56" s="38"/>
-    </row>
-    <row r="57" spans="1:6">
-      <c r="A57" s="4">
-        <v>41</v>
-      </c>
-      <c r="B57" s="35"/>
-      <c r="C57" s="4"/>
-      <c r="D57" s="39"/>
-      <c r="E57" s="37"/>
-      <c r="F57" s="38"/>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="A58" s="4">
-        <v>42</v>
-      </c>
-      <c r="B58" s="35"/>
-      <c r="C58" s="4"/>
-      <c r="D58" s="39"/>
-      <c r="E58" s="37"/>
-      <c r="F58" s="38"/>
-    </row>
-    <row r="59" spans="1:6">
-      <c r="A59" s="4">
-        <v>43</v>
-      </c>
-      <c r="B59" s="35"/>
-      <c r="C59" s="4"/>
-      <c r="D59" s="39"/>
-      <c r="E59" s="37"/>
-      <c r="F59" s="38"/>
-    </row>
-    <row r="60" spans="1:6">
-      <c r="A60" s="4">
-        <v>44</v>
-      </c>
-      <c r="B60" s="35"/>
-      <c r="C60" s="4"/>
-      <c r="D60" s="39"/>
-      <c r="E60" s="37"/>
-      <c r="F60" s="38"/>
-    </row>
-    <row r="61" spans="1:6">
-      <c r="A61" s="4">
-        <v>45</v>
-      </c>
-      <c r="B61" s="35"/>
-      <c r="C61" s="4"/>
-      <c r="D61" s="39"/>
-      <c r="E61" s="37"/>
-      <c r="F61" s="38"/>
-    </row>
-    <row r="62" spans="1:6">
-      <c r="A62" s="4">
-        <v>46</v>
-      </c>
-      <c r="B62" s="35"/>
-      <c r="C62" s="4"/>
-      <c r="D62" s="39"/>
-      <c r="E62" s="37"/>
-      <c r="F62" s="38"/>
-    </row>
-    <row r="63" spans="1:6">
-      <c r="A63" s="4">
-        <v>47</v>
-      </c>
-      <c r="B63" s="35"/>
-      <c r="C63" s="4"/>
-      <c r="D63" s="39"/>
-      <c r="E63" s="37"/>
-      <c r="F63" s="38"/>
-    </row>
-    <row r="64" spans="1:6">
-      <c r="A64" s="4">
-        <v>48</v>
-      </c>
-      <c r="B64" s="35"/>
-      <c r="C64" s="4"/>
-      <c r="D64" s="39"/>
-      <c r="E64" s="37"/>
-      <c r="F64" s="38"/>
-    </row>
-    <row r="65" spans="1:6">
-      <c r="A65" s="4">
-        <v>49</v>
-      </c>
-      <c r="B65" s="35"/>
-      <c r="C65" s="4"/>
-      <c r="D65" s="39"/>
-      <c r="E65" s="37"/>
-      <c r="F65" s="38"/>
-    </row>
-    <row r="66" spans="1:6">
-      <c r="A66" s="4">
-        <v>50</v>
-      </c>
-      <c r="B66" s="35"/>
-      <c r="C66" s="4"/>
-      <c r="D66" s="39"/>
-      <c r="E66" s="37"/>
-      <c r="F66" s="38"/>
-    </row>
-    <row r="67" spans="1:6">
-      <c r="A67" s="4">
-        <v>51</v>
-      </c>
-      <c r="B67" s="35"/>
-      <c r="C67" s="4"/>
-      <c r="D67" s="39"/>
-      <c r="E67" s="37"/>
-      <c r="F67" s="38"/>
-    </row>
-    <row r="68" spans="1:6">
-      <c r="A68" s="4">
-        <v>52</v>
-      </c>
-      <c r="B68" s="35"/>
-      <c r="C68" s="4"/>
-      <c r="D68" s="39"/>
-      <c r="E68" s="37"/>
-      <c r="F68" s="38"/>
-    </row>
-    <row r="69" spans="1:6">
-      <c r="A69" s="4">
-        <v>53</v>
-      </c>
-      <c r="B69" s="35"/>
-      <c r="C69" s="4"/>
-      <c r="D69" s="39"/>
-      <c r="E69" s="37"/>
-      <c r="F69" s="38"/>
-    </row>
-    <row r="70" spans="1:6">
-      <c r="A70" s="4">
-        <v>54</v>
-      </c>
-      <c r="B70" s="35"/>
-      <c r="C70" s="4"/>
-      <c r="D70" s="39"/>
-      <c r="E70" s="37"/>
-      <c r="F70" s="38"/>
-    </row>
-    <row r="71" spans="1:6">
-      <c r="A71" s="4">
-        <v>55</v>
-      </c>
-      <c r="B71" s="35"/>
-      <c r="C71" s="4"/>
-      <c r="D71" s="39"/>
-      <c r="E71" s="37"/>
-      <c r="F71" s="38"/>
-    </row>
-    <row r="72" spans="1:6">
-      <c r="A72" s="4">
-        <v>56</v>
-      </c>
-      <c r="B72" s="35"/>
-      <c r="C72" s="4"/>
-      <c r="D72" s="39"/>
-      <c r="E72" s="37"/>
-      <c r="F72" s="38"/>
-    </row>
-    <row r="73" spans="1:6">
-      <c r="A73" s="4">
-        <v>57</v>
-      </c>
-      <c r="B73" s="35"/>
-      <c r="C73" s="4"/>
-      <c r="D73" s="39"/>
-      <c r="E73" s="37"/>
-      <c r="F73" s="38"/>
-    </row>
-    <row r="74" spans="1:6">
-      <c r="A74" s="4">
-        <v>58</v>
-      </c>
-      <c r="B74" s="35"/>
-      <c r="C74" s="4"/>
-      <c r="D74" s="39"/>
-      <c r="E74" s="37"/>
-      <c r="F74" s="38"/>
-    </row>
-    <row r="75" spans="1:6">
-      <c r="A75" s="4">
-        <v>59</v>
-      </c>
-      <c r="B75" s="35"/>
-      <c r="C75" s="4"/>
-      <c r="D75" s="39"/>
-      <c r="E75" s="37"/>
-      <c r="F75" s="38"/>
-    </row>
-    <row r="76" spans="1:6">
-      <c r="A76" s="4">
-        <v>60</v>
-      </c>
-      <c r="B76" s="35"/>
-      <c r="C76" s="4"/>
-      <c r="D76" s="39"/>
-      <c r="E76" s="37"/>
-      <c r="F76" s="38"/>
-    </row>
-    <row r="77" spans="1:6">
-      <c r="A77" s="4">
-        <v>61</v>
-      </c>
-      <c r="B77" s="35"/>
-      <c r="C77" s="4"/>
-      <c r="D77" s="39"/>
-      <c r="E77" s="37"/>
-      <c r="F77" s="38"/>
-    </row>
-    <row r="78" spans="1:6">
-      <c r="A78" s="4">
-        <v>62</v>
-      </c>
-      <c r="B78" s="35"/>
-      <c r="C78" s="4"/>
-      <c r="D78" s="39"/>
-      <c r="E78" s="37"/>
-      <c r="F78" s="38"/>
-    </row>
-    <row r="79" spans="1:6">
-      <c r="A79" s="4">
-        <v>63</v>
-      </c>
-      <c r="B79" s="35"/>
-      <c r="C79" s="4"/>
-      <c r="D79" s="39"/>
-      <c r="E79" s="37"/>
-      <c r="F79" s="38"/>
-    </row>
-    <row r="80" spans="1:6">
-      <c r="A80" s="4">
-        <v>64</v>
-      </c>
-      <c r="B80" s="35"/>
-      <c r="C80" s="4"/>
-      <c r="D80" s="39"/>
-      <c r="E80" s="37"/>
-      <c r="F80" s="38"/>
-    </row>
-    <row r="81" spans="1:6">
-      <c r="A81" s="4">
-        <v>65</v>
-      </c>
-      <c r="B81" s="35"/>
-      <c r="C81" s="4"/>
-      <c r="D81" s="39"/>
-      <c r="E81" s="37"/>
-      <c r="F81" s="38"/>
-    </row>
-    <row r="82" spans="1:6">
-      <c r="A82" s="4">
-        <v>66</v>
-      </c>
-      <c r="B82" s="35"/>
-      <c r="C82" s="4"/>
-      <c r="D82" s="39"/>
-      <c r="E82" s="37"/>
-      <c r="F82" s="38"/>
-    </row>
-    <row r="83" spans="1:6">
-      <c r="A83" s="4">
-        <v>67</v>
-      </c>
-      <c r="B83" s="35"/>
-      <c r="C83" s="4"/>
-      <c r="D83" s="39"/>
-      <c r="E83" s="37"/>
-      <c r="F83" s="38"/>
-    </row>
-    <row r="84" spans="1:6">
-      <c r="A84" s="4">
-        <v>68</v>
-      </c>
-      <c r="B84" s="35"/>
-      <c r="C84" s="4"/>
-      <c r="D84" s="39"/>
-      <c r="E84" s="37"/>
-      <c r="F84" s="38"/>
-    </row>
-    <row r="85" spans="1:6">
-      <c r="A85" s="4">
-        <v>69</v>
-      </c>
-      <c r="B85" s="35"/>
-      <c r="C85" s="4"/>
-      <c r="D85" s="39"/>
-      <c r="E85" s="37"/>
-      <c r="F85" s="38"/>
-    </row>
-    <row r="86" spans="1:6">
-      <c r="A86" s="4">
-        <v>70</v>
-      </c>
-      <c r="B86" s="35"/>
-      <c r="C86" s="4"/>
-      <c r="D86" s="39"/>
-      <c r="E86" s="37"/>
-      <c r="F86" s="38"/>
-    </row>
-    <row r="87" spans="1:6">
-      <c r="A87" s="4">
-        <v>71</v>
-      </c>
-      <c r="B87" s="35"/>
-      <c r="C87" s="4"/>
-      <c r="D87" s="39"/>
-      <c r="E87" s="37"/>
-      <c r="F87" s="38"/>
-    </row>
-    <row r="88" spans="1:6">
-      <c r="A88" s="4">
-        <v>72</v>
-      </c>
-      <c r="B88" s="35"/>
-      <c r="C88" s="4"/>
-      <c r="D88" s="39"/>
-      <c r="E88" s="37"/>
-      <c r="F88" s="38"/>
-    </row>
-    <row r="89" spans="1:6">
-      <c r="A89" s="4">
-        <v>73</v>
-      </c>
-      <c r="B89" s="35"/>
-      <c r="C89" s="4"/>
-      <c r="D89" s="39"/>
-      <c r="E89" s="37"/>
-      <c r="F89" s="38"/>
-    </row>
-    <row r="90" spans="1:6">
-      <c r="A90" s="4">
-        <v>74</v>
-      </c>
-      <c r="B90" s="35"/>
-      <c r="C90" s="4"/>
-      <c r="D90" s="39"/>
-      <c r="E90" s="37"/>
-      <c r="F90" s="38"/>
-    </row>
-    <row r="91" spans="1:6">
-      <c r="A91" s="4">
-        <v>75</v>
-      </c>
-      <c r="B91" s="35"/>
-      <c r="C91" s="4"/>
-      <c r="D91" s="39"/>
-      <c r="E91" s="37"/>
-      <c r="F91" s="38"/>
-    </row>
-    <row r="92" spans="1:6">
-      <c r="A92" s="4">
-        <v>76</v>
-      </c>
-      <c r="B92" s="35"/>
-      <c r="C92" s="4"/>
-      <c r="D92" s="39"/>
-      <c r="E92" s="37"/>
-      <c r="F92" s="38"/>
-    </row>
-    <row r="93" spans="1:6">
-      <c r="A93" s="4">
-        <v>77</v>
-      </c>
-      <c r="B93" s="35"/>
-      <c r="C93" s="4"/>
-      <c r="D93" s="39"/>
-      <c r="E93" s="37"/>
-      <c r="F93" s="38"/>
-    </row>
-    <row r="94" spans="1:6">
-      <c r="A94" s="4">
-        <v>78</v>
-      </c>
-      <c r="B94" s="35"/>
-      <c r="C94" s="4"/>
-      <c r="D94" s="39"/>
-      <c r="E94" s="37"/>
-      <c r="F94" s="38"/>
-    </row>
-    <row r="95" spans="1:6">
-      <c r="A95" s="4">
-        <v>79</v>
-      </c>
-      <c r="B95" s="35"/>
-      <c r="C95" s="4"/>
-      <c r="D95" s="39"/>
-      <c r="E95" s="37"/>
-      <c r="F95" s="38"/>
-    </row>
-    <row r="96" spans="1:6">
-      <c r="A96" s="4">
-        <v>80</v>
-      </c>
-      <c r="B96" s="35"/>
-      <c r="C96" s="4"/>
-      <c r="D96" s="39"/>
-      <c r="E96" s="37"/>
-      <c r="F96" s="38"/>
-    </row>
-    <row r="97" spans="1:6">
-      <c r="A97" s="4">
-        <v>81</v>
-      </c>
-      <c r="B97" s="35"/>
-      <c r="C97" s="4"/>
-      <c r="D97" s="39"/>
-      <c r="E97" s="37"/>
-      <c r="F97" s="38"/>
-    </row>
-    <row r="98" spans="1:6">
-      <c r="A98" s="4">
-        <v>82</v>
-      </c>
-      <c r="B98" s="35"/>
-      <c r="C98" s="4"/>
-      <c r="D98" s="39"/>
-      <c r="E98" s="37"/>
-      <c r="F98" s="38"/>
-    </row>
-    <row r="99" spans="1:6">
-      <c r="A99" s="4">
-        <v>83</v>
-      </c>
-      <c r="B99" s="35"/>
-      <c r="C99" s="4"/>
-      <c r="D99" s="39"/>
-      <c r="E99" s="37"/>
-      <c r="F99" s="38"/>
-    </row>
-    <row r="100" spans="1:6">
-      <c r="A100" s="4">
-        <v>84</v>
-      </c>
-      <c r="B100" s="35"/>
-      <c r="C100" s="4"/>
-      <c r="D100" s="39"/>
-      <c r="E100" s="37"/>
-      <c r="F100" s="38"/>
-    </row>
-  </sheetData>
-  <dataValidations count="4">
-    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Task ID" prompt="This is just an arbitrary unique (per sprint) integer assigned to a task, used by the team to refer to that task. " sqref="A17:A100" xr:uid="{00000000-0002-0000-0200-000000000000}">
-      <formula1>0</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Task Description" prompt="Select a Feature ID to the left. Then, in this column, list each discrete task needed to implement that feature._x000a__x000a_Example tasks might be &quot;create the Foo class&quot;, &quot;add the Bar method to the (existing) Qux class&quot;, &quot;Find icons for the task bar&quot;, &quot;Update the m" sqref="D18:D100" xr:uid="{00000000-0002-0000-0200-000002000000}">
-      <formula1>0</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="OPTIONAL" prompt="You may add any notes here that help understand the requirements and scope for this task" sqref="F17:F100" xr:uid="{00000000-0002-0000-0200-000003000000}">
-      <formula1>0</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Wrong Value" error="This cell may only contain a valid status value (hint: use the drop-down selection list) or be left blank (hint: use the Delete key)" promptTitle="Implementation Status" prompt="Leave blank until task is begun._x000a_Select &quot;In Work&quot; when started (for long tasks only)._x000a_Select Completed ONLY when this task is done._x000a_    Select &quot;Completed Day 1&quot; if finished on the first day, and_x000a_    similarly for &quot;Completed on Day 2&quot; et. al." sqref="E17:E100" xr:uid="{00000000-0002-0000-0200-000005000000}">
-      <formula1>"In Work,Completed Day 1,Completed Day 2,Completed Day 3,Completed Day 4,Completed Day 5,Completed Day 6,Completed Day 7"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;A</oddHeader>
-    <oddFooter>&amp;CPage &amp;P</oddFooter>
-  </headerFooter>
-  <drawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Select Feature ID from Product Backlog" prompt="Exactly ONE team member may be responsible for any task, and they will receive grade credit for their work._x000a__x000a_If you have more than one person on your team, each member MUST select their initials for each task the agree to perform. Use this to ensure that " xr:uid="{00000000-0002-0000-0200-000001000000}">
-          <x14:formula1>
-            <xm:f>'Product Backlog'!$H$5:$H$9</xm:f>
-          </x14:formula1>
-          <x14:formula2>
-            <xm:f>0</xm:f>
-          </x14:formula2>
-          <xm:sqref>C17:C100</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Select Feature ID from Product Backlog" prompt="The list contains the Feature IDs from the same column on the Product Backlog tab._x000a__x000a_For each (ahem) Feature ID, create one or more rows in this table representing the tasks you need to complete to implement that feature._x000a__x000a_For example, for a &quot;Provide Help " xr:uid="{00000000-0002-0000-0200-000004000000}">
-          <x14:formula1>
-            <xm:f>'Product Backlog'!$A$24:$A$100</xm:f>
-          </x14:formula1>
-          <x14:formula2>
-            <xm:f>0</xm:f>
-          </x14:formula2>
-          <xm:sqref>B17:B100</xm:sqref>
+          <xm:sqref>B45:B100</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -7924,7 +8320,7 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.28515625" customWidth="1"/>
     <col min="3" max="3" width="12.28515625" customWidth="1"/>
@@ -7933,7 +8329,7 @@
     <col min="6" max="6" width="51.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1024" s="28" customFormat="1" ht="17.45">
+    <row r="1" spans="1:1024" s="28" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>7</v>
       </c>
@@ -7950,7 +8346,7 @@
       <c r="AMI1"/>
       <c r="AMJ1"/>
     </row>
-    <row r="2" spans="1:1024" s="28" customFormat="1">
+    <row r="2" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="25" t="s">
         <v>132</v>
       </c>
@@ -7967,7 +8363,7 @@
       <c r="AMI2"/>
       <c r="AMJ2"/>
     </row>
-    <row r="3" spans="1:1024" s="28" customFormat="1">
+    <row r="3" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="25" t="s">
         <v>134</v>
       </c>
@@ -7982,7 +8378,7 @@
       <c r="AMI3"/>
       <c r="AMJ3"/>
     </row>
-    <row r="4" spans="1:1024" s="28" customFormat="1">
+    <row r="4" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="25" t="s">
         <v>135</v>
       </c>
@@ -7996,7 +8392,7 @@
       <c r="AMI4"/>
       <c r="AMJ4"/>
     </row>
-    <row r="5" spans="1:1024" s="28" customFormat="1">
+    <row r="5" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="25"/>
       <c r="B5" s="31"/>
       <c r="C5" s="25"/>
@@ -8006,7 +8402,7 @@
       <c r="AMI5"/>
       <c r="AMJ5"/>
     </row>
-    <row r="6" spans="1:1024" s="28" customFormat="1">
+    <row r="6" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="25"/>
       <c r="B6" s="32" t="s">
         <v>8</v>
@@ -8020,7 +8416,7 @@
       <c r="AMI6"/>
       <c r="AMJ6"/>
     </row>
-    <row r="7" spans="1:1024" s="28" customFormat="1">
+    <row r="7" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="25" t="s">
         <v>138</v>
       </c>
@@ -8035,12 +8431,12 @@
       <c r="AMI7"/>
       <c r="AMJ7"/>
     </row>
-    <row r="8" spans="1:1024" s="28" customFormat="1">
+    <row r="8" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="25" t="s">
         <v>139</v>
       </c>
       <c r="B8" s="25">
-        <f>B7-C8</f>
+        <f t="shared" ref="B8:B14" si="0">B7-C8</f>
         <v>1</v>
       </c>
       <c r="C8" s="25">
@@ -8053,12 +8449,12 @@
       <c r="AMI8"/>
       <c r="AMJ8"/>
     </row>
-    <row r="9" spans="1:1024" s="28" customFormat="1">
+    <row r="9" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="25" t="s">
         <v>140</v>
       </c>
       <c r="B9" s="25">
-        <f>B8-C9</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C9" s="25">
@@ -8071,12 +8467,12 @@
       <c r="AMI9"/>
       <c r="AMJ9"/>
     </row>
-    <row r="10" spans="1:1024" s="28" customFormat="1">
+    <row r="10" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="25" t="s">
         <v>141</v>
       </c>
       <c r="B10" s="25">
-        <f>B9-C10</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C10" s="25">
@@ -8089,12 +8485,12 @@
       <c r="AMI10"/>
       <c r="AMJ10"/>
     </row>
-    <row r="11" spans="1:1024" s="28" customFormat="1">
+    <row r="11" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="25" t="s">
         <v>142</v>
       </c>
       <c r="B11" s="25">
-        <f>B10-C11</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C11" s="25">
@@ -8107,12 +8503,12 @@
       <c r="AMI11"/>
       <c r="AMJ11"/>
     </row>
-    <row r="12" spans="1:1024" s="28" customFormat="1">
+    <row r="12" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="25" t="s">
         <v>143</v>
       </c>
       <c r="B12" s="25">
-        <f>B11-C12</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C12" s="25">
@@ -8125,12 +8521,12 @@
       <c r="AMI12"/>
       <c r="AMJ12"/>
     </row>
-    <row r="13" spans="1:1024" s="28" customFormat="1">
+    <row r="13" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="25" t="s">
         <v>144</v>
       </c>
       <c r="B13" s="25">
-        <f>B12-C13</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C13" s="25">
@@ -8143,12 +8539,12 @@
       <c r="AMI13"/>
       <c r="AMJ13"/>
     </row>
-    <row r="14" spans="1:1024" s="28" customFormat="1">
+    <row r="14" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="25" t="s">
         <v>145</v>
       </c>
       <c r="B14" s="25">
-        <f>B13-C14</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C14" s="25">
@@ -8161,7 +8557,7 @@
       <c r="AMI14"/>
       <c r="AMJ14"/>
     </row>
-    <row r="15" spans="1:1024" s="28" customFormat="1">
+    <row r="15" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="25"/>
       <c r="B15" s="25"/>
       <c r="C15" s="25"/>
@@ -8171,7 +8567,7 @@
       <c r="AMI15"/>
       <c r="AMJ15"/>
     </row>
-    <row r="16" spans="1:1024">
+    <row r="16" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A16" s="33" t="s">
         <v>146</v>
       </c>
@@ -8191,7 +8587,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>1</v>
       </c>
@@ -8203,7 +8599,7 @@
       <c r="E17" s="37"/>
       <c r="F17" s="38"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>2</v>
       </c>
@@ -8213,7 +8609,7 @@
       <c r="E18" s="37"/>
       <c r="F18" s="38"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>3</v>
       </c>
@@ -8223,7 +8619,7 @@
       <c r="E19" s="37"/>
       <c r="F19" s="38"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>4</v>
       </c>
@@ -8233,7 +8629,7 @@
       <c r="E20" s="37"/>
       <c r="F20" s="38"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>5</v>
       </c>
@@ -8243,7 +8639,7 @@
       <c r="E21" s="37"/>
       <c r="F21" s="38"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>6</v>
       </c>
@@ -8253,7 +8649,7 @@
       <c r="E22" s="37"/>
       <c r="F22" s="38"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>7</v>
       </c>
@@ -8263,7 +8659,7 @@
       <c r="E23" s="37"/>
       <c r="F23" s="38"/>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>8</v>
       </c>
@@ -8273,7 +8669,7 @@
       <c r="E24" s="37"/>
       <c r="F24" s="38"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>9</v>
       </c>
@@ -8283,7 +8679,7 @@
       <c r="E25" s="37"/>
       <c r="F25" s="38"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>10</v>
       </c>
@@ -8293,7 +8689,7 @@
       <c r="E26" s="37"/>
       <c r="F26" s="38"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>11</v>
       </c>
@@ -8303,7 +8699,7 @@
       <c r="E27" s="37"/>
       <c r="F27" s="38"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>12</v>
       </c>
@@ -8313,7 +8709,7 @@
       <c r="E28" s="37"/>
       <c r="F28" s="38"/>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>13</v>
       </c>
@@ -8323,7 +8719,7 @@
       <c r="E29" s="37"/>
       <c r="F29" s="38"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>14</v>
       </c>
@@ -8333,7 +8729,7 @@
       <c r="E30" s="37"/>
       <c r="F30" s="38"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>15</v>
       </c>
@@ -8343,7 +8739,7 @@
       <c r="E31" s="37"/>
       <c r="F31" s="38"/>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>16</v>
       </c>
@@ -8353,7 +8749,7 @@
       <c r="E32" s="37"/>
       <c r="F32" s="38"/>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>17</v>
       </c>
@@ -8363,7 +8759,7 @@
       <c r="E33" s="37"/>
       <c r="F33" s="38"/>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>18</v>
       </c>
@@ -8373,7 +8769,7 @@
       <c r="E34" s="37"/>
       <c r="F34" s="38"/>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>19</v>
       </c>
@@ -8383,7 +8779,7 @@
       <c r="E35" s="37"/>
       <c r="F35" s="38"/>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>20</v>
       </c>
@@ -8393,7 +8789,7 @@
       <c r="E36" s="37"/>
       <c r="F36" s="38"/>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>21</v>
       </c>
@@ -8403,7 +8799,7 @@
       <c r="E37" s="37"/>
       <c r="F37" s="38"/>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>22</v>
       </c>
@@ -8413,7 +8809,7 @@
       <c r="E38" s="37"/>
       <c r="F38" s="38"/>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
         <v>23</v>
       </c>
@@ -8423,7 +8819,7 @@
       <c r="E39" s="37"/>
       <c r="F39" s="38"/>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <v>24</v>
       </c>
@@ -8433,7 +8829,7 @@
       <c r="E40" s="37"/>
       <c r="F40" s="38"/>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
         <v>25</v>
       </c>
@@ -8443,7 +8839,7 @@
       <c r="E41" s="37"/>
       <c r="F41" s="38"/>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
         <v>26</v>
       </c>
@@ -8453,7 +8849,7 @@
       <c r="E42" s="37"/>
       <c r="F42" s="38"/>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
         <v>27</v>
       </c>
@@ -8463,7 +8859,7 @@
       <c r="E43" s="37"/>
       <c r="F43" s="38"/>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
         <v>28</v>
       </c>
@@ -8473,7 +8869,7 @@
       <c r="E44" s="37"/>
       <c r="F44" s="38"/>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
         <v>29</v>
       </c>
@@ -8483,7 +8879,7 @@
       <c r="E45" s="37"/>
       <c r="F45" s="38"/>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
         <v>30</v>
       </c>
@@ -8493,7 +8889,7 @@
       <c r="E46" s="37"/>
       <c r="F46" s="38"/>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
         <v>31</v>
       </c>
@@ -8503,7 +8899,7 @@
       <c r="E47" s="37"/>
       <c r="F47" s="38"/>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
         <v>32</v>
       </c>
@@ -8513,7 +8909,7 @@
       <c r="E48" s="37"/>
       <c r="F48" s="38"/>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
         <v>33</v>
       </c>
@@ -8523,7 +8919,7 @@
       <c r="E49" s="37"/>
       <c r="F49" s="38"/>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="4">
         <v>34</v>
       </c>
@@ -8533,7 +8929,7 @@
       <c r="E50" s="37"/>
       <c r="F50" s="38"/>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="4">
         <v>35</v>
       </c>
@@ -8543,7 +8939,7 @@
       <c r="E51" s="37"/>
       <c r="F51" s="38"/>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="4">
         <v>36</v>
       </c>
@@ -8553,7 +8949,7 @@
       <c r="E52" s="37"/>
       <c r="F52" s="38"/>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="4">
         <v>37</v>
       </c>
@@ -8563,7 +8959,7 @@
       <c r="E53" s="37"/>
       <c r="F53" s="38"/>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="4">
         <v>38</v>
       </c>
@@ -8573,7 +8969,7 @@
       <c r="E54" s="37"/>
       <c r="F54" s="38"/>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="4">
         <v>39</v>
       </c>
@@ -8583,7 +8979,7 @@
       <c r="E55" s="37"/>
       <c r="F55" s="38"/>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="4">
         <v>40</v>
       </c>
@@ -8593,7 +8989,7 @@
       <c r="E56" s="37"/>
       <c r="F56" s="38"/>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="4">
         <v>41</v>
       </c>
@@ -8603,7 +8999,7 @@
       <c r="E57" s="37"/>
       <c r="F57" s="38"/>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="4">
         <v>42</v>
       </c>
@@ -8613,7 +9009,7 @@
       <c r="E58" s="37"/>
       <c r="F58" s="38"/>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="4">
         <v>43</v>
       </c>
@@ -8623,7 +9019,7 @@
       <c r="E59" s="37"/>
       <c r="F59" s="38"/>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="4">
         <v>44</v>
       </c>
@@ -8633,7 +9029,7 @@
       <c r="E60" s="37"/>
       <c r="F60" s="38"/>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="4">
         <v>45</v>
       </c>
@@ -8643,7 +9039,7 @@
       <c r="E61" s="37"/>
       <c r="F61" s="38"/>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="4">
         <v>46</v>
       </c>
@@ -8653,7 +9049,7 @@
       <c r="E62" s="37"/>
       <c r="F62" s="38"/>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="4">
         <v>47</v>
       </c>
@@ -8663,7 +9059,7 @@
       <c r="E63" s="37"/>
       <c r="F63" s="38"/>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="4">
         <v>48</v>
       </c>
@@ -8673,7 +9069,7 @@
       <c r="E64" s="37"/>
       <c r="F64" s="38"/>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="4">
         <v>49</v>
       </c>
@@ -8683,7 +9079,7 @@
       <c r="E65" s="37"/>
       <c r="F65" s="38"/>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="4">
         <v>50</v>
       </c>
@@ -8693,7 +9089,7 @@
       <c r="E66" s="37"/>
       <c r="F66" s="38"/>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="4">
         <v>51</v>
       </c>
@@ -8703,7 +9099,7 @@
       <c r="E67" s="37"/>
       <c r="F67" s="38"/>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="4">
         <v>52</v>
       </c>
@@ -8713,7 +9109,7 @@
       <c r="E68" s="37"/>
       <c r="F68" s="38"/>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="4">
         <v>53</v>
       </c>
@@ -8723,7 +9119,7 @@
       <c r="E69" s="37"/>
       <c r="F69" s="38"/>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="4">
         <v>54</v>
       </c>
@@ -8733,7 +9129,7 @@
       <c r="E70" s="37"/>
       <c r="F70" s="38"/>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="4">
         <v>55</v>
       </c>
@@ -8743,7 +9139,7 @@
       <c r="E71" s="37"/>
       <c r="F71" s="38"/>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="4">
         <v>56</v>
       </c>
@@ -8753,7 +9149,7 @@
       <c r="E72" s="37"/>
       <c r="F72" s="38"/>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="4">
         <v>57</v>
       </c>
@@ -8763,7 +9159,7 @@
       <c r="E73" s="37"/>
       <c r="F73" s="38"/>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="4">
         <v>58</v>
       </c>
@@ -8773,7 +9169,7 @@
       <c r="E74" s="37"/>
       <c r="F74" s="38"/>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="4">
         <v>59</v>
       </c>
@@ -8783,7 +9179,7 @@
       <c r="E75" s="37"/>
       <c r="F75" s="38"/>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="4">
         <v>60</v>
       </c>
@@ -8793,7 +9189,7 @@
       <c r="E76" s="37"/>
       <c r="F76" s="38"/>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="4">
         <v>61</v>
       </c>
@@ -8803,7 +9199,7 @@
       <c r="E77" s="37"/>
       <c r="F77" s="38"/>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="4">
         <v>62</v>
       </c>
@@ -8813,7 +9209,7 @@
       <c r="E78" s="37"/>
       <c r="F78" s="38"/>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="4">
         <v>63</v>
       </c>
@@ -8823,7 +9219,7 @@
       <c r="E79" s="37"/>
       <c r="F79" s="38"/>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="4">
         <v>64</v>
       </c>
@@ -8833,7 +9229,7 @@
       <c r="E80" s="37"/>
       <c r="F80" s="38"/>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" s="4">
         <v>65</v>
       </c>
@@ -8843,7 +9239,7 @@
       <c r="E81" s="37"/>
       <c r="F81" s="38"/>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="4">
         <v>66</v>
       </c>
@@ -8853,7 +9249,7 @@
       <c r="E82" s="37"/>
       <c r="F82" s="38"/>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="4">
         <v>67</v>
       </c>
@@ -8863,7 +9259,7 @@
       <c r="E83" s="37"/>
       <c r="F83" s="38"/>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="4">
         <v>68</v>
       </c>
@@ -8873,7 +9269,7 @@
       <c r="E84" s="37"/>
       <c r="F84" s="38"/>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="4">
         <v>69</v>
       </c>
@@ -8883,7 +9279,7 @@
       <c r="E85" s="37"/>
       <c r="F85" s="38"/>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="4">
         <v>70</v>
       </c>
@@ -8893,7 +9289,7 @@
       <c r="E86" s="37"/>
       <c r="F86" s="38"/>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="4">
         <v>71</v>
       </c>
@@ -8903,7 +9299,7 @@
       <c r="E87" s="37"/>
       <c r="F87" s="38"/>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="4">
         <v>72</v>
       </c>
@@ -8913,7 +9309,7 @@
       <c r="E88" s="37"/>
       <c r="F88" s="38"/>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" s="4">
         <v>73</v>
       </c>
@@ -8923,7 +9319,7 @@
       <c r="E89" s="37"/>
       <c r="F89" s="38"/>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" s="4">
         <v>74</v>
       </c>
@@ -8933,7 +9329,7 @@
       <c r="E90" s="37"/>
       <c r="F90" s="38"/>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" s="4">
         <v>75</v>
       </c>
@@ -8943,7 +9339,7 @@
       <c r="E91" s="37"/>
       <c r="F91" s="38"/>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" s="4">
         <v>76</v>
       </c>
@@ -8953,7 +9349,7 @@
       <c r="E92" s="37"/>
       <c r="F92" s="38"/>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" s="4">
         <v>77</v>
       </c>
@@ -8963,7 +9359,7 @@
       <c r="E93" s="37"/>
       <c r="F93" s="38"/>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" s="4">
         <v>78</v>
       </c>
@@ -8973,7 +9369,7 @@
       <c r="E94" s="37"/>
       <c r="F94" s="38"/>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" s="4">
         <v>79</v>
       </c>
@@ -8983,7 +9379,7 @@
       <c r="E95" s="37"/>
       <c r="F95" s="38"/>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" s="4">
         <v>80</v>
       </c>
@@ -8993,7 +9389,7 @@
       <c r="E96" s="37"/>
       <c r="F96" s="38"/>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" s="4">
         <v>81</v>
       </c>
@@ -9003,7 +9399,7 @@
       <c r="E97" s="37"/>
       <c r="F97" s="38"/>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" s="4">
         <v>82</v>
       </c>
@@ -9013,7 +9409,7 @@
       <c r="E98" s="37"/>
       <c r="F98" s="38"/>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" s="4">
         <v>83</v>
       </c>
@@ -9023,7 +9419,7 @@
       <c r="E99" s="37"/>
       <c r="F99" s="38"/>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" s="4">
         <v>84</v>
       </c>
@@ -9094,7 +9490,7 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.28515625" customWidth="1"/>
     <col min="3" max="3" width="12.28515625" customWidth="1"/>
@@ -9103,7 +9499,7 @@
     <col min="6" max="6" width="51.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1024" s="28" customFormat="1" ht="17.45">
+    <row r="1" spans="1:1024" s="28" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>7</v>
       </c>
@@ -9120,7 +9516,7 @@
       <c r="AMI1"/>
       <c r="AMJ1"/>
     </row>
-    <row r="2" spans="1:1024" s="28" customFormat="1">
+    <row r="2" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="25" t="s">
         <v>132</v>
       </c>
@@ -9136,7 +9532,7 @@
       <c r="AMI2"/>
       <c r="AMJ2"/>
     </row>
-    <row r="3" spans="1:1024" s="28" customFormat="1">
+    <row r="3" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="25" t="s">
         <v>134</v>
       </c>
@@ -9151,7 +9547,7 @@
       <c r="AMI3"/>
       <c r="AMJ3"/>
     </row>
-    <row r="4" spans="1:1024" s="28" customFormat="1">
+    <row r="4" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="25" t="s">
         <v>135</v>
       </c>
@@ -9165,7 +9561,7 @@
       <c r="AMI4"/>
       <c r="AMJ4"/>
     </row>
-    <row r="5" spans="1:1024" s="28" customFormat="1">
+    <row r="5" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="25"/>
       <c r="B5" s="31"/>
       <c r="C5" s="25"/>
@@ -9175,7 +9571,7 @@
       <c r="AMI5"/>
       <c r="AMJ5"/>
     </row>
-    <row r="6" spans="1:1024" s="28" customFormat="1">
+    <row r="6" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="25"/>
       <c r="B6" s="32" t="s">
         <v>8</v>
@@ -9189,7 +9585,7 @@
       <c r="AMI6"/>
       <c r="AMJ6"/>
     </row>
-    <row r="7" spans="1:1024" s="28" customFormat="1">
+    <row r="7" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="25" t="s">
         <v>138</v>
       </c>
@@ -9204,12 +9600,12 @@
       <c r="AMI7"/>
       <c r="AMJ7"/>
     </row>
-    <row r="8" spans="1:1024" s="28" customFormat="1">
+    <row r="8" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="25" t="s">
         <v>139</v>
       </c>
       <c r="B8" s="25">
-        <f>B7-C8</f>
+        <f t="shared" ref="B8:B14" si="0">B7-C8</f>
         <v>1</v>
       </c>
       <c r="C8" s="25">
@@ -9222,12 +9618,12 @@
       <c r="AMI8"/>
       <c r="AMJ8"/>
     </row>
-    <row r="9" spans="1:1024" s="28" customFormat="1">
+    <row r="9" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="25" t="s">
         <v>140</v>
       </c>
       <c r="B9" s="25">
-        <f>B8-C9</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C9" s="25">
@@ -9240,12 +9636,12 @@
       <c r="AMI9"/>
       <c r="AMJ9"/>
     </row>
-    <row r="10" spans="1:1024" s="28" customFormat="1">
+    <row r="10" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="25" t="s">
         <v>141</v>
       </c>
       <c r="B10" s="25">
-        <f>B9-C10</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C10" s="25">
@@ -9258,12 +9654,12 @@
       <c r="AMI10"/>
       <c r="AMJ10"/>
     </row>
-    <row r="11" spans="1:1024" s="28" customFormat="1">
+    <row r="11" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="25" t="s">
         <v>142</v>
       </c>
       <c r="B11" s="25">
-        <f>B10-C11</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C11" s="25">
@@ -9276,12 +9672,12 @@
       <c r="AMI11"/>
       <c r="AMJ11"/>
     </row>
-    <row r="12" spans="1:1024" s="28" customFormat="1">
+    <row r="12" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="25" t="s">
         <v>143</v>
       </c>
       <c r="B12" s="25">
-        <f>B11-C12</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C12" s="25">
@@ -9294,12 +9690,12 @@
       <c r="AMI12"/>
       <c r="AMJ12"/>
     </row>
-    <row r="13" spans="1:1024" s="28" customFormat="1">
+    <row r="13" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="25" t="s">
         <v>144</v>
       </c>
       <c r="B13" s="25">
-        <f>B12-C13</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C13" s="25">
@@ -9312,12 +9708,12 @@
       <c r="AMI13"/>
       <c r="AMJ13"/>
     </row>
-    <row r="14" spans="1:1024" s="28" customFormat="1">
+    <row r="14" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="25" t="s">
         <v>145</v>
       </c>
       <c r="B14" s="25">
-        <f>B13-C14</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C14" s="25">
@@ -9330,7 +9726,7 @@
       <c r="AMI14"/>
       <c r="AMJ14"/>
     </row>
-    <row r="15" spans="1:1024" s="28" customFormat="1">
+    <row r="15" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="25"/>
       <c r="B15" s="25"/>
       <c r="C15" s="25"/>
@@ -9340,7 +9736,7 @@
       <c r="AMI15"/>
       <c r="AMJ15"/>
     </row>
-    <row r="16" spans="1:1024">
+    <row r="16" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A16" s="33" t="s">
         <v>146</v>
       </c>
@@ -9360,7 +9756,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>1</v>
       </c>
@@ -9372,7 +9768,7 @@
       <c r="E17" s="37"/>
       <c r="F17" s="38"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>2</v>
       </c>
@@ -9382,7 +9778,7 @@
       <c r="E18" s="37"/>
       <c r="F18" s="38"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>3</v>
       </c>
@@ -9392,7 +9788,7 @@
       <c r="E19" s="37"/>
       <c r="F19" s="38"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>4</v>
       </c>
@@ -9402,7 +9798,7 @@
       <c r="E20" s="37"/>
       <c r="F20" s="38"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>5</v>
       </c>
@@ -9412,7 +9808,7 @@
       <c r="E21" s="37"/>
       <c r="F21" s="38"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>6</v>
       </c>
@@ -9422,7 +9818,7 @@
       <c r="E22" s="37"/>
       <c r="F22" s="38"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>7</v>
       </c>
@@ -9432,7 +9828,7 @@
       <c r="E23" s="37"/>
       <c r="F23" s="38"/>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>8</v>
       </c>
@@ -9442,7 +9838,7 @@
       <c r="E24" s="37"/>
       <c r="F24" s="38"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>9</v>
       </c>
@@ -9452,7 +9848,7 @@
       <c r="E25" s="37"/>
       <c r="F25" s="38"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>10</v>
       </c>
@@ -9462,7 +9858,7 @@
       <c r="E26" s="37"/>
       <c r="F26" s="38"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>11</v>
       </c>
@@ -9472,7 +9868,7 @@
       <c r="E27" s="37"/>
       <c r="F27" s="38"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>12</v>
       </c>
@@ -9482,7 +9878,7 @@
       <c r="E28" s="37"/>
       <c r="F28" s="38"/>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>13</v>
       </c>
@@ -9492,7 +9888,7 @@
       <c r="E29" s="37"/>
       <c r="F29" s="38"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>14</v>
       </c>
@@ -9502,7 +9898,7 @@
       <c r="E30" s="37"/>
       <c r="F30" s="38"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>15</v>
       </c>
@@ -9512,7 +9908,7 @@
       <c r="E31" s="37"/>
       <c r="F31" s="38"/>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>16</v>
       </c>
@@ -9522,7 +9918,7 @@
       <c r="E32" s="37"/>
       <c r="F32" s="38"/>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>17</v>
       </c>
@@ -9532,7 +9928,7 @@
       <c r="E33" s="37"/>
       <c r="F33" s="38"/>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>18</v>
       </c>
@@ -9542,7 +9938,7 @@
       <c r="E34" s="37"/>
       <c r="F34" s="38"/>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>19</v>
       </c>
@@ -9552,7 +9948,7 @@
       <c r="E35" s="37"/>
       <c r="F35" s="38"/>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>20</v>
       </c>
@@ -9562,7 +9958,7 @@
       <c r="E36" s="37"/>
       <c r="F36" s="38"/>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>21</v>
       </c>
@@ -9572,7 +9968,7 @@
       <c r="E37" s="37"/>
       <c r="F37" s="38"/>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>22</v>
       </c>
@@ -9582,7 +9978,7 @@
       <c r="E38" s="37"/>
       <c r="F38" s="38"/>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
         <v>23</v>
       </c>
@@ -9592,7 +9988,7 @@
       <c r="E39" s="37"/>
       <c r="F39" s="38"/>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <v>24</v>
       </c>
@@ -9602,7 +9998,7 @@
       <c r="E40" s="37"/>
       <c r="F40" s="38"/>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
         <v>25</v>
       </c>
@@ -9612,7 +10008,7 @@
       <c r="E41" s="37"/>
       <c r="F41" s="38"/>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
         <v>26</v>
       </c>
@@ -9622,7 +10018,7 @@
       <c r="E42" s="37"/>
       <c r="F42" s="38"/>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
         <v>27</v>
       </c>
@@ -9632,7 +10028,7 @@
       <c r="E43" s="37"/>
       <c r="F43" s="38"/>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
         <v>28</v>
       </c>
@@ -9642,7 +10038,7 @@
       <c r="E44" s="37"/>
       <c r="F44" s="38"/>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
         <v>29</v>
       </c>
@@ -9652,7 +10048,7 @@
       <c r="E45" s="37"/>
       <c r="F45" s="38"/>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
         <v>30</v>
       </c>
@@ -9662,7 +10058,7 @@
       <c r="E46" s="37"/>
       <c r="F46" s="38"/>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
         <v>31</v>
       </c>
@@ -9672,7 +10068,7 @@
       <c r="E47" s="37"/>
       <c r="F47" s="38"/>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
         <v>32</v>
       </c>
@@ -9682,7 +10078,7 @@
       <c r="E48" s="37"/>
       <c r="F48" s="38"/>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
         <v>33</v>
       </c>
@@ -9692,7 +10088,7 @@
       <c r="E49" s="37"/>
       <c r="F49" s="38"/>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="4">
         <v>34</v>
       </c>
@@ -9702,7 +10098,7 @@
       <c r="E50" s="37"/>
       <c r="F50" s="38"/>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="4">
         <v>35</v>
       </c>
@@ -9712,7 +10108,7 @@
       <c r="E51" s="37"/>
       <c r="F51" s="38"/>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="4">
         <v>36</v>
       </c>
@@ -9722,7 +10118,7 @@
       <c r="E52" s="37"/>
       <c r="F52" s="38"/>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="4">
         <v>37</v>
       </c>
@@ -9732,7 +10128,7 @@
       <c r="E53" s="37"/>
       <c r="F53" s="38"/>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="4">
         <v>38</v>
       </c>
@@ -9742,7 +10138,7 @@
       <c r="E54" s="37"/>
       <c r="F54" s="38"/>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="4">
         <v>39</v>
       </c>
@@ -9752,7 +10148,7 @@
       <c r="E55" s="37"/>
       <c r="F55" s="38"/>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="4">
         <v>40</v>
       </c>
@@ -9762,7 +10158,7 @@
       <c r="E56" s="37"/>
       <c r="F56" s="38"/>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="4">
         <v>41</v>
       </c>
@@ -9772,7 +10168,7 @@
       <c r="E57" s="37"/>
       <c r="F57" s="38"/>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="4">
         <v>42</v>
       </c>
@@ -9782,7 +10178,7 @@
       <c r="E58" s="37"/>
       <c r="F58" s="38"/>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="4">
         <v>43</v>
       </c>
@@ -9792,7 +10188,7 @@
       <c r="E59" s="37"/>
       <c r="F59" s="38"/>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="4">
         <v>44</v>
       </c>
@@ -9802,7 +10198,7 @@
       <c r="E60" s="37"/>
       <c r="F60" s="38"/>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="4">
         <v>45</v>
       </c>
@@ -9812,7 +10208,7 @@
       <c r="E61" s="37"/>
       <c r="F61" s="38"/>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="4">
         <v>46</v>
       </c>
@@ -9822,7 +10218,7 @@
       <c r="E62" s="37"/>
       <c r="F62" s="38"/>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="4">
         <v>47</v>
       </c>
@@ -9832,7 +10228,7 @@
       <c r="E63" s="37"/>
       <c r="F63" s="38"/>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="4">
         <v>48</v>
       </c>
@@ -9842,7 +10238,7 @@
       <c r="E64" s="37"/>
       <c r="F64" s="38"/>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="4">
         <v>49</v>
       </c>
@@ -9852,7 +10248,7 @@
       <c r="E65" s="37"/>
       <c r="F65" s="38"/>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="4">
         <v>50</v>
       </c>
@@ -9862,7 +10258,7 @@
       <c r="E66" s="37"/>
       <c r="F66" s="38"/>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="4">
         <v>51</v>
       </c>
@@ -9872,7 +10268,7 @@
       <c r="E67" s="37"/>
       <c r="F67" s="38"/>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="4">
         <v>52</v>
       </c>
@@ -9882,7 +10278,7 @@
       <c r="E68" s="37"/>
       <c r="F68" s="38"/>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="4">
         <v>53</v>
       </c>
@@ -9892,7 +10288,7 @@
       <c r="E69" s="37"/>
       <c r="F69" s="38"/>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="4">
         <v>54</v>
       </c>
@@ -9902,7 +10298,7 @@
       <c r="E70" s="37"/>
       <c r="F70" s="38"/>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="4">
         <v>55</v>
       </c>
@@ -9912,7 +10308,7 @@
       <c r="E71" s="37"/>
       <c r="F71" s="38"/>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="4">
         <v>56</v>
       </c>
@@ -9922,7 +10318,7 @@
       <c r="E72" s="37"/>
       <c r="F72" s="38"/>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="4">
         <v>57</v>
       </c>
@@ -9932,7 +10328,7 @@
       <c r="E73" s="37"/>
       <c r="F73" s="38"/>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="4">
         <v>58</v>
       </c>
@@ -9942,7 +10338,7 @@
       <c r="E74" s="37"/>
       <c r="F74" s="38"/>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="4">
         <v>59</v>
       </c>
@@ -9952,7 +10348,7 @@
       <c r="E75" s="37"/>
       <c r="F75" s="38"/>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="4">
         <v>60</v>
       </c>
@@ -9962,7 +10358,7 @@
       <c r="E76" s="37"/>
       <c r="F76" s="38"/>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="4">
         <v>61</v>
       </c>
@@ -9972,7 +10368,7 @@
       <c r="E77" s="37"/>
       <c r="F77" s="38"/>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="4">
         <v>62</v>
       </c>
@@ -9982,7 +10378,7 @@
       <c r="E78" s="37"/>
       <c r="F78" s="38"/>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="4">
         <v>63</v>
       </c>
@@ -9992,7 +10388,7 @@
       <c r="E79" s="37"/>
       <c r="F79" s="38"/>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="4">
         <v>64</v>
       </c>
@@ -10002,7 +10398,7 @@
       <c r="E80" s="37"/>
       <c r="F80" s="38"/>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" s="4">
         <v>65</v>
       </c>
@@ -10012,7 +10408,7 @@
       <c r="E81" s="37"/>
       <c r="F81" s="38"/>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="4">
         <v>66</v>
       </c>
@@ -10022,7 +10418,7 @@
       <c r="E82" s="37"/>
       <c r="F82" s="38"/>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="4">
         <v>67</v>
       </c>
@@ -10032,7 +10428,7 @@
       <c r="E83" s="37"/>
       <c r="F83" s="38"/>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="4">
         <v>68</v>
       </c>
@@ -10042,7 +10438,7 @@
       <c r="E84" s="37"/>
       <c r="F84" s="38"/>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="4">
         <v>69</v>
       </c>
@@ -10052,7 +10448,7 @@
       <c r="E85" s="37"/>
       <c r="F85" s="38"/>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="4">
         <v>70</v>
       </c>
@@ -10062,7 +10458,7 @@
       <c r="E86" s="37"/>
       <c r="F86" s="38"/>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="4">
         <v>71</v>
       </c>
@@ -10072,7 +10468,7 @@
       <c r="E87" s="37"/>
       <c r="F87" s="38"/>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="4">
         <v>72</v>
       </c>
@@ -10082,7 +10478,7 @@
       <c r="E88" s="37"/>
       <c r="F88" s="38"/>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" s="4">
         <v>73</v>
       </c>
@@ -10092,7 +10488,7 @@
       <c r="E89" s="37"/>
       <c r="F89" s="38"/>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" s="4">
         <v>74</v>
       </c>
@@ -10102,7 +10498,7 @@
       <c r="E90" s="37"/>
       <c r="F90" s="38"/>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" s="4">
         <v>75</v>
       </c>
@@ -10112,7 +10508,7 @@
       <c r="E91" s="37"/>
       <c r="F91" s="38"/>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" s="4">
         <v>76</v>
       </c>
@@ -10122,7 +10518,7 @@
       <c r="E92" s="37"/>
       <c r="F92" s="38"/>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" s="4">
         <v>77</v>
       </c>
@@ -10132,7 +10528,7 @@
       <c r="E93" s="37"/>
       <c r="F93" s="38"/>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" s="4">
         <v>78</v>
       </c>
@@ -10142,7 +10538,7 @@
       <c r="E94" s="37"/>
       <c r="F94" s="38"/>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" s="4">
         <v>79</v>
       </c>
@@ -10152,7 +10548,7 @@
       <c r="E95" s="37"/>
       <c r="F95" s="38"/>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" s="4">
         <v>80</v>
       </c>
@@ -10162,7 +10558,7 @@
       <c r="E96" s="37"/>
       <c r="F96" s="38"/>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" s="4">
         <v>81</v>
       </c>
@@ -10172,7 +10568,7 @@
       <c r="E97" s="37"/>
       <c r="F97" s="38"/>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" s="4">
         <v>82</v>
       </c>
@@ -10182,7 +10578,7 @@
       <c r="E98" s="37"/>
       <c r="F98" s="38"/>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" s="4">
         <v>83</v>
       </c>
@@ -10192,7 +10588,7 @@
       <c r="E99" s="37"/>
       <c r="F99" s="38"/>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" s="4">
         <v>84</v>
       </c>
@@ -10263,7 +10659,7 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.28515625" customWidth="1"/>
     <col min="3" max="3" width="12.28515625" customWidth="1"/>
@@ -10272,7 +10668,7 @@
     <col min="6" max="6" width="51.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1024" s="28" customFormat="1" ht="17.45">
+    <row r="1" spans="1:1024" s="28" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>7</v>
       </c>
@@ -10289,7 +10685,7 @@
       <c r="AMI1"/>
       <c r="AMJ1"/>
     </row>
-    <row r="2" spans="1:1024" s="28" customFormat="1">
+    <row r="2" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="25" t="s">
         <v>132</v>
       </c>
@@ -10306,7 +10702,7 @@
       <c r="AMI2"/>
       <c r="AMJ2"/>
     </row>
-    <row r="3" spans="1:1024" s="28" customFormat="1">
+    <row r="3" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="25" t="s">
         <v>134</v>
       </c>
@@ -10321,7 +10717,7 @@
       <c r="AMI3"/>
       <c r="AMJ3"/>
     </row>
-    <row r="4" spans="1:1024" s="28" customFormat="1">
+    <row r="4" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="25" t="s">
         <v>135</v>
       </c>
@@ -10335,7 +10731,7 @@
       <c r="AMI4"/>
       <c r="AMJ4"/>
     </row>
-    <row r="5" spans="1:1024" s="28" customFormat="1">
+    <row r="5" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="25"/>
       <c r="B5" s="31"/>
       <c r="C5" s="25"/>
@@ -10345,7 +10741,7 @@
       <c r="AMI5"/>
       <c r="AMJ5"/>
     </row>
-    <row r="6" spans="1:1024" s="28" customFormat="1">
+    <row r="6" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="25"/>
       <c r="B6" s="32" t="s">
         <v>8</v>
@@ -10359,7 +10755,7 @@
       <c r="AMI6"/>
       <c r="AMJ6"/>
     </row>
-    <row r="7" spans="1:1024" s="28" customFormat="1">
+    <row r="7" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="25" t="s">
         <v>138</v>
       </c>
@@ -10374,12 +10770,12 @@
       <c r="AMI7"/>
       <c r="AMJ7"/>
     </row>
-    <row r="8" spans="1:1024" s="28" customFormat="1">
+    <row r="8" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="25" t="s">
         <v>139</v>
       </c>
       <c r="B8" s="25">
-        <f>B7-C8</f>
+        <f t="shared" ref="B8:B14" si="0">B7-C8</f>
         <v>1</v>
       </c>
       <c r="C8" s="25">
@@ -10392,12 +10788,12 @@
       <c r="AMI8"/>
       <c r="AMJ8"/>
     </row>
-    <row r="9" spans="1:1024" s="28" customFormat="1">
+    <row r="9" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="25" t="s">
         <v>140</v>
       </c>
       <c r="B9" s="25">
-        <f>B8-C9</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C9" s="25">
@@ -10410,12 +10806,12 @@
       <c r="AMI9"/>
       <c r="AMJ9"/>
     </row>
-    <row r="10" spans="1:1024" s="28" customFormat="1">
+    <row r="10" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="25" t="s">
         <v>141</v>
       </c>
       <c r="B10" s="25">
-        <f>B9-C10</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C10" s="25">
@@ -10428,12 +10824,12 @@
       <c r="AMI10"/>
       <c r="AMJ10"/>
     </row>
-    <row r="11" spans="1:1024" s="28" customFormat="1">
+    <row r="11" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="25" t="s">
         <v>142</v>
       </c>
       <c r="B11" s="25">
-        <f>B10-C11</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C11" s="25">
@@ -10446,12 +10842,12 @@
       <c r="AMI11"/>
       <c r="AMJ11"/>
     </row>
-    <row r="12" spans="1:1024" s="28" customFormat="1">
+    <row r="12" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="25" t="s">
         <v>143</v>
       </c>
       <c r="B12" s="25">
-        <f>B11-C12</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C12" s="25">
@@ -10464,12 +10860,12 @@
       <c r="AMI12"/>
       <c r="AMJ12"/>
     </row>
-    <row r="13" spans="1:1024" s="28" customFormat="1">
+    <row r="13" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="25" t="s">
         <v>144</v>
       </c>
       <c r="B13" s="25">
-        <f>B12-C13</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C13" s="25">
@@ -10482,12 +10878,12 @@
       <c r="AMI13"/>
       <c r="AMJ13"/>
     </row>
-    <row r="14" spans="1:1024" s="28" customFormat="1">
+    <row r="14" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="25" t="s">
         <v>145</v>
       </c>
       <c r="B14" s="25">
-        <f>B13-C14</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C14" s="25">
@@ -10500,7 +10896,7 @@
       <c r="AMI14"/>
       <c r="AMJ14"/>
     </row>
-    <row r="15" spans="1:1024" s="28" customFormat="1">
+    <row r="15" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="25"/>
       <c r="B15" s="25"/>
       <c r="C15" s="25"/>
@@ -10510,7 +10906,7 @@
       <c r="AMI15"/>
       <c r="AMJ15"/>
     </row>
-    <row r="16" spans="1:1024">
+    <row r="16" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A16" s="33" t="s">
         <v>146</v>
       </c>
@@ -10530,7 +10926,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>1</v>
       </c>
@@ -10542,7 +10938,7 @@
       <c r="E17" s="37"/>
       <c r="F17" s="38"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>2</v>
       </c>
@@ -10552,7 +10948,7 @@
       <c r="E18" s="37"/>
       <c r="F18" s="38"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>3</v>
       </c>
@@ -10562,7 +10958,7 @@
       <c r="E19" s="37"/>
       <c r="F19" s="38"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>4</v>
       </c>
@@ -10572,7 +10968,7 @@
       <c r="E20" s="37"/>
       <c r="F20" s="38"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>5</v>
       </c>
@@ -10582,7 +10978,7 @@
       <c r="E21" s="37"/>
       <c r="F21" s="38"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>6</v>
       </c>
@@ -10592,7 +10988,7 @@
       <c r="E22" s="37"/>
       <c r="F22" s="38"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>7</v>
       </c>
@@ -10602,7 +10998,7 @@
       <c r="E23" s="37"/>
       <c r="F23" s="38"/>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>8</v>
       </c>
@@ -10612,7 +11008,7 @@
       <c r="E24" s="37"/>
       <c r="F24" s="38"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>9</v>
       </c>
@@ -10622,7 +11018,7 @@
       <c r="E25" s="37"/>
       <c r="F25" s="38"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>10</v>
       </c>
@@ -10632,7 +11028,7 @@
       <c r="E26" s="37"/>
       <c r="F26" s="38"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>11</v>
       </c>
@@ -10642,7 +11038,7 @@
       <c r="E27" s="37"/>
       <c r="F27" s="38"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>12</v>
       </c>
@@ -10652,7 +11048,7 @@
       <c r="E28" s="37"/>
       <c r="F28" s="38"/>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>13</v>
       </c>
@@ -10662,7 +11058,7 @@
       <c r="E29" s="37"/>
       <c r="F29" s="38"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>14</v>
       </c>
@@ -10672,7 +11068,7 @@
       <c r="E30" s="37"/>
       <c r="F30" s="38"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>15</v>
       </c>
@@ -10682,7 +11078,7 @@
       <c r="E31" s="37"/>
       <c r="F31" s="38"/>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>16</v>
       </c>
@@ -10692,7 +11088,7 @@
       <c r="E32" s="37"/>
       <c r="F32" s="38"/>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>17</v>
       </c>
@@ -10702,7 +11098,7 @@
       <c r="E33" s="37"/>
       <c r="F33" s="38"/>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>18</v>
       </c>
@@ -10712,7 +11108,7 @@
       <c r="E34" s="37"/>
       <c r="F34" s="38"/>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>19</v>
       </c>
@@ -10722,7 +11118,7 @@
       <c r="E35" s="37"/>
       <c r="F35" s="38"/>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>20</v>
       </c>
@@ -10732,7 +11128,7 @@
       <c r="E36" s="37"/>
       <c r="F36" s="38"/>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>21</v>
       </c>
@@ -10742,7 +11138,7 @@
       <c r="E37" s="37"/>
       <c r="F37" s="38"/>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>22</v>
       </c>
@@ -10752,7 +11148,7 @@
       <c r="E38" s="37"/>
       <c r="F38" s="38"/>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
         <v>23</v>
       </c>
@@ -10762,7 +11158,7 @@
       <c r="E39" s="37"/>
       <c r="F39" s="38"/>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <v>24</v>
       </c>
@@ -10772,7 +11168,7 @@
       <c r="E40" s="37"/>
       <c r="F40" s="38"/>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
         <v>25</v>
       </c>
@@ -10782,7 +11178,7 @@
       <c r="E41" s="37"/>
       <c r="F41" s="38"/>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
         <v>26</v>
       </c>
@@ -10792,7 +11188,7 @@
       <c r="E42" s="37"/>
       <c r="F42" s="38"/>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
         <v>27</v>
       </c>
@@ -10802,7 +11198,7 @@
       <c r="E43" s="37"/>
       <c r="F43" s="38"/>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
         <v>28</v>
       </c>
@@ -10812,7 +11208,7 @@
       <c r="E44" s="37"/>
       <c r="F44" s="38"/>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
         <v>29</v>
       </c>
@@ -10822,7 +11218,7 @@
       <c r="E45" s="37"/>
       <c r="F45" s="38"/>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
         <v>30</v>
       </c>
@@ -10832,7 +11228,7 @@
       <c r="E46" s="37"/>
       <c r="F46" s="38"/>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
         <v>31</v>
       </c>
@@ -10842,7 +11238,7 @@
       <c r="E47" s="37"/>
       <c r="F47" s="38"/>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
         <v>32</v>
       </c>
@@ -10852,7 +11248,7 @@
       <c r="E48" s="37"/>
       <c r="F48" s="38"/>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
         <v>33</v>
       </c>
@@ -10862,7 +11258,7 @@
       <c r="E49" s="37"/>
       <c r="F49" s="38"/>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="4">
         <v>34</v>
       </c>
@@ -10872,7 +11268,7 @@
       <c r="E50" s="37"/>
       <c r="F50" s="38"/>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="4">
         <v>35</v>
       </c>
@@ -10882,7 +11278,7 @@
       <c r="E51" s="37"/>
       <c r="F51" s="38"/>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="4">
         <v>36</v>
       </c>
@@ -10892,7 +11288,7 @@
       <c r="E52" s="37"/>
       <c r="F52" s="38"/>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="4">
         <v>37</v>
       </c>
@@ -10902,7 +11298,7 @@
       <c r="E53" s="37"/>
       <c r="F53" s="38"/>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="4">
         <v>38</v>
       </c>
@@ -10912,7 +11308,7 @@
       <c r="E54" s="37"/>
       <c r="F54" s="38"/>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="4">
         <v>39</v>
       </c>
@@ -10922,7 +11318,7 @@
       <c r="E55" s="37"/>
       <c r="F55" s="38"/>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="4">
         <v>40</v>
       </c>
@@ -10932,7 +11328,7 @@
       <c r="E56" s="37"/>
       <c r="F56" s="38"/>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="4">
         <v>41</v>
       </c>
@@ -10942,7 +11338,7 @@
       <c r="E57" s="37"/>
       <c r="F57" s="38"/>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="4">
         <v>42</v>
       </c>
@@ -10952,7 +11348,7 @@
       <c r="E58" s="37"/>
       <c r="F58" s="38"/>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="4">
         <v>43</v>
       </c>
@@ -10962,7 +11358,7 @@
       <c r="E59" s="37"/>
       <c r="F59" s="38"/>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="4">
         <v>44</v>
       </c>
@@ -10972,7 +11368,7 @@
       <c r="E60" s="37"/>
       <c r="F60" s="38"/>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="4">
         <v>45</v>
       </c>
@@ -10982,7 +11378,7 @@
       <c r="E61" s="37"/>
       <c r="F61" s="38"/>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="4">
         <v>46</v>
       </c>
@@ -10992,7 +11388,7 @@
       <c r="E62" s="37"/>
       <c r="F62" s="38"/>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="4">
         <v>47</v>
       </c>
@@ -11002,7 +11398,7 @@
       <c r="E63" s="37"/>
       <c r="F63" s="38"/>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="4">
         <v>48</v>
       </c>
@@ -11012,7 +11408,7 @@
       <c r="E64" s="37"/>
       <c r="F64" s="38"/>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="4">
         <v>49</v>
       </c>
@@ -11022,7 +11418,7 @@
       <c r="E65" s="37"/>
       <c r="F65" s="38"/>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="4">
         <v>50</v>
       </c>
@@ -11032,7 +11428,7 @@
       <c r="E66" s="37"/>
       <c r="F66" s="38"/>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="4">
         <v>51</v>
       </c>
@@ -11042,7 +11438,7 @@
       <c r="E67" s="37"/>
       <c r="F67" s="38"/>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="4">
         <v>52</v>
       </c>
@@ -11052,7 +11448,7 @@
       <c r="E68" s="37"/>
       <c r="F68" s="38"/>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="4">
         <v>53</v>
       </c>
@@ -11062,7 +11458,7 @@
       <c r="E69" s="37"/>
       <c r="F69" s="38"/>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="4">
         <v>54</v>
       </c>
@@ -11072,7 +11468,7 @@
       <c r="E70" s="37"/>
       <c r="F70" s="38"/>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="4">
         <v>55</v>
       </c>
@@ -11082,7 +11478,7 @@
       <c r="E71" s="37"/>
       <c r="F71" s="38"/>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="4">
         <v>56</v>
       </c>
@@ -11092,7 +11488,7 @@
       <c r="E72" s="37"/>
       <c r="F72" s="38"/>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="4">
         <v>57</v>
       </c>
@@ -11102,7 +11498,7 @@
       <c r="E73" s="37"/>
       <c r="F73" s="38"/>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="4">
         <v>58</v>
       </c>
@@ -11112,7 +11508,7 @@
       <c r="E74" s="37"/>
       <c r="F74" s="38"/>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="4">
         <v>59</v>
       </c>
@@ -11122,7 +11518,7 @@
       <c r="E75" s="37"/>
       <c r="F75" s="38"/>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="4">
         <v>60</v>
       </c>
@@ -11132,7 +11528,7 @@
       <c r="E76" s="37"/>
       <c r="F76" s="38"/>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="4">
         <v>61</v>
       </c>
@@ -11142,7 +11538,7 @@
       <c r="E77" s="37"/>
       <c r="F77" s="38"/>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="4">
         <v>62</v>
       </c>
@@ -11152,7 +11548,7 @@
       <c r="E78" s="37"/>
       <c r="F78" s="38"/>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="4">
         <v>63</v>
       </c>
@@ -11162,7 +11558,7 @@
       <c r="E79" s="37"/>
       <c r="F79" s="38"/>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="4">
         <v>64</v>
       </c>
@@ -11172,7 +11568,7 @@
       <c r="E80" s="37"/>
       <c r="F80" s="38"/>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" s="4">
         <v>65</v>
       </c>
@@ -11182,7 +11578,7 @@
       <c r="E81" s="37"/>
       <c r="F81" s="38"/>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="4">
         <v>66</v>
       </c>
@@ -11192,7 +11588,7 @@
       <c r="E82" s="37"/>
       <c r="F82" s="38"/>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="4">
         <v>67</v>
       </c>
@@ -11202,7 +11598,7 @@
       <c r="E83" s="37"/>
       <c r="F83" s="38"/>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="4">
         <v>68</v>
       </c>
@@ -11212,7 +11608,7 @@
       <c r="E84" s="37"/>
       <c r="F84" s="38"/>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="4">
         <v>69</v>
       </c>
@@ -11222,7 +11618,7 @@
       <c r="E85" s="37"/>
       <c r="F85" s="38"/>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="4">
         <v>70</v>
       </c>
@@ -11232,7 +11628,7 @@
       <c r="E86" s="37"/>
       <c r="F86" s="38"/>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="4">
         <v>71</v>
       </c>
@@ -11242,7 +11638,7 @@
       <c r="E87" s="37"/>
       <c r="F87" s="38"/>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="4">
         <v>72</v>
       </c>
@@ -11252,7 +11648,7 @@
       <c r="E88" s="37"/>
       <c r="F88" s="38"/>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" s="4">
         <v>73</v>
       </c>
@@ -11262,7 +11658,7 @@
       <c r="E89" s="37"/>
       <c r="F89" s="38"/>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" s="4">
         <v>74</v>
       </c>
@@ -11272,7 +11668,7 @@
       <c r="E90" s="37"/>
       <c r="F90" s="38"/>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" s="4">
         <v>75</v>
       </c>
@@ -11282,7 +11678,7 @@
       <c r="E91" s="37"/>
       <c r="F91" s="38"/>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" s="4">
         <v>76</v>
       </c>
@@ -11292,7 +11688,7 @@
       <c r="E92" s="37"/>
       <c r="F92" s="38"/>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" s="4">
         <v>77</v>
       </c>
@@ -11302,7 +11698,7 @@
       <c r="E93" s="37"/>
       <c r="F93" s="38"/>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" s="4">
         <v>78</v>
       </c>
@@ -11312,7 +11708,7 @@
       <c r="E94" s="37"/>
       <c r="F94" s="38"/>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" s="4">
         <v>79</v>
       </c>
@@ -11322,7 +11718,7 @@
       <c r="E95" s="37"/>
       <c r="F95" s="38"/>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" s="4">
         <v>80</v>
       </c>
@@ -11332,7 +11728,7 @@
       <c r="E96" s="37"/>
       <c r="F96" s="38"/>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" s="4">
         <v>81</v>
       </c>
@@ -11342,7 +11738,7 @@
       <c r="E97" s="37"/>
       <c r="F97" s="38"/>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" s="4">
         <v>82</v>
       </c>
@@ -11352,7 +11748,7 @@
       <c r="E98" s="37"/>
       <c r="F98" s="38"/>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" s="4">
         <v>83</v>
       </c>
@@ -11362,7 +11758,7 @@
       <c r="E99" s="37"/>
       <c r="F99" s="38"/>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" s="4">
         <v>84</v>
       </c>
@@ -11433,7 +11829,7 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.28515625" customWidth="1"/>
     <col min="3" max="3" width="12.28515625" customWidth="1"/>
@@ -11442,7 +11838,7 @@
     <col min="6" max="6" width="51.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1024" s="28" customFormat="1" ht="17.45">
+    <row r="1" spans="1:1024" s="28" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>7</v>
       </c>
@@ -11461,7 +11857,7 @@
       <c r="AMI1"/>
       <c r="AMJ1"/>
     </row>
-    <row r="2" spans="1:1024" s="28" customFormat="1">
+    <row r="2" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="25" t="s">
         <v>132</v>
       </c>
@@ -11478,7 +11874,7 @@
       <c r="AMI2"/>
       <c r="AMJ2"/>
     </row>
-    <row r="3" spans="1:1024" s="28" customFormat="1">
+    <row r="3" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="25" t="s">
         <v>134</v>
       </c>
@@ -11493,7 +11889,7 @@
       <c r="AMI3"/>
       <c r="AMJ3"/>
     </row>
-    <row r="4" spans="1:1024" s="28" customFormat="1">
+    <row r="4" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="25" t="s">
         <v>135</v>
       </c>
@@ -11507,7 +11903,7 @@
       <c r="AMI4"/>
       <c r="AMJ4"/>
     </row>
-    <row r="5" spans="1:1024" s="28" customFormat="1">
+    <row r="5" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="25"/>
       <c r="B5" s="31"/>
       <c r="C5" s="25"/>
@@ -11517,7 +11913,7 @@
       <c r="AMI5"/>
       <c r="AMJ5"/>
     </row>
-    <row r="6" spans="1:1024" s="28" customFormat="1">
+    <row r="6" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="25"/>
       <c r="B6" s="32" t="s">
         <v>8</v>
@@ -11531,7 +11927,7 @@
       <c r="AMI6"/>
       <c r="AMJ6"/>
     </row>
-    <row r="7" spans="1:1024" s="28" customFormat="1">
+    <row r="7" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="25" t="s">
         <v>138</v>
       </c>
@@ -11546,12 +11942,12 @@
       <c r="AMI7"/>
       <c r="AMJ7"/>
     </row>
-    <row r="8" spans="1:1024" s="28" customFormat="1">
+    <row r="8" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="25" t="s">
         <v>139</v>
       </c>
       <c r="B8" s="25">
-        <f>B7-C8</f>
+        <f t="shared" ref="B8:B14" si="0">B7-C8</f>
         <v>1</v>
       </c>
       <c r="C8" s="25">
@@ -11564,12 +11960,12 @@
       <c r="AMI8"/>
       <c r="AMJ8"/>
     </row>
-    <row r="9" spans="1:1024" s="28" customFormat="1">
+    <row r="9" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="25" t="s">
         <v>140</v>
       </c>
       <c r="B9" s="25">
-        <f>B8-C9</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C9" s="25">
@@ -11582,12 +11978,12 @@
       <c r="AMI9"/>
       <c r="AMJ9"/>
     </row>
-    <row r="10" spans="1:1024" s="28" customFormat="1">
+    <row r="10" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="25" t="s">
         <v>141</v>
       </c>
       <c r="B10" s="25">
-        <f>B9-C10</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C10" s="25">
@@ -11600,12 +11996,12 @@
       <c r="AMI10"/>
       <c r="AMJ10"/>
     </row>
-    <row r="11" spans="1:1024" s="28" customFormat="1">
+    <row r="11" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="25" t="s">
         <v>142</v>
       </c>
       <c r="B11" s="25">
-        <f>B10-C11</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C11" s="25">
@@ -11618,12 +12014,12 @@
       <c r="AMI11"/>
       <c r="AMJ11"/>
     </row>
-    <row r="12" spans="1:1024" s="28" customFormat="1">
+    <row r="12" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="25" t="s">
         <v>143</v>
       </c>
       <c r="B12" s="25">
-        <f>B11-C12</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C12" s="25">
@@ -11636,12 +12032,12 @@
       <c r="AMI12"/>
       <c r="AMJ12"/>
     </row>
-    <row r="13" spans="1:1024" s="28" customFormat="1">
+    <row r="13" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="25" t="s">
         <v>144</v>
       </c>
       <c r="B13" s="25">
-        <f>B12-C13</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C13" s="25">
@@ -11654,12 +12050,12 @@
       <c r="AMI13"/>
       <c r="AMJ13"/>
     </row>
-    <row r="14" spans="1:1024" s="28" customFormat="1">
+    <row r="14" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="25" t="s">
         <v>145</v>
       </c>
       <c r="B14" s="25">
-        <f>B13-C14</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C14" s="25">
@@ -11672,7 +12068,7 @@
       <c r="AMI14"/>
       <c r="AMJ14"/>
     </row>
-    <row r="15" spans="1:1024" s="28" customFormat="1">
+    <row r="15" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="25"/>
       <c r="B15" s="25"/>
       <c r="C15" s="25"/>
@@ -11684,7 +12080,7 @@
       <c r="AMI15"/>
       <c r="AMJ15"/>
     </row>
-    <row r="16" spans="1:1024">
+    <row r="16" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A16" s="33" t="s">
         <v>146</v>
       </c>
@@ -11704,7 +12100,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>1</v>
       </c>
@@ -11716,7 +12112,7 @@
       <c r="E17" s="37"/>
       <c r="F17" s="38"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>2</v>
       </c>
@@ -11726,7 +12122,7 @@
       <c r="E18" s="37"/>
       <c r="F18" s="38"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>3</v>
       </c>
@@ -11736,7 +12132,7 @@
       <c r="E19" s="37"/>
       <c r="F19" s="38"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>4</v>
       </c>
@@ -11746,7 +12142,7 @@
       <c r="E20" s="37"/>
       <c r="F20" s="38"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>5</v>
       </c>
@@ -11756,7 +12152,7 @@
       <c r="E21" s="37"/>
       <c r="F21" s="38"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>6</v>
       </c>
@@ -11766,7 +12162,7 @@
       <c r="E22" s="37"/>
       <c r="F22" s="38"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>7</v>
       </c>
@@ -11776,7 +12172,7 @@
       <c r="E23" s="37"/>
       <c r="F23" s="38"/>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>8</v>
       </c>
@@ -11786,7 +12182,7 @@
       <c r="E24" s="37"/>
       <c r="F24" s="38"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>9</v>
       </c>
@@ -11796,7 +12192,7 @@
       <c r="E25" s="37"/>
       <c r="F25" s="38"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>10</v>
       </c>
@@ -11806,7 +12202,7 @@
       <c r="E26" s="37"/>
       <c r="F26" s="38"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>11</v>
       </c>
@@ -11816,7 +12212,7 @@
       <c r="E27" s="37"/>
       <c r="F27" s="38"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>12</v>
       </c>
@@ -11826,7 +12222,7 @@
       <c r="E28" s="37"/>
       <c r="F28" s="38"/>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>13</v>
       </c>
@@ -11836,7 +12232,7 @@
       <c r="E29" s="37"/>
       <c r="F29" s="38"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>14</v>
       </c>
@@ -11846,7 +12242,7 @@
       <c r="E30" s="37"/>
       <c r="F30" s="38"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>15</v>
       </c>
@@ -11856,7 +12252,7 @@
       <c r="E31" s="37"/>
       <c r="F31" s="38"/>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>16</v>
       </c>
@@ -11866,7 +12262,7 @@
       <c r="E32" s="37"/>
       <c r="F32" s="38"/>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>17</v>
       </c>
@@ -11876,7 +12272,7 @@
       <c r="E33" s="37"/>
       <c r="F33" s="38"/>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>18</v>
       </c>
@@ -11886,7 +12282,7 @@
       <c r="E34" s="37"/>
       <c r="F34" s="38"/>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>19</v>
       </c>
@@ -11896,7 +12292,7 @@
       <c r="E35" s="37"/>
       <c r="F35" s="38"/>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>20</v>
       </c>
@@ -11906,7 +12302,7 @@
       <c r="E36" s="37"/>
       <c r="F36" s="38"/>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>21</v>
       </c>
@@ -11916,7 +12312,7 @@
       <c r="E37" s="37"/>
       <c r="F37" s="38"/>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>22</v>
       </c>
@@ -11926,7 +12322,7 @@
       <c r="E38" s="37"/>
       <c r="F38" s="38"/>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
         <v>23</v>
       </c>
@@ -11936,7 +12332,7 @@
       <c r="E39" s="37"/>
       <c r="F39" s="38"/>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <v>24</v>
       </c>
@@ -11946,7 +12342,7 @@
       <c r="E40" s="37"/>
       <c r="F40" s="38"/>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
         <v>25</v>
       </c>
@@ -11956,7 +12352,7 @@
       <c r="E41" s="37"/>
       <c r="F41" s="38"/>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
         <v>26</v>
       </c>
@@ -11966,7 +12362,7 @@
       <c r="E42" s="37"/>
       <c r="F42" s="38"/>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
         <v>27</v>
       </c>
@@ -11976,7 +12372,7 @@
       <c r="E43" s="37"/>
       <c r="F43" s="38"/>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
         <v>28</v>
       </c>
@@ -11986,7 +12382,7 @@
       <c r="E44" s="37"/>
       <c r="F44" s="38"/>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
         <v>29</v>
       </c>
@@ -11996,7 +12392,7 @@
       <c r="E45" s="37"/>
       <c r="F45" s="38"/>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
         <v>30</v>
       </c>
@@ -12006,7 +12402,7 @@
       <c r="E46" s="37"/>
       <c r="F46" s="38"/>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
         <v>31</v>
       </c>
@@ -12016,7 +12412,7 @@
       <c r="E47" s="37"/>
       <c r="F47" s="38"/>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
         <v>32</v>
       </c>
@@ -12026,7 +12422,7 @@
       <c r="E48" s="37"/>
       <c r="F48" s="38"/>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
         <v>33</v>
       </c>
@@ -12036,7 +12432,7 @@
       <c r="E49" s="37"/>
       <c r="F49" s="38"/>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="4">
         <v>34</v>
       </c>
@@ -12046,7 +12442,7 @@
       <c r="E50" s="37"/>
       <c r="F50" s="38"/>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="4">
         <v>35</v>
       </c>
@@ -12056,7 +12452,7 @@
       <c r="E51" s="37"/>
       <c r="F51" s="38"/>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="4">
         <v>36</v>
       </c>
@@ -12066,7 +12462,7 @@
       <c r="E52" s="37"/>
       <c r="F52" s="38"/>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="4">
         <v>37</v>
       </c>
@@ -12076,7 +12472,7 @@
       <c r="E53" s="37"/>
       <c r="F53" s="38"/>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="4">
         <v>38</v>
       </c>
@@ -12086,7 +12482,7 @@
       <c r="E54" s="37"/>
       <c r="F54" s="38"/>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="4">
         <v>39</v>
       </c>
@@ -12096,7 +12492,7 @@
       <c r="E55" s="37"/>
       <c r="F55" s="38"/>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="4">
         <v>40</v>
       </c>
@@ -12106,7 +12502,7 @@
       <c r="E56" s="37"/>
       <c r="F56" s="38"/>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="4">
         <v>41</v>
       </c>
@@ -12116,7 +12512,7 @@
       <c r="E57" s="37"/>
       <c r="F57" s="38"/>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="4">
         <v>42</v>
       </c>
@@ -12126,7 +12522,7 @@
       <c r="E58" s="37"/>
       <c r="F58" s="38"/>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="4">
         <v>43</v>
       </c>
@@ -12136,7 +12532,7 @@
       <c r="E59" s="37"/>
       <c r="F59" s="38"/>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="4">
         <v>44</v>
       </c>
@@ -12146,7 +12542,7 @@
       <c r="E60" s="37"/>
       <c r="F60" s="38"/>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="4">
         <v>45</v>
       </c>
@@ -12156,7 +12552,7 @@
       <c r="E61" s="37"/>
       <c r="F61" s="38"/>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="4">
         <v>46</v>
       </c>
@@ -12166,7 +12562,7 @@
       <c r="E62" s="37"/>
       <c r="F62" s="38"/>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="4">
         <v>47</v>
       </c>
@@ -12176,7 +12572,7 @@
       <c r="E63" s="37"/>
       <c r="F63" s="38"/>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="4">
         <v>48</v>
       </c>
@@ -12186,7 +12582,7 @@
       <c r="E64" s="37"/>
       <c r="F64" s="38"/>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="4">
         <v>49</v>
       </c>
@@ -12196,7 +12592,7 @@
       <c r="E65" s="37"/>
       <c r="F65" s="38"/>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="4">
         <v>50</v>
       </c>
@@ -12206,7 +12602,7 @@
       <c r="E66" s="37"/>
       <c r="F66" s="38"/>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="4">
         <v>51</v>
       </c>
@@ -12216,7 +12612,7 @@
       <c r="E67" s="37"/>
       <c r="F67" s="38"/>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="4">
         <v>52</v>
       </c>
@@ -12226,7 +12622,7 @@
       <c r="E68" s="37"/>
       <c r="F68" s="38"/>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="4">
         <v>53</v>
       </c>
@@ -12236,7 +12632,7 @@
       <c r="E69" s="37"/>
       <c r="F69" s="38"/>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="4">
         <v>54</v>
       </c>
@@ -12246,7 +12642,7 @@
       <c r="E70" s="37"/>
       <c r="F70" s="38"/>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="4">
         <v>55</v>
       </c>
@@ -12256,7 +12652,7 @@
       <c r="E71" s="37"/>
       <c r="F71" s="38"/>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="4">
         <v>56</v>
       </c>
@@ -12266,7 +12662,7 @@
       <c r="E72" s="37"/>
       <c r="F72" s="38"/>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="4">
         <v>57</v>
       </c>
@@ -12276,7 +12672,7 @@
       <c r="E73" s="37"/>
       <c r="F73" s="38"/>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="4">
         <v>58</v>
       </c>
@@ -12286,7 +12682,7 @@
       <c r="E74" s="37"/>
       <c r="F74" s="38"/>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="4">
         <v>59</v>
       </c>
@@ -12296,7 +12692,7 @@
       <c r="E75" s="37"/>
       <c r="F75" s="38"/>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="4">
         <v>60</v>
       </c>
@@ -12306,7 +12702,7 @@
       <c r="E76" s="37"/>
       <c r="F76" s="38"/>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="4">
         <v>61</v>
       </c>
@@ -12316,7 +12712,7 @@
       <c r="E77" s="37"/>
       <c r="F77" s="38"/>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="4">
         <v>62</v>
       </c>
@@ -12326,7 +12722,7 @@
       <c r="E78" s="37"/>
       <c r="F78" s="38"/>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="4">
         <v>63</v>
       </c>
@@ -12336,7 +12732,7 @@
       <c r="E79" s="37"/>
       <c r="F79" s="38"/>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="4">
         <v>64</v>
       </c>
@@ -12346,7 +12742,7 @@
       <c r="E80" s="37"/>
       <c r="F80" s="38"/>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" s="4">
         <v>65</v>
       </c>
@@ -12356,7 +12752,7 @@
       <c r="E81" s="37"/>
       <c r="F81" s="38"/>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="4">
         <v>66</v>
       </c>
@@ -12366,7 +12762,7 @@
       <c r="E82" s="37"/>
       <c r="F82" s="38"/>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="4">
         <v>67</v>
       </c>
@@ -12376,7 +12772,7 @@
       <c r="E83" s="37"/>
       <c r="F83" s="38"/>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="4">
         <v>68</v>
       </c>
@@ -12386,7 +12782,7 @@
       <c r="E84" s="37"/>
       <c r="F84" s="38"/>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="4">
         <v>69</v>
       </c>
@@ -12396,7 +12792,7 @@
       <c r="E85" s="37"/>
       <c r="F85" s="38"/>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="4">
         <v>70</v>
       </c>
@@ -12406,7 +12802,7 @@
       <c r="E86" s="37"/>
       <c r="F86" s="38"/>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="4">
         <v>71</v>
       </c>
@@ -12416,7 +12812,7 @@
       <c r="E87" s="37"/>
       <c r="F87" s="38"/>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="4">
         <v>72</v>
       </c>
@@ -12426,7 +12822,7 @@
       <c r="E88" s="37"/>
       <c r="F88" s="38"/>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" s="4">
         <v>73</v>
       </c>
@@ -12436,7 +12832,7 @@
       <c r="E89" s="37"/>
       <c r="F89" s="38"/>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" s="4">
         <v>74</v>
       </c>
@@ -12446,7 +12842,7 @@
       <c r="E90" s="37"/>
       <c r="F90" s="38"/>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" s="4">
         <v>75</v>
       </c>
@@ -12456,7 +12852,7 @@
       <c r="E91" s="37"/>
       <c r="F91" s="38"/>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" s="4">
         <v>76</v>
       </c>
@@ -12466,7 +12862,7 @@
       <c r="E92" s="37"/>
       <c r="F92" s="38"/>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" s="4">
         <v>77</v>
       </c>
@@ -12476,7 +12872,7 @@
       <c r="E93" s="37"/>
       <c r="F93" s="38"/>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" s="4">
         <v>78</v>
       </c>
@@ -12486,7 +12882,7 @@
       <c r="E94" s="37"/>
       <c r="F94" s="38"/>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" s="4">
         <v>79</v>
       </c>
@@ -12496,7 +12892,7 @@
       <c r="E95" s="37"/>
       <c r="F95" s="38"/>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" s="4">
         <v>80</v>
       </c>
@@ -12506,7 +12902,7 @@
       <c r="E96" s="37"/>
       <c r="F96" s="38"/>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" s="4">
         <v>81</v>
       </c>
@@ -12516,7 +12912,7 @@
       <c r="E97" s="37"/>
       <c r="F97" s="38"/>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" s="4">
         <v>82</v>
       </c>
@@ -12526,7 +12922,7 @@
       <c r="E98" s="37"/>
       <c r="F98" s="38"/>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" s="4">
         <v>83</v>
       </c>
@@ -12536,7 +12932,7 @@
       <c r="E99" s="37"/>
       <c r="F99" s="38"/>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" s="4">
         <v>84</v>
       </c>

--- a/P06/Scrum_Sprint_2.xlsx
+++ b/P06/Scrum_Sprint_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcnar\Desktop\cse1325\P06\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC1C14B7-F0BC-4EC7-A4D4-C24B21118086}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11A0B943-E3D7-417A-9969-0DDDF396E694}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5655" yWindow="2985" windowWidth="21600" windowHeight="11385" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="194">
   <si>
     <t>Product Name:</t>
   </si>
@@ -609,6 +609,21 @@
   </si>
   <si>
     <t>Finished in Sprint 2</t>
+  </si>
+  <si>
+    <t>Begin constructing the onInsertCustomerClick()</t>
+  </si>
+  <si>
+    <t>Test onInsertCustomerClick() using gui only</t>
+  </si>
+  <si>
+    <t>Begin constructing the onInsertOptionClick()</t>
+  </si>
+  <si>
+    <t>test onInsertOptionClick() using gui only</t>
+  </si>
+  <si>
+    <t>Git add, commit, push</t>
   </si>
 </sst>
 </file>
@@ -898,6 +913,12 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -912,12 +933,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1144,16 +1159,16 @@
                   <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>17</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>17</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>17</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1438,10 +1453,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -3815,7 +3830,7 @@
   <dimension ref="A1:AMJ100"/>
   <sheetViews>
     <sheetView topLeftCell="A28" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3838,14 +3853,14 @@
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="47" t="s">
         <v>154</v>
       </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
       <c r="H1" s="5"/>
       <c r="I1" s="6" t="s">
         <v>1</v>
@@ -3856,14 +3871,14 @@
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="48" t="s">
         <v>153</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
@@ -3902,14 +3917,14 @@
       <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="47" t="s">
+      <c r="B5" s="49" t="s">
         <v>155</v>
       </c>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
       <c r="H5" s="3" t="s">
         <v>156</v>
       </c>
@@ -3920,48 +3935,48 @@
     </row>
     <row r="6" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6"/>
-      <c r="B6" s="43"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7"/>
-      <c r="B7" s="43"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="43"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8"/>
-      <c r="B8" s="43"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="43"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9"/>
-      <c r="B9" s="43"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="43"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="45"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="5"/>
@@ -4049,11 +4064,11 @@
       </c>
       <c r="B14" s="5">
         <f>B13-C14</f>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C14" s="9">
         <f>COUNTIF(G$24:G$106,"Finished in Sprint 2")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="5"/>
@@ -4073,7 +4088,7 @@
       </c>
       <c r="B15" s="5">
         <f>B14-C15</f>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C15" s="9">
         <f>COUNTIF(G$24:G$106,"Finished in Sprint 3")</f>
@@ -4097,7 +4112,7 @@
       </c>
       <c r="B16" s="5">
         <f>B15-C16</f>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C16" s="9">
         <f>COUNTIF(G$24:G$106,"Finished in Sprint 4")</f>
@@ -4117,7 +4132,7 @@
       </c>
       <c r="B17" s="5">
         <f>B16-C17</f>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C17" s="9">
         <f>COUNTIF(G$24:G$106,"Finished in Sprint 4")</f>
@@ -4189,10 +4204,10 @@
       <c r="C22" s="13"/>
       <c r="D22" s="13"/>
       <c r="E22" s="13"/>
-      <c r="F22" s="44" t="s">
+      <c r="F22" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="G22" s="44"/>
+      <c r="G22" s="46"/>
       <c r="H22" s="13"/>
       <c r="I22" s="13" t="s">
         <v>19</v>
@@ -4443,7 +4458,9 @@
       <c r="F30" s="17">
         <v>2</v>
       </c>
-      <c r="G30" s="17"/>
+      <c r="G30" s="17" t="s">
+        <v>188</v>
+      </c>
       <c r="H30" s="18" t="s">
         <v>31</v>
       </c>
@@ -5759,7 +5776,7 @@
   <dimension ref="A1:AMJ100"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A15" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5864,7 +5881,7 @@
       </c>
       <c r="B7" s="25">
         <f>COUNTA(D17:D995)</f>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C7" s="25"/>
       <c r="D7" s="25"/>
@@ -5879,7 +5896,7 @@
       </c>
       <c r="B8" s="25">
         <f t="shared" ref="B8:B14" si="0">B7-C8</f>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C8" s="25">
         <f>COUNTIF(E$17:E$995, "Completed Day 1")</f>
@@ -5901,7 +5918,7 @@
       </c>
       <c r="C9" s="25">
         <f>COUNTIF(E$17:E$995, "Completed Day 2")</f>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D9" s="25"/>
       <c r="E9" s="25"/>
@@ -6039,7 +6056,7 @@
       <c r="C17" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="D17" s="49" t="s">
+      <c r="D17" s="44" t="s">
         <v>184</v>
       </c>
       <c r="E17" s="37" t="s">
@@ -6115,60 +6132,108 @@
       <c r="A22" s="4">
         <v>6</v>
       </c>
-      <c r="B22" s="35"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="37"/>
+      <c r="B22" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D22" s="39" t="s">
+        <v>189</v>
+      </c>
+      <c r="E22" s="37" t="s">
+        <v>173</v>
+      </c>
       <c r="F22" s="38"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>7</v>
       </c>
-      <c r="B23" s="35"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="37"/>
+      <c r="B23" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D23" s="39" t="s">
+        <v>190</v>
+      </c>
+      <c r="E23" s="37" t="s">
+        <v>173</v>
+      </c>
       <c r="F23" s="38"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>8</v>
       </c>
-      <c r="B24" s="35"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="37"/>
+      <c r="B24" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D24" s="39" t="s">
+        <v>193</v>
+      </c>
+      <c r="E24" s="37" t="s">
+        <v>173</v>
+      </c>
       <c r="F24" s="38"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>9</v>
       </c>
-      <c r="B25" s="35"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="37"/>
+      <c r="B25" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D25" s="39" t="s">
+        <v>191</v>
+      </c>
+      <c r="E25" s="37" t="s">
+        <v>173</v>
+      </c>
       <c r="F25" s="38"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>10</v>
       </c>
-      <c r="B26" s="35"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="39"/>
-      <c r="E26" s="37"/>
+      <c r="B26" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D26" s="39" t="s">
+        <v>192</v>
+      </c>
+      <c r="E26" s="37" t="s">
+        <v>173</v>
+      </c>
       <c r="F26" s="38"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>11</v>
       </c>
-      <c r="B27" s="35"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="37"/>
+      <c r="B27" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D27" s="39" t="s">
+        <v>193</v>
+      </c>
+      <c r="E27" s="37" t="s">
+        <v>173</v>
+      </c>
       <c r="F27" s="38"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -7237,7 +7302,7 @@
       <c r="C17" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="D17" s="48" t="s">
+      <c r="D17" s="43" t="s">
         <v>157</v>
       </c>
       <c r="E17" s="37" t="s">

--- a/P06/Scrum_Sprint_2.xlsx
+++ b/P06/Scrum_Sprint_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcnar\Desktop\cse1325\P06\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11A0B943-E3D7-417A-9969-0DDDF396E694}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{595E6C7C-3D80-4F24-A210-95FF25CE26E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7080" yWindow="2820" windowWidth="21600" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="197">
   <si>
     <t>Product Name:</t>
   </si>
@@ -624,6 +624,15 @@
   </si>
   <si>
     <t>Git add, commit, push</t>
+  </si>
+  <si>
+    <t>Construct onInsertComputerClick()</t>
+  </si>
+  <si>
+    <t>test with gui only</t>
+  </si>
+  <si>
+    <t>In Work</t>
   </si>
 </sst>
 </file>
@@ -1159,16 +1168,16 @@
                   <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>16</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1453,28 +1462,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3829,8 +3838,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ100"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4064,11 +4073,11 @@
       </c>
       <c r="B14" s="5">
         <f>B13-C14</f>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C14" s="9">
         <f>COUNTIF(G$24:G$106,"Finished in Sprint 2")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="5"/>
@@ -4088,7 +4097,7 @@
       </c>
       <c r="B15" s="5">
         <f>B14-C15</f>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C15" s="9">
         <f>COUNTIF(G$24:G$106,"Finished in Sprint 3")</f>
@@ -4112,7 +4121,7 @@
       </c>
       <c r="B16" s="5">
         <f>B15-C16</f>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C16" s="9">
         <f>COUNTIF(G$24:G$106,"Finished in Sprint 4")</f>
@@ -4132,7 +4141,7 @@
       </c>
       <c r="B17" s="5">
         <f>B16-C17</f>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17" s="9">
         <f>COUNTIF(G$24:G$106,"Finished in Sprint 4")</f>
@@ -4491,7 +4500,9 @@
       <c r="F31" s="17">
         <v>2</v>
       </c>
-      <c r="G31" s="17"/>
+      <c r="G31" s="17" t="s">
+        <v>188</v>
+      </c>
       <c r="H31" s="18" t="s">
         <v>31</v>
       </c>
@@ -5775,8 +5786,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AMJ100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView topLeftCell="A21" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5881,7 +5892,7 @@
       </c>
       <c r="B7" s="25">
         <f>COUNTA(D17:D995)</f>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C7" s="25"/>
       <c r="D7" s="25"/>
@@ -5896,7 +5907,7 @@
       </c>
       <c r="B8" s="25">
         <f t="shared" ref="B8:B14" si="0">B7-C8</f>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C8" s="25">
         <f>COUNTIF(E$17:E$995, "Completed Day 1")</f>
@@ -5914,7 +5925,7 @@
       </c>
       <c r="B9" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C9" s="25">
         <f>COUNTIF(E$17:E$995, "Completed Day 2")</f>
@@ -5932,7 +5943,7 @@
       </c>
       <c r="B10" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C10" s="25">
         <f>COUNTIF(E$17:E$995, "Completed Day 3")</f>
@@ -5950,7 +5961,7 @@
       </c>
       <c r="B11" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C11" s="25">
         <f>COUNTIF(E$17:E$995, "Completed Day 4")</f>
@@ -5968,7 +5979,7 @@
       </c>
       <c r="B12" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C12" s="25">
         <f>COUNTIF(E$17:E$995, "Completed Day 5")</f>
@@ -5986,7 +5997,7 @@
       </c>
       <c r="B13" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C13" s="25">
         <f>COUNTIF(E$17:E$995, "Completed Day 6")</f>
@@ -6004,7 +6015,7 @@
       </c>
       <c r="B14" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C14" s="25">
         <f>COUNTIF(E$17:E$995, "Completed Day 7")</f>
@@ -6250,30 +6261,54 @@
       <c r="A29" s="4">
         <v>13</v>
       </c>
-      <c r="B29" s="35"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="39"/>
-      <c r="E29" s="37"/>
+      <c r="B29" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D29" s="39" t="s">
+        <v>194</v>
+      </c>
+      <c r="E29" s="37" t="s">
+        <v>196</v>
+      </c>
       <c r="F29" s="38"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>14</v>
       </c>
-      <c r="B30" s="35"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="39"/>
-      <c r="E30" s="37"/>
+      <c r="B30" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D30" s="39" t="s">
+        <v>195</v>
+      </c>
+      <c r="E30" s="37" t="s">
+        <v>196</v>
+      </c>
       <c r="F30" s="38"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>15</v>
       </c>
-      <c r="B31" s="35"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="39"/>
-      <c r="E31" s="37"/>
+      <c r="B31" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D31" s="39" t="s">
+        <v>193</v>
+      </c>
+      <c r="E31" s="37" t="s">
+        <v>196</v>
+      </c>
       <c r="F31" s="38"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">

--- a/P06/Scrum_Sprint_2.xlsx
+++ b/P06/Scrum_Sprint_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcnar\Desktop\cse1325\P06\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{595E6C7C-3D80-4F24-A210-95FF25CE26E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD06EAFB-AB5A-45EE-A7E0-10BFCA28FA12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7080" yWindow="2820" windowWidth="21600" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="198">
   <si>
     <t>Product Name:</t>
   </si>
@@ -632,7 +632,10 @@
     <t>test with gui only</t>
   </si>
   <si>
-    <t>In Work</t>
+    <t>Not Started</t>
+  </si>
+  <si>
+    <t>Completed Day 3</t>
   </si>
 </sst>
 </file>
@@ -1168,16 +1171,16 @@
                   <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>15</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1471,19 +1474,19 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3838,8 +3841,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4073,11 +4076,11 @@
       </c>
       <c r="B14" s="5">
         <f>B13-C14</f>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C14" s="9">
         <f>COUNTIF(G$24:G$106,"Finished in Sprint 2")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="5"/>
@@ -4097,7 +4100,7 @@
       </c>
       <c r="B15" s="5">
         <f>B14-C15</f>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C15" s="9">
         <f>COUNTIF(G$24:G$106,"Finished in Sprint 3")</f>
@@ -4121,7 +4124,7 @@
       </c>
       <c r="B16" s="5">
         <f>B15-C16</f>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C16" s="9">
         <f>COUNTIF(G$24:G$106,"Finished in Sprint 4")</f>
@@ -4141,7 +4144,7 @@
       </c>
       <c r="B17" s="5">
         <f>B16-C17</f>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C17" s="9">
         <f>COUNTIF(G$24:G$106,"Finished in Sprint 4")</f>
@@ -4531,7 +4534,9 @@
       <c r="F32" s="17">
         <v>2</v>
       </c>
-      <c r="G32" s="17"/>
+      <c r="G32" s="17" t="s">
+        <v>188</v>
+      </c>
       <c r="H32" s="18" t="s">
         <v>31</v>
       </c>
@@ -4560,7 +4565,9 @@
       <c r="F33" s="17">
         <v>2</v>
       </c>
-      <c r="G33" s="17"/>
+      <c r="G33" s="17" t="s">
+        <v>196</v>
+      </c>
       <c r="H33" s="18" t="s">
         <v>31</v>
       </c>
@@ -4591,7 +4598,9 @@
       <c r="F34" s="17">
         <v>2</v>
       </c>
-      <c r="G34" s="17"/>
+      <c r="G34" s="17" t="s">
+        <v>196</v>
+      </c>
       <c r="H34" s="18" t="s">
         <v>31</v>
       </c>
@@ -5786,8 +5795,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AMJ100"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView topLeftCell="E21" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5943,11 +5952,11 @@
       </c>
       <c r="B10" s="25">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C10" s="25">
         <f>COUNTIF(E$17:E$995, "Completed Day 3")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D10" s="25"/>
       <c r="E10" s="25"/>
@@ -5961,7 +5970,7 @@
       </c>
       <c r="B11" s="25">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C11" s="25">
         <f>COUNTIF(E$17:E$995, "Completed Day 4")</f>
@@ -5979,7 +5988,7 @@
       </c>
       <c r="B12" s="25">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C12" s="25">
         <f>COUNTIF(E$17:E$995, "Completed Day 5")</f>
@@ -5997,7 +6006,7 @@
       </c>
       <c r="B13" s="25">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C13" s="25">
         <f>COUNTIF(E$17:E$995, "Completed Day 6")</f>
@@ -6015,7 +6024,7 @@
       </c>
       <c r="B14" s="25">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C14" s="25">
         <f>COUNTIF(E$17:E$995, "Completed Day 7")</f>
@@ -6271,7 +6280,7 @@
         <v>194</v>
       </c>
       <c r="E29" s="37" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F29" s="38"/>
     </row>
@@ -6289,7 +6298,7 @@
         <v>195</v>
       </c>
       <c r="E30" s="37" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F30" s="38"/>
     </row>
@@ -6307,7 +6316,7 @@
         <v>193</v>
       </c>
       <c r="E31" s="37" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F31" s="38"/>
     </row>

--- a/P06/Scrum_Sprint_2.xlsx
+++ b/P06/Scrum_Sprint_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcnar\Desktop\cse1325\P06\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD06EAFB-AB5A-45EE-A7E0-10BFCA28FA12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80E5C913-5FED-457C-B395-C1CE40DD2073}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="200">
   <si>
     <t>Product Name:</t>
   </si>
@@ -636,6 +636,12 @@
   </si>
   <si>
     <t>Completed Day 3</t>
+  </si>
+  <si>
+    <t>In Work</t>
+  </si>
+  <si>
+    <t>Construct onViewClick() method</t>
   </si>
 </sst>
 </file>
@@ -1465,28 +1471,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>13</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3841,8 +3847,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4566,7 +4572,7 @@
         <v>2</v>
       </c>
       <c r="G33" s="17" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="H33" s="18" t="s">
         <v>31</v>
@@ -5795,8 +5801,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AMJ100"/>
   <sheetViews>
-    <sheetView topLeftCell="E21" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView topLeftCell="A21" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5901,7 +5907,7 @@
       </c>
       <c r="B7" s="25">
         <f>COUNTA(D17:D995)</f>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C7" s="25"/>
       <c r="D7" s="25"/>
@@ -5916,7 +5922,7 @@
       </c>
       <c r="B8" s="25">
         <f t="shared" ref="B8:B14" si="0">B7-C8</f>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C8" s="25">
         <f>COUNTIF(E$17:E$995, "Completed Day 1")</f>
@@ -5934,7 +5940,7 @@
       </c>
       <c r="B9" s="25">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C9" s="25">
         <f>COUNTIF(E$17:E$995, "Completed Day 2")</f>
@@ -5952,7 +5958,7 @@
       </c>
       <c r="B10" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C10" s="25">
         <f>COUNTIF(E$17:E$995, "Completed Day 3")</f>
@@ -5970,7 +5976,7 @@
       </c>
       <c r="B11" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C11" s="25">
         <f>COUNTIF(E$17:E$995, "Completed Day 4")</f>
@@ -5988,7 +5994,7 @@
       </c>
       <c r="B12" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C12" s="25">
         <f>COUNTIF(E$17:E$995, "Completed Day 5")</f>
@@ -6006,7 +6012,7 @@
       </c>
       <c r="B13" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C13" s="25">
         <f>COUNTIF(E$17:E$995, "Completed Day 6")</f>
@@ -6024,7 +6030,7 @@
       </c>
       <c r="B14" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C14" s="25">
         <f>COUNTIF(E$17:E$995, "Completed Day 7")</f>
@@ -6334,10 +6340,18 @@
       <c r="A33" s="4">
         <v>17</v>
       </c>
-      <c r="B33" s="35"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="39"/>
-      <c r="E33" s="37"/>
+      <c r="B33" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D33" s="39" t="s">
+        <v>199</v>
+      </c>
+      <c r="E33" s="37" t="s">
+        <v>198</v>
+      </c>
       <c r="F33" s="38"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
@@ -6346,8 +6360,12 @@
       </c>
       <c r="B34" s="35"/>
       <c r="C34" s="4"/>
-      <c r="D34" s="39"/>
-      <c r="E34" s="37"/>
+      <c r="D34" s="39" t="s">
+        <v>195</v>
+      </c>
+      <c r="E34" s="37" t="s">
+        <v>198</v>
+      </c>
       <c r="F34" s="38"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
@@ -6356,8 +6374,12 @@
       </c>
       <c r="B35" s="35"/>
       <c r="C35" s="4"/>
-      <c r="D35" s="39"/>
-      <c r="E35" s="37"/>
+      <c r="D35" s="39" t="s">
+        <v>193</v>
+      </c>
+      <c r="E35" s="37" t="s">
+        <v>198</v>
+      </c>
       <c r="F35" s="38"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">

--- a/P06/Scrum_Sprint_2.xlsx
+++ b/P06/Scrum_Sprint_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcnar\Desktop\cse1325\P06\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80E5C913-5FED-457C-B395-C1CE40DD2073}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E5822A1-D338-4B7C-A685-86A4608DD9E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="200">
   <si>
     <t>Product Name:</t>
   </si>
@@ -638,10 +638,10 @@
     <t>Completed Day 3</t>
   </si>
   <si>
-    <t>In Work</t>
-  </si>
-  <si>
     <t>Construct onViewClick() method</t>
+  </si>
+  <si>
+    <t>Completed Day 4</t>
   </si>
 </sst>
 </file>
@@ -1177,16 +1177,16 @@
                   <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1480,19 +1480,19 @@
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3847,8 +3847,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView topLeftCell="A20" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4082,11 +4082,11 @@
       </c>
       <c r="B14" s="5">
         <f>B13-C14</f>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C14" s="9">
         <f>COUNTIF(G$24:G$106,"Finished in Sprint 2")</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="5"/>
@@ -4106,7 +4106,7 @@
       </c>
       <c r="B15" s="5">
         <f>B14-C15</f>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C15" s="9">
         <f>COUNTIF(G$24:G$106,"Finished in Sprint 3")</f>
@@ -4130,7 +4130,7 @@
       </c>
       <c r="B16" s="5">
         <f>B15-C16</f>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C16" s="9">
         <f>COUNTIF(G$24:G$106,"Finished in Sprint 4")</f>
@@ -4150,7 +4150,7 @@
       </c>
       <c r="B17" s="5">
         <f>B16-C17</f>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C17" s="9">
         <f>COUNTIF(G$24:G$106,"Finished in Sprint 4")</f>
@@ -4572,7 +4572,7 @@
         <v>2</v>
       </c>
       <c r="G33" s="17" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="H33" s="18" t="s">
         <v>31</v>
@@ -5801,8 +5801,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AMJ100"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5958,11 +5958,11 @@
       </c>
       <c r="B10" s="25">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C10" s="25">
         <f>COUNTIF(E$17:E$995, "Completed Day 3")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D10" s="25"/>
       <c r="E10" s="25"/>
@@ -5976,11 +5976,11 @@
       </c>
       <c r="B11" s="25">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C11" s="25">
         <f>COUNTIF(E$17:E$995, "Completed Day 4")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D11" s="25"/>
       <c r="E11" s="25"/>
@@ -5994,7 +5994,7 @@
       </c>
       <c r="B12" s="25">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C12" s="25">
         <f>COUNTIF(E$17:E$995, "Completed Day 5")</f>
@@ -6012,7 +6012,7 @@
       </c>
       <c r="B13" s="25">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C13" s="25">
         <f>COUNTIF(E$17:E$995, "Completed Day 6")</f>
@@ -6030,7 +6030,7 @@
       </c>
       <c r="B14" s="25">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C14" s="25">
         <f>COUNTIF(E$17:E$995, "Completed Day 7")</f>
@@ -6347,10 +6347,10 @@
         <v>156</v>
       </c>
       <c r="D33" s="39" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E33" s="37" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F33" s="38"/>
     </row>
@@ -6358,13 +6358,17 @@
       <c r="A34" s="4">
         <v>18</v>
       </c>
-      <c r="B34" s="35"/>
-      <c r="C34" s="4"/>
+      <c r="B34" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>156</v>
+      </c>
       <c r="D34" s="39" t="s">
         <v>195</v>
       </c>
       <c r="E34" s="37" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F34" s="38"/>
     </row>
@@ -6372,13 +6376,17 @@
       <c r="A35" s="4">
         <v>19</v>
       </c>
-      <c r="B35" s="35"/>
-      <c r="C35" s="4"/>
+      <c r="B35" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>156</v>
+      </c>
       <c r="D35" s="39" t="s">
         <v>193</v>
       </c>
       <c r="E35" s="37" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F35" s="38"/>
     </row>

--- a/P06/Scrum_Sprint_2.xlsx
+++ b/P06/Scrum_Sprint_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcnar\Desktop\cse1325\P06\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E5822A1-D338-4B7C-A685-86A4608DD9E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A95C0E4F-25F2-4754-84DD-75954C50BCCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="203">
   <si>
     <t>Product Name:</t>
   </si>
@@ -632,9 +632,6 @@
     <t>test with gui only</t>
   </si>
   <si>
-    <t>Not Started</t>
-  </si>
-  <si>
     <t>Completed Day 3</t>
   </si>
   <si>
@@ -642,6 +639,18 @@
   </si>
   <si>
     <t>Completed Day 4</t>
+  </si>
+  <si>
+    <t>Construct each button for the Toolbar</t>
+  </si>
+  <si>
+    <t>Find Photos for each button on the Toolbar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test with gui </t>
+  </si>
+  <si>
+    <t>Completed Day 5</t>
   </si>
 </sst>
 </file>
@@ -1177,16 +1186,16 @@
                   <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1471,19 +1480,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>16</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -3847,8 +3856,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ100"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4082,11 +4091,11 @@
       </c>
       <c r="B14" s="5">
         <f>B13-C14</f>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C14" s="9">
         <f>COUNTIF(G$24:G$106,"Finished in Sprint 2")</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="5"/>
@@ -4106,7 +4115,7 @@
       </c>
       <c r="B15" s="5">
         <f>B14-C15</f>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C15" s="9">
         <f>COUNTIF(G$24:G$106,"Finished in Sprint 3")</f>
@@ -4130,7 +4139,7 @@
       </c>
       <c r="B16" s="5">
         <f>B15-C16</f>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C16" s="9">
         <f>COUNTIF(G$24:G$106,"Finished in Sprint 4")</f>
@@ -4150,7 +4159,7 @@
       </c>
       <c r="B17" s="5">
         <f>B16-C17</f>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C17" s="9">
         <f>COUNTIF(G$24:G$106,"Finished in Sprint 4")</f>
@@ -4605,7 +4614,7 @@
         <v>2</v>
       </c>
       <c r="G34" s="17" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="H34" s="18" t="s">
         <v>31</v>
@@ -5801,8 +5810,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AMJ100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView topLeftCell="A21" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5907,7 +5916,7 @@
       </c>
       <c r="B7" s="25">
         <f>COUNTA(D17:D995)</f>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C7" s="25"/>
       <c r="D7" s="25"/>
@@ -5922,7 +5931,7 @@
       </c>
       <c r="B8" s="25">
         <f t="shared" ref="B8:B14" si="0">B7-C8</f>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C8" s="25">
         <f>COUNTIF(E$17:E$995, "Completed Day 1")</f>
@@ -5940,7 +5949,7 @@
       </c>
       <c r="B9" s="25">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C9" s="25">
         <f>COUNTIF(E$17:E$995, "Completed Day 2")</f>
@@ -5958,7 +5967,7 @@
       </c>
       <c r="B10" s="25">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C10" s="25">
         <f>COUNTIF(E$17:E$995, "Completed Day 3")</f>
@@ -5976,11 +5985,11 @@
       </c>
       <c r="B11" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C11" s="25">
         <f>COUNTIF(E$17:E$995, "Completed Day 4")</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D11" s="25"/>
       <c r="E11" s="25"/>
@@ -5998,7 +6007,7 @@
       </c>
       <c r="C12" s="25">
         <f>COUNTIF(E$17:E$995, "Completed Day 5")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D12" s="25"/>
       <c r="E12" s="25"/>
@@ -6286,7 +6295,7 @@
         <v>194</v>
       </c>
       <c r="E29" s="37" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F29" s="38"/>
     </row>
@@ -6304,7 +6313,7 @@
         <v>195</v>
       </c>
       <c r="E30" s="37" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F30" s="38"/>
     </row>
@@ -6322,7 +6331,7 @@
         <v>193</v>
       </c>
       <c r="E31" s="37" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F31" s="38"/>
     </row>
@@ -6347,10 +6356,10 @@
         <v>156</v>
       </c>
       <c r="D33" s="39" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E33" s="37" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F33" s="38"/>
     </row>
@@ -6368,7 +6377,7 @@
         <v>195</v>
       </c>
       <c r="E34" s="37" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F34" s="38"/>
     </row>
@@ -6386,7 +6395,7 @@
         <v>193</v>
       </c>
       <c r="E35" s="37" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F35" s="38"/>
     </row>
@@ -6404,40 +6413,72 @@
       <c r="A37" s="4">
         <v>21</v>
       </c>
-      <c r="B37" s="35"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="39"/>
-      <c r="E37" s="37"/>
+      <c r="B37" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D37" s="39" t="s">
+        <v>199</v>
+      </c>
+      <c r="E37" s="37" t="s">
+        <v>198</v>
+      </c>
       <c r="F37" s="38"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>22</v>
       </c>
-      <c r="B38" s="35"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="39"/>
-      <c r="E38" s="37"/>
+      <c r="B38" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D38" s="39" t="s">
+        <v>200</v>
+      </c>
+      <c r="E38" s="37" t="s">
+        <v>198</v>
+      </c>
       <c r="F38" s="38"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
         <v>23</v>
       </c>
-      <c r="B39" s="35"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="39"/>
-      <c r="E39" s="37"/>
+      <c r="B39" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D39" s="39" t="s">
+        <v>201</v>
+      </c>
+      <c r="E39" s="37" t="s">
+        <v>202</v>
+      </c>
       <c r="F39" s="38"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <v>24</v>
       </c>
-      <c r="B40" s="35"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="39"/>
-      <c r="E40" s="37"/>
+      <c r="B40" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D40" s="39" t="s">
+        <v>193</v>
+      </c>
+      <c r="E40" s="37" t="s">
+        <v>202</v>
+      </c>
       <c r="F40" s="38"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
